--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,25 @@
         <v>133.4</v>
       </c>
       <c r="C2" t="n">
-        <v>133.4</v>
+        <v>131.9</v>
       </c>
       <c r="D2" t="n">
         <v>133.4</v>
       </c>
       <c r="E2" t="n">
-        <v>133.4</v>
+        <v>131.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2007.9082</v>
+        <v>824.6251874062968</v>
       </c>
       <c r="G2" t="n">
-        <v>132.135</v>
+        <v>132.11</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -480,10 +480,10 @@
         <v>133.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1109.317525187406</v>
+        <v>2007.9082</v>
       </c>
       <c r="G3" t="n">
-        <v>132.175</v>
+        <v>132.135</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>133.6</v>
+        <v>133.4</v>
       </c>
       <c r="C4" t="n">
-        <v>133.6</v>
+        <v>133.4</v>
       </c>
       <c r="D4" t="n">
-        <v>133.6</v>
+        <v>133.4</v>
       </c>
       <c r="E4" t="n">
-        <v>133.6</v>
+        <v>133.4</v>
       </c>
       <c r="F4" t="n">
-        <v>2652.451</v>
+        <v>1109.317525187406</v>
       </c>
       <c r="G4" t="n">
-        <v>132.2033333333333</v>
+        <v>132.175</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>131.4</v>
+        <v>133.6</v>
       </c>
       <c r="C5" t="n">
-        <v>131.4</v>
+        <v>133.6</v>
       </c>
       <c r="D5" t="n">
-        <v>131.4</v>
+        <v>133.6</v>
       </c>
       <c r="E5" t="n">
-        <v>131.4</v>
+        <v>133.6</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>2652.451</v>
       </c>
       <c r="G5" t="n">
-        <v>132.1933333333333</v>
+        <v>132.2033333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>133.6</v>
+        <v>131.4</v>
       </c>
       <c r="C6" t="n">
-        <v>133.6</v>
+        <v>131.4</v>
       </c>
       <c r="D6" t="n">
-        <v>133.6</v>
+        <v>131.4</v>
       </c>
       <c r="E6" t="n">
-        <v>133.6</v>
+        <v>131.4</v>
       </c>
       <c r="F6" t="n">
-        <v>4774.7514</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>132.22</v>
+        <v>132.1933333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>131.9</v>
+        <v>133.6</v>
       </c>
       <c r="C7" t="n">
-        <v>131.9</v>
+        <v>133.6</v>
       </c>
       <c r="D7" t="n">
-        <v>131.9</v>
+        <v>133.6</v>
       </c>
       <c r="E7" t="n">
-        <v>131.9</v>
+        <v>133.6</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>4774.7514</v>
       </c>
       <c r="G7" t="n">
-        <v>132.2183333333333</v>
+        <v>132.22</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>133.6</v>
+        <v>131.9</v>
       </c>
       <c r="C8" t="n">
-        <v>133.6</v>
+        <v>131.9</v>
       </c>
       <c r="D8" t="n">
-        <v>133.6</v>
+        <v>131.9</v>
       </c>
       <c r="E8" t="n">
-        <v>133.6</v>
+        <v>131.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1430.3411</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>132.2616666666667</v>
+        <v>132.2183333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>133.6</v>
       </c>
       <c r="F9" t="n">
-        <v>2852.8573</v>
+        <v>1430.3411</v>
       </c>
       <c r="G9" t="n">
-        <v>132.305</v>
+        <v>132.2616666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.8</v>
+        <v>133.6</v>
       </c>
       <c r="C10" t="n">
-        <v>133.8</v>
+        <v>133.6</v>
       </c>
       <c r="D10" t="n">
-        <v>133.8</v>
+        <v>133.6</v>
       </c>
       <c r="E10" t="n">
-        <v>133.8</v>
+        <v>133.6</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>2852.8573</v>
       </c>
       <c r="G10" t="n">
-        <v>132.3516666666667</v>
+        <v>132.305</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132</v>
+        <v>133.8</v>
       </c>
       <c r="C11" t="n">
-        <v>132</v>
+        <v>133.8</v>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>133.8</v>
       </c>
       <c r="E11" t="n">
-        <v>132</v>
+        <v>133.8</v>
       </c>
       <c r="F11" t="n">
         <v>75</v>
@@ -786,19 +786,19 @@
         <v>132</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" t="n">
         <v>132</v>
       </c>
       <c r="E12" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" t="n">
-        <v>26902.6575</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
-        <v>132.335</v>
+        <v>132.3516666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130.6</v>
+        <v>132</v>
       </c>
       <c r="C13" t="n">
-        <v>130.6</v>
+        <v>131</v>
       </c>
       <c r="D13" t="n">
-        <v>130.6</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>130.6</v>
+        <v>131</v>
       </c>
       <c r="F13" t="n">
-        <v>14.627</v>
+        <v>26902.6575</v>
       </c>
       <c r="G13" t="n">
-        <v>132.3116666666667</v>
+        <v>132.335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133</v>
+        <v>130.6</v>
       </c>
       <c r="C14" t="n">
-        <v>133</v>
+        <v>130.6</v>
       </c>
       <c r="D14" t="n">
-        <v>133</v>
+        <v>130.6</v>
       </c>
       <c r="E14" t="n">
-        <v>133</v>
+        <v>130.6</v>
       </c>
       <c r="F14" t="n">
-        <v>444</v>
+        <v>14.627</v>
       </c>
       <c r="G14" t="n">
-        <v>132.3283333333333</v>
+        <v>132.3116666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130.6</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
-        <v>129.1</v>
+        <v>133</v>
       </c>
       <c r="D15" t="n">
-        <v>130.6</v>
+        <v>133</v>
       </c>
       <c r="E15" t="n">
-        <v>129.1</v>
+        <v>133</v>
       </c>
       <c r="F15" t="n">
-        <v>267.1163</v>
+        <v>444</v>
       </c>
       <c r="G15" t="n">
-        <v>132.2966666666667</v>
+        <v>132.3283333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132.9</v>
+        <v>130.6</v>
       </c>
       <c r="C16" t="n">
-        <v>132.9</v>
+        <v>129.1</v>
       </c>
       <c r="D16" t="n">
-        <v>132.9</v>
+        <v>130.6</v>
       </c>
       <c r="E16" t="n">
-        <v>132.9</v>
+        <v>129.1</v>
       </c>
       <c r="F16" t="n">
-        <v>227</v>
+        <v>267.1163</v>
       </c>
       <c r="G16" t="n">
-        <v>132.3283333333333</v>
+        <v>132.2966666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>131.8</v>
+        <v>132.9</v>
       </c>
       <c r="C17" t="n">
-        <v>131.8</v>
+        <v>132.9</v>
       </c>
       <c r="D17" t="n">
-        <v>131.8</v>
+        <v>132.9</v>
       </c>
       <c r="E17" t="n">
-        <v>131.8</v>
+        <v>132.9</v>
       </c>
       <c r="F17" t="n">
-        <v>240.3688</v>
+        <v>227</v>
       </c>
       <c r="G17" t="n">
-        <v>132.325</v>
+        <v>132.3283333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="F18" t="n">
-        <v>1304.8157</v>
+        <v>240.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>132.3233333333334</v>
+        <v>132.325</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>131.9</v>
       </c>
       <c r="F19" t="n">
-        <v>3440.2141</v>
+        <v>1304.8157</v>
       </c>
       <c r="G19" t="n">
-        <v>132.3416666666667</v>
+        <v>132.3233333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>131.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5619.5839</v>
+        <v>3440.2141</v>
       </c>
       <c r="G20" t="n">
-        <v>132.34</v>
+        <v>132.3416666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="C21" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="D21" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="E21" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="F21" t="n">
-        <v>54</v>
+        <v>5619.5839</v>
       </c>
       <c r="G21" t="n">
         <v>132.34</v>
@@ -1136,19 +1136,19 @@
         <v>132</v>
       </c>
       <c r="C22" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D22" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E22" t="n">
         <v>132</v>
       </c>
       <c r="F22" t="n">
-        <v>45352.7683</v>
+        <v>54</v>
       </c>
       <c r="G22" t="n">
-        <v>132.355</v>
+        <v>132.34</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="D23" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="E23" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" t="n">
-        <v>3405.4974</v>
+        <v>45352.7683</v>
       </c>
       <c r="G23" t="n">
-        <v>132.3716666666667</v>
+        <v>132.355</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>133</v>
       </c>
       <c r="F24" t="n">
-        <v>2330.779</v>
+        <v>3405.4974</v>
       </c>
       <c r="G24" t="n">
-        <v>132.3883333333333</v>
+        <v>132.3716666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>133</v>
       </c>
       <c r="C25" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="D25" t="n">
-        <v>133.3</v>
+        <v>133</v>
       </c>
       <c r="E25" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="F25" t="n">
-        <v>316.0429</v>
+        <v>2330.779</v>
       </c>
       <c r="G25" t="n">
-        <v>132.4033333333333</v>
+        <v>132.3883333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>133</v>
+      </c>
+      <c r="C26" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D26" t="n">
         <v>133.3</v>
       </c>
-      <c r="C26" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>133.8</v>
-      </c>
       <c r="E26" t="n">
-        <v>133.3</v>
+        <v>132.9</v>
       </c>
       <c r="F26" t="n">
-        <v>8453.2539</v>
+        <v>316.0429</v>
       </c>
       <c r="G26" t="n">
-        <v>132.4333333333333</v>
+        <v>132.4033333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>132.9</v>
+        <v>133.3</v>
       </c>
       <c r="C27" t="n">
-        <v>132.9</v>
+        <v>133.8</v>
       </c>
       <c r="D27" t="n">
-        <v>132.9</v>
+        <v>133.8</v>
       </c>
       <c r="E27" t="n">
-        <v>132.9</v>
+        <v>133.3</v>
       </c>
       <c r="F27" t="n">
-        <v>120.7589</v>
+        <v>8453.2539</v>
       </c>
       <c r="G27" t="n">
-        <v>132.4483333333333</v>
+        <v>132.4333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>132.9</v>
       </c>
       <c r="F28" t="n">
-        <v>2512.0371</v>
+        <v>120.7589</v>
       </c>
       <c r="G28" t="n">
-        <v>132.4633333333333</v>
+        <v>132.4483333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>132.9</v>
       </c>
       <c r="C29" t="n">
-        <v>131.9</v>
+        <v>132.9</v>
       </c>
       <c r="D29" t="n">
         <v>132.9</v>
       </c>
       <c r="E29" t="n">
-        <v>131.9</v>
+        <v>132.9</v>
       </c>
       <c r="F29" t="n">
-        <v>6143.3978</v>
+        <v>2512.0371</v>
       </c>
       <c r="G29" t="n">
-        <v>132.4683333333333</v>
+        <v>132.4633333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>132.9</v>
       </c>
       <c r="C30" t="n">
-        <v>132.9</v>
+        <v>131.9</v>
       </c>
       <c r="D30" t="n">
         <v>132.9</v>
       </c>
       <c r="E30" t="n">
-        <v>132.9</v>
+        <v>131.9</v>
       </c>
       <c r="F30" t="n">
-        <v>352.145</v>
+        <v>6143.3978</v>
       </c>
       <c r="G30" t="n">
-        <v>132.4833333333333</v>
+        <v>132.4683333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>132.9</v>
       </c>
       <c r="F31" t="n">
-        <v>145.7425</v>
+        <v>352.145</v>
       </c>
       <c r="G31" t="n">
-        <v>132.4983333333333</v>
+        <v>132.4833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>132.9</v>
       </c>
       <c r="F32" t="n">
-        <v>23.9122</v>
+        <v>145.7425</v>
       </c>
       <c r="G32" t="n">
-        <v>132.5133333333333</v>
+        <v>132.4983333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>132.9</v>
       </c>
       <c r="F33" t="n">
-        <v>2424.7726</v>
+        <v>23.9122</v>
       </c>
       <c r="G33" t="n">
-        <v>132.5283333333333</v>
+        <v>132.5133333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="C34" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="D34" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="E34" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="F34" t="n">
-        <v>253</v>
+        <v>2424.7726</v>
       </c>
       <c r="G34" t="n">
-        <v>132.5399999999999</v>
+        <v>132.5283333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>133.8</v>
+        <v>133</v>
       </c>
       <c r="C35" t="n">
-        <v>133.8</v>
+        <v>133</v>
       </c>
       <c r="D35" t="n">
-        <v>133.8</v>
+        <v>133</v>
       </c>
       <c r="E35" t="n">
-        <v>133.8</v>
+        <v>133</v>
       </c>
       <c r="F35" t="n">
-        <v>1969.263</v>
+        <v>253</v>
       </c>
       <c r="G35" t="n">
-        <v>132.5649999999999</v>
+        <v>132.5399999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>133.8</v>
       </c>
       <c r="C36" t="n">
-        <v>133.9</v>
+        <v>133.8</v>
       </c>
       <c r="D36" t="n">
-        <v>133.9</v>
+        <v>133.8</v>
       </c>
       <c r="E36" t="n">
         <v>133.8</v>
       </c>
       <c r="F36" t="n">
-        <v>6633.8786</v>
+        <v>1969.263</v>
       </c>
       <c r="G36" t="n">
-        <v>132.5916666666666</v>
+        <v>132.5649999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="C37" t="n">
         <v>133.9</v>
       </c>
-      <c r="C37" t="n">
-        <v>134</v>
-      </c>
       <c r="D37" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="E37" t="n">
-        <v>133.9</v>
+        <v>133.8</v>
       </c>
       <c r="F37" t="n">
-        <v>2137.2254</v>
+        <v>6633.8786</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6199999999999</v>
+        <v>132.5916666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="C38" t="n">
         <v>134</v>
@@ -1702,13 +1702,13 @@
         <v>134</v>
       </c>
       <c r="E38" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="F38" t="n">
-        <v>9362.126099999999</v>
+        <v>2137.2254</v>
       </c>
       <c r="G38" t="n">
-        <v>132.6483333333333</v>
+        <v>132.6199999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>134</v>
       </c>
       <c r="F39" t="n">
-        <v>288.447</v>
+        <v>9362.126099999999</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6716666666666</v>
+        <v>132.6483333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="C40" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="D40" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="E40" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="F40" t="n">
-        <v>262.8516</v>
+        <v>288.447</v>
       </c>
       <c r="G40" t="n">
-        <v>132.6766666666666</v>
+        <v>132.6716666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>132.9</v>
       </c>
       <c r="C41" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="D41" t="n">
         <v>132.9</v>
       </c>
       <c r="E41" t="n">
-        <v>132</v>
+        <v>132.9</v>
       </c>
       <c r="F41" t="n">
-        <v>4896.4865</v>
+        <v>262.8516</v>
       </c>
       <c r="G41" t="n">
-        <v>132.6749999999999</v>
+        <v>132.6766666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="C42" t="n">
         <v>132</v>
       </c>
-      <c r="C42" t="n">
-        <v>131.9</v>
-      </c>
       <c r="D42" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E42" t="n">
         <v>132</v>
       </c>
-      <c r="E42" t="n">
-        <v>131.9</v>
-      </c>
       <c r="F42" t="n">
-        <v>4807.4663</v>
+        <v>4896.4865</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6716666666666</v>
+        <v>132.6749999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>132</v>
       </c>
       <c r="C43" t="n">
-        <v>131.8</v>
+        <v>131.9</v>
       </c>
       <c r="D43" t="n">
         <v>132</v>
       </c>
       <c r="E43" t="n">
-        <v>131.8</v>
+        <v>131.9</v>
       </c>
       <c r="F43" t="n">
-        <v>3379.5281</v>
+        <v>4807.4663</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6649999999999</v>
+        <v>132.6716666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="C44" t="n">
         <v>131.8</v>
       </c>
       <c r="D44" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="E44" t="n">
         <v>131.8</v>
       </c>
       <c r="F44" t="n">
-        <v>337.8233</v>
+        <v>3379.5281</v>
       </c>
       <c r="G44" t="n">
-        <v>132.6583333333332</v>
+        <v>132.6649999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="C45" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="D45" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="E45" t="n">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>337.8233</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6416666666666</v>
+        <v>132.6583333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>131.9</v>
       </c>
       <c r="F46" t="n">
-        <v>130.428</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6249999999999</v>
+        <v>132.6416666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>131.9</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0236</v>
+        <v>130.428</v>
       </c>
       <c r="G47" t="n">
-        <v>132.6066666666666</v>
+        <v>132.6249999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>133.9</v>
+        <v>131.9</v>
       </c>
       <c r="C48" t="n">
-        <v>133.9</v>
+        <v>131.9</v>
       </c>
       <c r="D48" t="n">
-        <v>133.9</v>
+        <v>131.9</v>
       </c>
       <c r="E48" t="n">
-        <v>133.9</v>
+        <v>131.9</v>
       </c>
       <c r="F48" t="n">
-        <v>1593.568</v>
+        <v>0.0236</v>
       </c>
       <c r="G48" t="n">
-        <v>132.6149999999999</v>
+        <v>132.6066666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>133.9</v>
       </c>
       <c r="C49" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="D49" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="E49" t="n">
         <v>133.9</v>
       </c>
       <c r="F49" t="n">
-        <v>15932</v>
+        <v>1593.568</v>
       </c>
       <c r="G49" t="n">
-        <v>132.6649999999999</v>
+        <v>132.6149999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>133.8</v>
+        <v>133.9</v>
       </c>
       <c r="C50" t="n">
-        <v>131.9</v>
+        <v>134</v>
       </c>
       <c r="D50" t="n">
-        <v>133.8</v>
+        <v>134</v>
       </c>
       <c r="E50" t="n">
-        <v>131.9</v>
+        <v>133.9</v>
       </c>
       <c r="F50" t="n">
-        <v>711.5496000000001</v>
+        <v>15932</v>
       </c>
       <c r="G50" t="n">
-        <v>132.6399999999999</v>
+        <v>132.6649999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>133.8</v>
       </c>
       <c r="C51" t="n">
-        <v>133.8</v>
+        <v>131.9</v>
       </c>
       <c r="D51" t="n">
         <v>133.8</v>
       </c>
       <c r="E51" t="n">
-        <v>133.8</v>
+        <v>131.9</v>
       </c>
       <c r="F51" t="n">
-        <v>73</v>
+        <v>711.5496000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>132.6483333333332</v>
+        <v>132.6399999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>133.8</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8120000000000001</v>
+        <v>73</v>
       </c>
       <c r="G52" t="n">
-        <v>132.6766666666666</v>
+        <v>132.6483333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="C53" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="D53" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="E53" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="F53" t="n">
-        <v>3498.313497218045</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>132.7083333333332</v>
+        <v>132.6766666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="C54" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="D54" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="E54" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="F54" t="n">
-        <v>29</v>
+        <v>3498.313497218045</v>
       </c>
       <c r="G54" t="n">
-        <v>132.7449999999999</v>
+        <v>132.7083333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>134.1</v>
       </c>
       <c r="C55" t="n">
-        <v>134.2</v>
+        <v>134.1</v>
       </c>
       <c r="D55" t="n">
-        <v>134.2</v>
+        <v>134.1</v>
       </c>
       <c r="E55" t="n">
         <v>134.1</v>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G55" t="n">
-        <v>132.7633333333332</v>
+        <v>132.7449999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="C56" t="n">
         <v>134.2</v>
       </c>
-      <c r="C56" t="n">
-        <v>134.3</v>
-      </c>
       <c r="D56" t="n">
-        <v>134.3</v>
+        <v>134.2</v>
       </c>
       <c r="E56" t="n">
-        <v>134.2</v>
+        <v>134.1</v>
       </c>
       <c r="F56" t="n">
         <v>250</v>
       </c>
       <c r="G56" t="n">
-        <v>132.7833333333332</v>
+        <v>132.7633333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>134.3</v>
+        <v>134.2</v>
       </c>
       <c r="C57" t="n">
         <v>134.3</v>
@@ -2367,13 +2367,13 @@
         <v>134.3</v>
       </c>
       <c r="E57" t="n">
-        <v>134.3</v>
+        <v>134.2</v>
       </c>
       <c r="F57" t="n">
-        <v>3649.4797</v>
+        <v>250</v>
       </c>
       <c r="G57" t="n">
-        <v>132.8033333333332</v>
+        <v>132.7833333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>134.3</v>
       </c>
       <c r="C58" t="n">
-        <v>134.8</v>
+        <v>134.3</v>
       </c>
       <c r="D58" t="n">
-        <v>134.8</v>
+        <v>134.3</v>
       </c>
       <c r="E58" t="n">
         <v>134.3</v>
       </c>
       <c r="F58" t="n">
-        <v>23298.9157</v>
+        <v>3649.4797</v>
       </c>
       <c r="G58" t="n">
-        <v>132.8316666666666</v>
+        <v>132.8033333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>134.8</v>
+        <v>134.3</v>
       </c>
       <c r="C59" t="n">
         <v>134.8</v>
@@ -2437,13 +2437,13 @@
         <v>134.8</v>
       </c>
       <c r="E59" t="n">
-        <v>134.8</v>
+        <v>134.3</v>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>23298.9157</v>
       </c>
       <c r="G59" t="n">
-        <v>132.8883333333332</v>
+        <v>132.8316666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>134.8</v>
       </c>
       <c r="F60" t="n">
-        <v>2193.4605</v>
+        <v>250</v>
       </c>
       <c r="G60" t="n">
-        <v>132.9116666666666</v>
+        <v>132.8883333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2507,13 +2507,13 @@
         <v>134.8</v>
       </c>
       <c r="E61" t="n">
-        <v>134</v>
+        <v>134.8</v>
       </c>
       <c r="F61" t="n">
-        <v>4594.4055</v>
+        <v>2193.4605</v>
       </c>
       <c r="G61" t="n">
-        <v>132.9599999999999</v>
+        <v>132.9116666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2542,13 +2542,13 @@
         <v>134.8</v>
       </c>
       <c r="E62" t="n">
-        <v>134.8</v>
+        <v>134</v>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>4594.4055</v>
       </c>
       <c r="G62" t="n">
-        <v>132.9833333333333</v>
+        <v>132.9599999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>134.8</v>
       </c>
       <c r="F63" t="n">
-        <v>7750</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>133.0066666666666</v>
+        <v>132.9833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>134.8</v>
       </c>
       <c r="F64" t="n">
-        <v>8449.2009</v>
+        <v>7750</v>
       </c>
       <c r="G64" t="n">
-        <v>133.0266666666666</v>
+        <v>133.0066666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>134.8</v>
       </c>
       <c r="C65" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="D65" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="E65" t="n">
         <v>134.8</v>
       </c>
       <c r="F65" t="n">
-        <v>9110.83</v>
+        <v>8449.2009</v>
       </c>
       <c r="G65" t="n">
-        <v>133.0849999999999</v>
+        <v>133.0266666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="C66" t="n">
         <v>134.9</v>
@@ -2682,13 +2682,13 @@
         <v>134.9</v>
       </c>
       <c r="E66" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="F66" t="n">
-        <v>133</v>
+        <v>9110.83</v>
       </c>
       <c r="G66" t="n">
-        <v>133.1066666666666</v>
+        <v>133.0849999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>134.9</v>
       </c>
       <c r="C67" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="D67" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="E67" t="n">
         <v>134.9</v>
       </c>
       <c r="F67" t="n">
-        <v>4632.3375</v>
+        <v>133</v>
       </c>
       <c r="G67" t="n">
-        <v>133.1583333333332</v>
+        <v>133.1066666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C68" t="n">
         <v>135</v>
       </c>
-      <c r="C68" t="n">
-        <v>135.6</v>
-      </c>
       <c r="D68" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="E68" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="F68" t="n">
-        <v>1010.5187</v>
+        <v>4632.3375</v>
       </c>
       <c r="G68" t="n">
-        <v>133.1916666666666</v>
+        <v>133.1583333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>135</v>
+      </c>
+      <c r="C69" t="n">
         <v>135.6</v>
       </c>
-      <c r="C69" t="n">
-        <v>136.8</v>
-      </c>
       <c r="D69" t="n">
-        <v>136.8</v>
+        <v>135.6</v>
       </c>
       <c r="E69" t="n">
-        <v>135.6</v>
+        <v>135</v>
       </c>
       <c r="F69" t="n">
-        <v>9363.3352</v>
+        <v>1010.5187</v>
       </c>
       <c r="G69" t="n">
-        <v>133.2449999999999</v>
+        <v>133.1916666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>136.8</v>
+        <v>135.6</v>
       </c>
       <c r="C70" t="n">
         <v>136.8</v>
@@ -2822,13 +2822,13 @@
         <v>136.8</v>
       </c>
       <c r="E70" t="n">
-        <v>136.8</v>
+        <v>135.6</v>
       </c>
       <c r="F70" t="n">
-        <v>7113.309</v>
+        <v>9363.3352</v>
       </c>
       <c r="G70" t="n">
-        <v>133.2949999999999</v>
+        <v>133.2449999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>136.8</v>
       </c>
       <c r="F71" t="n">
-        <v>5510.318</v>
+        <v>7113.309</v>
       </c>
       <c r="G71" t="n">
-        <v>133.3749999999999</v>
+        <v>133.2949999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,16 +2895,16 @@
         <v>136.8</v>
       </c>
       <c r="F72" t="n">
-        <v>1746.0856</v>
+        <v>5510.318</v>
       </c>
       <c r="G72" t="n">
-        <v>133.4716666666666</v>
+        <v>133.3749999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2927,13 +2927,13 @@
         <v>136.8</v>
       </c>
       <c r="E73" t="n">
-        <v>134.9</v>
+        <v>136.8</v>
       </c>
       <c r="F73" t="n">
-        <v>4769.5227</v>
+        <v>1746.0856</v>
       </c>
       <c r="G73" t="n">
-        <v>133.5749999999999</v>
+        <v>133.4716666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2962,19 +2962,19 @@
         <v>136.8</v>
       </c>
       <c r="E74" t="n">
-        <v>136.8</v>
+        <v>134.9</v>
       </c>
       <c r="F74" t="n">
-        <v>5118.3471</v>
+        <v>4769.5227</v>
       </c>
       <c r="G74" t="n">
-        <v>133.6383333333333</v>
+        <v>133.5749999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3000,10 +3000,10 @@
         <v>136.8</v>
       </c>
       <c r="F75" t="n">
-        <v>4440.8996</v>
+        <v>5118.3471</v>
       </c>
       <c r="G75" t="n">
-        <v>133.7666666666666</v>
+        <v>133.6383333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>136.8</v>
       </c>
       <c r="C76" t="n">
-        <v>137</v>
+        <v>136.8</v>
       </c>
       <c r="D76" t="n">
-        <v>137</v>
+        <v>136.8</v>
       </c>
       <c r="E76" t="n">
         <v>136.8</v>
       </c>
       <c r="F76" t="n">
-        <v>10641.6784</v>
+        <v>4440.8996</v>
       </c>
       <c r="G76" t="n">
-        <v>133.8349999999999</v>
+        <v>133.7666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>137</v>
+        <v>136.8</v>
       </c>
       <c r="C77" t="n">
         <v>137</v>
@@ -3067,13 +3067,13 @@
         <v>137</v>
       </c>
       <c r="E77" t="n">
-        <v>137</v>
+        <v>136.8</v>
       </c>
       <c r="F77" t="n">
-        <v>98</v>
+        <v>10641.6784</v>
       </c>
       <c r="G77" t="n">
-        <v>133.9216666666666</v>
+        <v>133.8349999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>137</v>
       </c>
       <c r="C78" t="n">
-        <v>137.5</v>
+        <v>137</v>
       </c>
       <c r="D78" t="n">
-        <v>137.5</v>
+        <v>137</v>
       </c>
       <c r="E78" t="n">
         <v>137</v>
       </c>
       <c r="F78" t="n">
-        <v>3366.4335</v>
+        <v>98</v>
       </c>
       <c r="G78" t="n">
-        <v>134.0149999999999</v>
+        <v>133.9216666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>137.5</v>
+        <v>137</v>
       </c>
       <c r="C79" t="n">
         <v>137.5</v>
@@ -3137,13 +3137,13 @@
         <v>137.5</v>
       </c>
       <c r="E79" t="n">
-        <v>137.5</v>
+        <v>137</v>
       </c>
       <c r="F79" t="n">
-        <v>294</v>
+        <v>3366.4335</v>
       </c>
       <c r="G79" t="n">
-        <v>134.1083333333333</v>
+        <v>134.0149999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>137.5</v>
       </c>
       <c r="C80" t="n">
-        <v>138</v>
+        <v>137.5</v>
       </c>
       <c r="D80" t="n">
-        <v>138</v>
+        <v>137.5</v>
       </c>
       <c r="E80" t="n">
         <v>137.5</v>
       </c>
       <c r="F80" t="n">
-        <v>15565.83333333333</v>
+        <v>294</v>
       </c>
       <c r="G80" t="n">
-        <v>134.21</v>
+        <v>134.1083333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>138</v>
+        <v>137.5</v>
       </c>
       <c r="C81" t="n">
         <v>138</v>
@@ -3207,13 +3207,13 @@
         <v>138</v>
       </c>
       <c r="E81" t="n">
-        <v>138</v>
+        <v>137.5</v>
       </c>
       <c r="F81" t="n">
-        <v>368.9385</v>
+        <v>15565.83333333333</v>
       </c>
       <c r="G81" t="n">
-        <v>134.3099999999999</v>
+        <v>134.21</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>138</v>
       </c>
       <c r="F82" t="n">
-        <v>255.8435</v>
+        <v>368.9385</v>
       </c>
       <c r="G82" t="n">
-        <v>134.395</v>
+        <v>134.3099999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>136.3</v>
+        <v>138</v>
       </c>
       <c r="C83" t="n">
-        <v>136.3</v>
+        <v>138</v>
       </c>
       <c r="D83" t="n">
-        <v>136.3</v>
+        <v>138</v>
       </c>
       <c r="E83" t="n">
-        <v>136.3</v>
+        <v>138</v>
       </c>
       <c r="F83" t="n">
-        <v>399.34</v>
+        <v>255.8435</v>
       </c>
       <c r="G83" t="n">
-        <v>134.4499999999999</v>
+        <v>134.395</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>138</v>
+        <v>136.3</v>
       </c>
       <c r="C84" t="n">
-        <v>138</v>
+        <v>136.3</v>
       </c>
       <c r="D84" t="n">
-        <v>138</v>
+        <v>136.3</v>
       </c>
       <c r="E84" t="n">
-        <v>138</v>
+        <v>136.3</v>
       </c>
       <c r="F84" t="n">
-        <v>4919.3706</v>
+        <v>399.34</v>
       </c>
       <c r="G84" t="n">
-        <v>134.5333333333333</v>
+        <v>134.4499999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>138</v>
       </c>
       <c r="C85" t="n">
-        <v>138.6</v>
+        <v>138</v>
       </c>
       <c r="D85" t="n">
-        <v>138.6</v>
+        <v>138</v>
       </c>
       <c r="E85" t="n">
         <v>138</v>
       </c>
       <c r="F85" t="n">
-        <v>4930.550166666667</v>
+        <v>4919.3706</v>
       </c>
       <c r="G85" t="n">
-        <v>134.6283333333333</v>
+        <v>134.5333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" t="n">
-        <v>139</v>
+        <v>138.6</v>
       </c>
       <c r="D86" t="n">
-        <v>139</v>
+        <v>138.6</v>
       </c>
       <c r="E86" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>4930.550166666667</v>
       </c>
       <c r="G86" t="n">
-        <v>134.7149999999999</v>
+        <v>134.6283333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>139</v>
       </c>
       <c r="C87" t="n">
-        <v>139.7</v>
+        <v>139</v>
       </c>
       <c r="D87" t="n">
-        <v>139.7</v>
+        <v>139</v>
       </c>
       <c r="E87" t="n">
         <v>139</v>
       </c>
       <c r="F87" t="n">
-        <v>662</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>134.8283333333333</v>
+        <v>134.7149999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>139</v>
       </c>
       <c r="C88" t="n">
-        <v>139</v>
+        <v>139.7</v>
       </c>
       <c r="D88" t="n">
-        <v>139</v>
+        <v>139.7</v>
       </c>
       <c r="E88" t="n">
         <v>139</v>
       </c>
       <c r="F88" t="n">
-        <v>309.8143</v>
+        <v>662</v>
       </c>
       <c r="G88" t="n">
-        <v>134.9299999999999</v>
+        <v>134.8283333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>139</v>
       </c>
       <c r="F89" t="n">
-        <v>65.4866</v>
+        <v>309.8143</v>
       </c>
       <c r="G89" t="n">
-        <v>135.0483333333333</v>
+        <v>134.9299999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>137.5</v>
+        <v>139</v>
       </c>
       <c r="C90" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E90" t="n">
-        <v>137.5</v>
+        <v>139</v>
       </c>
       <c r="F90" t="n">
-        <v>6817.955</v>
+        <v>65.4866</v>
       </c>
       <c r="G90" t="n">
-        <v>135.1666666666666</v>
+        <v>135.0483333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>138.1</v>
+        <v>137.5</v>
       </c>
       <c r="C91" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="D91" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="E91" t="n">
-        <v>138.1</v>
+        <v>137.5</v>
       </c>
       <c r="F91" t="n">
-        <v>2287.2311</v>
+        <v>6817.955</v>
       </c>
       <c r="G91" t="n">
-        <v>135.2533333333333</v>
+        <v>135.1666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>138.1</v>
       </c>
       <c r="C92" t="n">
-        <v>140</v>
+        <v>138.1</v>
       </c>
       <c r="D92" t="n">
-        <v>140</v>
+        <v>138.1</v>
       </c>
       <c r="E92" t="n">
         <v>138.1</v>
       </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>2287.2311</v>
       </c>
       <c r="G92" t="n">
-        <v>135.3716666666666</v>
+        <v>135.2533333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>138.1</v>
       </c>
       <c r="C93" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="D93" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="E93" t="n">
         <v>138.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1384.3072</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>135.4583333333333</v>
+        <v>135.3716666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>138</v>
+        <v>138.1</v>
       </c>
       <c r="C94" t="n">
-        <v>137.2</v>
+        <v>138.1</v>
       </c>
       <c r="D94" t="n">
-        <v>138</v>
+        <v>138.1</v>
       </c>
       <c r="E94" t="n">
-        <v>137.2</v>
+        <v>138.1</v>
       </c>
       <c r="F94" t="n">
-        <v>1507.9274</v>
+        <v>1384.3072</v>
       </c>
       <c r="G94" t="n">
-        <v>135.5283333333333</v>
+        <v>135.4583333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>136.8</v>
+        <v>138</v>
       </c>
       <c r="C95" t="n">
-        <v>136</v>
+        <v>137.2</v>
       </c>
       <c r="D95" t="n">
-        <v>136.8</v>
+        <v>138</v>
       </c>
       <c r="E95" t="n">
-        <v>136</v>
+        <v>137.2</v>
       </c>
       <c r="F95" t="n">
-        <v>804.8927</v>
+        <v>1507.9274</v>
       </c>
       <c r="G95" t="n">
-        <v>135.565</v>
+        <v>135.5283333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>137</v>
+        <v>136.8</v>
       </c>
       <c r="C96" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D96" t="n">
-        <v>137</v>
+        <v>136.8</v>
       </c>
       <c r="E96" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F96" t="n">
-        <v>91</v>
+        <v>804.8927</v>
       </c>
       <c r="G96" t="n">
-        <v>135.6166666666667</v>
+        <v>135.565</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>137</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G97" t="n">
-        <v>135.6666666666667</v>
+        <v>135.6166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>137</v>
       </c>
       <c r="C98" t="n">
-        <v>137.7</v>
+        <v>137</v>
       </c>
       <c r="D98" t="n">
-        <v>137.7</v>
+        <v>137</v>
       </c>
       <c r="E98" t="n">
         <v>137</v>
       </c>
       <c r="F98" t="n">
-        <v>1385</v>
+        <v>30</v>
       </c>
       <c r="G98" t="n">
-        <v>135.7283333333334</v>
+        <v>135.6666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>137</v>
+      </c>
+      <c r="C99" t="n">
         <v>137.7</v>
       </c>
-      <c r="C99" t="n">
-        <v>138</v>
-      </c>
       <c r="D99" t="n">
-        <v>138</v>
+        <v>137.7</v>
       </c>
       <c r="E99" t="n">
-        <v>137.7</v>
+        <v>137</v>
       </c>
       <c r="F99" t="n">
-        <v>2302.3914</v>
+        <v>1385</v>
       </c>
       <c r="G99" t="n">
-        <v>135.795</v>
+        <v>135.7283333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>136.5</v>
+        <v>137.7</v>
       </c>
       <c r="C100" t="n">
-        <v>136.5</v>
+        <v>138</v>
       </c>
       <c r="D100" t="n">
-        <v>136.5</v>
+        <v>138</v>
       </c>
       <c r="E100" t="n">
-        <v>136.5</v>
+        <v>137.7</v>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>2302.3914</v>
       </c>
       <c r="G100" t="n">
-        <v>135.855</v>
+        <v>135.795</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>137.9</v>
+        <v>136.5</v>
       </c>
       <c r="C101" t="n">
-        <v>138</v>
+        <v>136.5</v>
       </c>
       <c r="D101" t="n">
-        <v>138</v>
+        <v>136.5</v>
       </c>
       <c r="E101" t="n">
-        <v>137.9</v>
+        <v>136.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>135.955</v>
+        <v>135.855</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>136.6</v>
+        <v>137.9</v>
       </c>
       <c r="C102" t="n">
-        <v>136.6</v>
+        <v>138</v>
       </c>
       <c r="D102" t="n">
-        <v>136.6</v>
+        <v>138</v>
       </c>
       <c r="E102" t="n">
-        <v>136.6</v>
+        <v>137.9</v>
       </c>
       <c r="F102" t="n">
-        <v>54.0539</v>
+        <v>2001</v>
       </c>
       <c r="G102" t="n">
-        <v>136.0333333333334</v>
+        <v>135.955</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>136.6</v>
       </c>
       <c r="F103" t="n">
-        <v>7.1297</v>
+        <v>54.0539</v>
       </c>
       <c r="G103" t="n">
-        <v>136.1133333333334</v>
+        <v>136.0333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>136</v>
+        <v>136.6</v>
       </c>
       <c r="C104" t="n">
-        <v>136</v>
+        <v>136.6</v>
       </c>
       <c r="D104" t="n">
-        <v>136</v>
+        <v>136.6</v>
       </c>
       <c r="E104" t="n">
-        <v>136</v>
+        <v>136.6</v>
       </c>
       <c r="F104" t="n">
-        <v>31.7252</v>
+        <v>7.1297</v>
       </c>
       <c r="G104" t="n">
-        <v>136.1833333333334</v>
+        <v>136.1133333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>135.2</v>
+        <v>136</v>
       </c>
       <c r="C105" t="n">
-        <v>135.2</v>
+        <v>136</v>
       </c>
       <c r="D105" t="n">
-        <v>135.4</v>
+        <v>136</v>
       </c>
       <c r="E105" t="n">
-        <v>135.2</v>
+        <v>136</v>
       </c>
       <c r="F105" t="n">
-        <v>6265.581</v>
+        <v>31.7252</v>
       </c>
       <c r="G105" t="n">
-        <v>136.2383333333334</v>
+        <v>136.1833333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>135</v>
+        <v>135.2</v>
       </c>
       <c r="C106" t="n">
-        <v>134.2</v>
+        <v>135.2</v>
       </c>
       <c r="D106" t="n">
-        <v>135</v>
+        <v>135.4</v>
       </c>
       <c r="E106" t="n">
-        <v>134.2</v>
+        <v>135.2</v>
       </c>
       <c r="F106" t="n">
-        <v>2705.3565</v>
+        <v>6265.581</v>
       </c>
       <c r="G106" t="n">
-        <v>136.2766666666667</v>
+        <v>136.2383333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" t="n">
-        <v>134</v>
+        <v>134.2</v>
       </c>
       <c r="D107" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E107" t="n">
-        <v>134</v>
+        <v>134.2</v>
       </c>
       <c r="F107" t="n">
-        <v>802.8798</v>
+        <v>2705.3565</v>
       </c>
       <c r="G107" t="n">
-        <v>136.3116666666668</v>
+        <v>136.2766666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>134</v>
       </c>
       <c r="D108" t="n">
-        <v>134.7</v>
+        <v>134</v>
       </c>
       <c r="E108" t="n">
-        <v>133.8</v>
+        <v>134</v>
       </c>
       <c r="F108" t="n">
-        <v>2051.3045</v>
+        <v>802.8798</v>
       </c>
       <c r="G108" t="n">
-        <v>136.3133333333334</v>
+        <v>136.3116666666668</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>134</v>
       </c>
       <c r="C109" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D109" t="n">
-        <v>134</v>
+        <v>134.7</v>
       </c>
       <c r="E109" t="n">
-        <v>133</v>
+        <v>133.8</v>
       </c>
       <c r="F109" t="n">
-        <v>8626.289000000001</v>
+        <v>2051.3045</v>
       </c>
       <c r="G109" t="n">
-        <v>136.2966666666667</v>
+        <v>136.3133333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" t="n">
         <v>133</v>
       </c>
       <c r="D110" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E110" t="n">
         <v>133</v>
       </c>
       <c r="F110" t="n">
-        <v>888.2546</v>
+        <v>8626.289000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>136.3150000000001</v>
+        <v>136.2966666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>134.3</v>
+        <v>133</v>
       </c>
       <c r="C111" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="D111" t="n">
-        <v>134.3</v>
+        <v>133</v>
       </c>
       <c r="E111" t="n">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="F111" t="n">
-        <v>2041.3983</v>
+        <v>888.2546</v>
       </c>
       <c r="G111" t="n">
-        <v>136.3033333333334</v>
+        <v>136.3150000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>133.1</v>
+        <v>134.3</v>
       </c>
       <c r="C112" t="n">
         <v>133.1</v>
       </c>
       <c r="D112" t="n">
-        <v>133.1</v>
+        <v>134.3</v>
       </c>
       <c r="E112" t="n">
         <v>133.1</v>
       </c>
       <c r="F112" t="n">
-        <v>108.7977</v>
+        <v>2041.3983</v>
       </c>
       <c r="G112" t="n">
-        <v>136.2916666666667</v>
+        <v>136.3033333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>133.1</v>
       </c>
       <c r="C113" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="D113" t="n">
         <v>133.1</v>
       </c>
       <c r="E113" t="n">
-        <v>132</v>
+        <v>133.1</v>
       </c>
       <c r="F113" t="n">
-        <v>362.0831</v>
+        <v>108.7977</v>
       </c>
       <c r="G113" t="n">
-        <v>136.2583333333334</v>
+        <v>136.2916666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>132.9</v>
+        <v>133.1</v>
       </c>
       <c r="C114" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D114" t="n">
-        <v>132.9</v>
+        <v>133.1</v>
       </c>
       <c r="E114" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="F114" t="n">
-        <v>11890.2049</v>
+        <v>362.0831</v>
       </c>
       <c r="G114" t="n">
-        <v>136.2383333333334</v>
+        <v>136.2583333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,31 +4388,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="C115" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="D115" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="E115" t="n">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="F115" t="n">
-        <v>7217.5499</v>
+        <v>11890.2049</v>
       </c>
       <c r="G115" t="n">
-        <v>136.2183333333334</v>
+        <v>136.2383333333334</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>132</v>
+      </c>
+      <c r="K115" t="n">
+        <v>132</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4435,20 +4439,28 @@
         <v>133</v>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>7217.5499</v>
       </c>
       <c r="G116" t="n">
-        <v>136.1966666666667</v>
+        <v>136.2183333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="K116" t="n">
+        <v>132</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,20 +4482,28 @@
         <v>133</v>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G117" t="n">
-        <v>136.175</v>
+        <v>136.1966666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>133</v>
+      </c>
+      <c r="K117" t="n">
+        <v>132</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4505,19 +4525,23 @@
         <v>133</v>
       </c>
       <c r="F118" t="n">
-        <v>8012.0328</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="n">
-        <v>136.1450000000001</v>
+        <v>136.175</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>133</v>
+      </c>
+      <c r="K118" t="n">
+        <v>133</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4531,29 +4555,37 @@
         <v>133</v>
       </c>
       <c r="C119" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="D119" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="E119" t="n">
         <v>133</v>
       </c>
       <c r="F119" t="n">
-        <v>16024</v>
+        <v>8012.0328</v>
       </c>
       <c r="G119" t="n">
-        <v>136.1383333333334</v>
+        <v>136.1450000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>133</v>
+      </c>
+      <c r="K119" t="n">
+        <v>133</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4595,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="C120" t="n">
-        <v>132.9</v>
+        <v>134.4</v>
       </c>
       <c r="D120" t="n">
-        <v>132.9</v>
+        <v>134.4</v>
       </c>
       <c r="E120" t="n">
-        <v>132.9</v>
+        <v>133</v>
       </c>
       <c r="F120" t="n">
-        <v>402.5572</v>
+        <v>16024</v>
       </c>
       <c r="G120" t="n">
-        <v>136.1066666666667</v>
+        <v>136.1383333333334</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4587,12 +4619,16 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="K120" t="n">
-        <v>134.4</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4605,33 +4641,35 @@
         <v>132.9</v>
       </c>
       <c r="C121" t="n">
-        <v>130.5</v>
+        <v>132.9</v>
       </c>
       <c r="D121" t="n">
         <v>132.9</v>
       </c>
       <c r="E121" t="n">
-        <v>130.5</v>
+        <v>132.9</v>
       </c>
       <c r="F121" t="n">
-        <v>23925.7234</v>
+        <v>402.5572</v>
       </c>
       <c r="G121" t="n">
-        <v>136.0350000000001</v>
+        <v>136.1066666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>134.4</v>
+      </c>
       <c r="K121" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -4643,22 +4681,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>131</v>
+        <v>132.9</v>
       </c>
       <c r="C122" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
       </c>
       <c r="D122" t="n">
-        <v>131</v>
+        <v>132.9</v>
       </c>
       <c r="E122" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
       </c>
       <c r="F122" t="n">
-        <v>176.8289</v>
+        <v>23925.7234</v>
       </c>
       <c r="G122" t="n">
-        <v>135.9666666666668</v>
+        <v>136.0350000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,7 +4706,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4684,22 +4722,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>130.1</v>
+        <v>131</v>
       </c>
       <c r="C123" t="n">
         <v>130.7</v>
       </c>
       <c r="D123" t="n">
+        <v>131</v>
+      </c>
+      <c r="E123" t="n">
         <v>130.7</v>
       </c>
-      <c r="E123" t="n">
-        <v>130.1</v>
-      </c>
       <c r="F123" t="n">
-        <v>15903.511</v>
+        <v>176.8289</v>
       </c>
       <c r="G123" t="n">
-        <v>135.8983333333334</v>
+        <v>135.9666666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4709,7 +4747,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4725,7 +4763,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="C124" t="n">
         <v>130.7</v>
@@ -4734,25 +4772,23 @@
         <v>130.7</v>
       </c>
       <c r="E124" t="n">
-        <v>130.7</v>
+        <v>130.1</v>
       </c>
       <c r="F124" t="n">
-        <v>9223.1805</v>
+        <v>15903.511</v>
       </c>
       <c r="G124" t="n">
-        <v>135.8300000000001</v>
+        <v>135.8983333333334</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>130.7</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4780,10 +4816,10 @@
         <v>130.7</v>
       </c>
       <c r="F125" t="n">
-        <v>520.2972</v>
+        <v>9223.1805</v>
       </c>
       <c r="G125" t="n">
-        <v>135.7600000000001</v>
+        <v>135.8300000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4793,7 +4829,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4821,22 +4857,20 @@
         <v>130.7</v>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>520.2972</v>
       </c>
       <c r="G126" t="n">
-        <v>135.6900000000001</v>
+        <v>135.7600000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>130.7</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4864,10 +4898,10 @@
         <v>130.7</v>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G127" t="n">
-        <v>135.6183333333334</v>
+        <v>135.6900000000001</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -4879,7 +4913,7 @@
         <v>130.7</v>
       </c>
       <c r="K127" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4907,22 +4941,20 @@
         <v>130.7</v>
       </c>
       <c r="F128" t="n">
-        <v>87.9726</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
-        <v>135.5366666666668</v>
+        <v>135.6183333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>130.7</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4950,10 +4982,10 @@
         <v>130.7</v>
       </c>
       <c r="F129" t="n">
-        <v>30.2486</v>
+        <v>87.9726</v>
       </c>
       <c r="G129" t="n">
-        <v>135.4350000000001</v>
+        <v>135.5366666666668</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -4965,7 +4997,7 @@
         <v>130.7</v>
       </c>
       <c r="K129" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -4990,13 +5022,13 @@
         <v>130.7</v>
       </c>
       <c r="E130" t="n">
-        <v>130.5</v>
+        <v>130.7</v>
       </c>
       <c r="F130" t="n">
-        <v>5195.4007</v>
+        <v>30.2486</v>
       </c>
       <c r="G130" t="n">
-        <v>135.3333333333334</v>
+        <v>135.4350000000001</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -5008,7 +5040,7 @@
         <v>130.7</v>
       </c>
       <c r="K130" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5033,25 +5065,23 @@
         <v>130.7</v>
       </c>
       <c r="E131" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
       </c>
       <c r="F131" t="n">
-        <v>14700.5264</v>
+        <v>5195.4007</v>
       </c>
       <c r="G131" t="n">
-        <v>135.2316666666668</v>
+        <v>135.3333333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>130.7</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5070,19 +5100,19 @@
         <v>130.7</v>
       </c>
       <c r="C132" t="n">
-        <v>132.7</v>
+        <v>130.7</v>
       </c>
       <c r="D132" t="n">
-        <v>132.7</v>
+        <v>130.7</v>
       </c>
       <c r="E132" t="n">
         <v>130.7</v>
       </c>
       <c r="F132" t="n">
-        <v>6014.15</v>
+        <v>14700.5264</v>
       </c>
       <c r="G132" t="n">
-        <v>135.1633333333334</v>
+        <v>135.2316666666668</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -5094,7 +5124,7 @@
         <v>130.7</v>
       </c>
       <c r="K132" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5110,7 +5140,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>132.5</v>
+        <v>130.7</v>
       </c>
       <c r="C133" t="n">
         <v>132.7</v>
@@ -5119,25 +5149,23 @@
         <v>132.7</v>
       </c>
       <c r="E133" t="n">
-        <v>132.5</v>
+        <v>130.7</v>
       </c>
       <c r="F133" t="n">
-        <v>417.7132</v>
+        <v>6014.15</v>
       </c>
       <c r="G133" t="n">
-        <v>135.0950000000001</v>
+        <v>135.1633333333334</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>132.7</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5153,22 +5181,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>131.2</v>
+        <v>132.5</v>
       </c>
       <c r="C134" t="n">
-        <v>130.1</v>
+        <v>132.7</v>
       </c>
       <c r="D134" t="n">
-        <v>131.2</v>
+        <v>132.7</v>
       </c>
       <c r="E134" t="n">
-        <v>130.1</v>
+        <v>132.5</v>
       </c>
       <c r="F134" t="n">
-        <v>3937.999</v>
+        <v>417.7132</v>
       </c>
       <c r="G134" t="n">
-        <v>134.9833333333334</v>
+        <v>135.0950000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5178,7 +5206,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5194,22 +5222,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>132</v>
+        <v>131.2</v>
       </c>
       <c r="C135" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="D135" t="n">
-        <v>132</v>
+        <v>131.2</v>
       </c>
       <c r="E135" t="n">
-        <v>132</v>
+        <v>130.1</v>
       </c>
       <c r="F135" t="n">
-        <v>210.0379</v>
+        <v>3937.999</v>
       </c>
       <c r="G135" t="n">
-        <v>134.9033333333334</v>
+        <v>134.9833333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5219,7 +5247,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5247,10 +5275,10 @@
         <v>132</v>
       </c>
       <c r="F136" t="n">
-        <v>4.1522</v>
+        <v>210.0379</v>
       </c>
       <c r="G136" t="n">
-        <v>134.8200000000001</v>
+        <v>134.9033333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5260,7 +5288,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5276,22 +5304,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>132.7</v>
+        <v>132</v>
       </c>
       <c r="C137" t="n">
         <v>132</v>
       </c>
       <c r="D137" t="n">
-        <v>132.7</v>
+        <v>132</v>
       </c>
       <c r="E137" t="n">
         <v>132</v>
       </c>
       <c r="F137" t="n">
-        <v>44.463</v>
+        <v>4.1522</v>
       </c>
       <c r="G137" t="n">
-        <v>134.7366666666667</v>
+        <v>134.8200000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5301,7 +5329,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5320,19 +5348,19 @@
         <v>132.7</v>
       </c>
       <c r="C138" t="n">
-        <v>132.7</v>
+        <v>132</v>
       </c>
       <c r="D138" t="n">
         <v>132.7</v>
       </c>
       <c r="E138" t="n">
-        <v>132.7</v>
+        <v>132</v>
       </c>
       <c r="F138" t="n">
-        <v>600</v>
+        <v>44.463</v>
       </c>
       <c r="G138" t="n">
-        <v>134.6566666666668</v>
+        <v>134.7366666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5342,7 +5370,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5370,10 +5398,10 @@
         <v>132.7</v>
       </c>
       <c r="F139" t="n">
-        <v>28.6157</v>
+        <v>600</v>
       </c>
       <c r="G139" t="n">
-        <v>134.5766666666668</v>
+        <v>134.6566666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5383,7 +5411,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5411,10 +5439,10 @@
         <v>132.7</v>
       </c>
       <c r="F140" t="n">
-        <v>122.75</v>
+        <v>28.6157</v>
       </c>
       <c r="G140" t="n">
-        <v>134.4883333333334</v>
+        <v>134.5766666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5424,7 +5452,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5452,10 +5480,10 @@
         <v>132.7</v>
       </c>
       <c r="F141" t="n">
-        <v>46.8934</v>
+        <v>122.75</v>
       </c>
       <c r="G141" t="n">
-        <v>134.4000000000001</v>
+        <v>134.4883333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5465,7 +5493,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5490,13 +5518,13 @@
         <v>132.7</v>
       </c>
       <c r="E142" t="n">
-        <v>132.5</v>
+        <v>132.7</v>
       </c>
       <c r="F142" t="n">
-        <v>690.814</v>
+        <v>46.8934</v>
       </c>
       <c r="G142" t="n">
-        <v>134.3116666666668</v>
+        <v>134.4000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5506,7 +5534,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5522,22 +5550,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>133.3</v>
+        <v>132.7</v>
       </c>
       <c r="C143" t="n">
-        <v>133.3</v>
+        <v>132.7</v>
       </c>
       <c r="D143" t="n">
-        <v>133.3</v>
+        <v>132.7</v>
       </c>
       <c r="E143" t="n">
-        <v>133.3</v>
+        <v>132.5</v>
       </c>
       <c r="F143" t="n">
-        <v>948.0115</v>
+        <v>690.814</v>
       </c>
       <c r="G143" t="n">
-        <v>134.2616666666668</v>
+        <v>134.3116666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5547,7 +5575,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5563,22 +5591,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="C144" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="D144" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="E144" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="F144" t="n">
-        <v>790.1209</v>
+        <v>948.0115</v>
       </c>
       <c r="G144" t="n">
-        <v>134.1850000000001</v>
+        <v>134.2616666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5588,7 +5616,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5604,22 +5632,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>132.9</v>
+        <v>133.4</v>
       </c>
       <c r="C145" t="n">
-        <v>133.7</v>
+        <v>133.4</v>
       </c>
       <c r="D145" t="n">
-        <v>133.7</v>
+        <v>133.4</v>
       </c>
       <c r="E145" t="n">
-        <v>130.8</v>
+        <v>133.4</v>
       </c>
       <c r="F145" t="n">
-        <v>1812.6916</v>
+        <v>790.1209</v>
       </c>
       <c r="G145" t="n">
-        <v>134.1033333333334</v>
+        <v>134.1850000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5629,7 +5657,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5645,22 +5673,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>133.8</v>
+        <v>132.9</v>
       </c>
       <c r="C146" t="n">
-        <v>133.8</v>
+        <v>133.7</v>
       </c>
       <c r="D146" t="n">
-        <v>133.8</v>
+        <v>133.7</v>
       </c>
       <c r="E146" t="n">
-        <v>133.8</v>
+        <v>130.8</v>
       </c>
       <c r="F146" t="n">
-        <v>450</v>
+        <v>1812.6916</v>
       </c>
       <c r="G146" t="n">
-        <v>134.0166666666668</v>
+        <v>134.1033333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5670,7 +5698,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5686,22 +5714,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>134.1</v>
+        <v>133.8</v>
       </c>
       <c r="C147" t="n">
-        <v>134.1</v>
+        <v>133.8</v>
       </c>
       <c r="D147" t="n">
-        <v>134.1</v>
+        <v>133.8</v>
       </c>
       <c r="E147" t="n">
-        <v>134.1</v>
+        <v>133.8</v>
       </c>
       <c r="F147" t="n">
-        <v>788</v>
+        <v>450</v>
       </c>
       <c r="G147" t="n">
-        <v>133.9233333333335</v>
+        <v>134.0166666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5711,7 +5739,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5739,10 +5767,10 @@
         <v>134.1</v>
       </c>
       <c r="F148" t="n">
-        <v>1247.6098</v>
+        <v>788</v>
       </c>
       <c r="G148" t="n">
-        <v>133.8416666666668</v>
+        <v>133.9233333333335</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5752,7 +5780,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5780,10 +5808,10 @@
         <v>134.1</v>
       </c>
       <c r="F149" t="n">
-        <v>192.7108</v>
+        <v>1247.6098</v>
       </c>
       <c r="G149" t="n">
-        <v>133.7600000000001</v>
+        <v>133.8416666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5793,7 +5821,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5809,7 +5837,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>134</v>
+        <v>134.1</v>
       </c>
       <c r="C150" t="n">
         <v>134.1</v>
@@ -5818,13 +5846,13 @@
         <v>134.1</v>
       </c>
       <c r="E150" t="n">
-        <v>134</v>
+        <v>134.1</v>
       </c>
       <c r="F150" t="n">
-        <v>9836.1908</v>
+        <v>192.7108</v>
       </c>
       <c r="G150" t="n">
-        <v>133.6616666666668</v>
+        <v>133.7600000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5834,7 +5862,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5850,7 +5878,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="C151" t="n">
         <v>134.1</v>
@@ -5859,13 +5887,13 @@
         <v>134.1</v>
       </c>
       <c r="E151" t="n">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="F151" t="n">
-        <v>176.1611</v>
+        <v>9836.1908</v>
       </c>
       <c r="G151" t="n">
-        <v>133.5950000000001</v>
+        <v>133.6616666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5875,7 +5903,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5903,10 +5931,10 @@
         <v>134.1</v>
       </c>
       <c r="F152" t="n">
-        <v>288.4603</v>
+        <v>176.1611</v>
       </c>
       <c r="G152" t="n">
-        <v>133.4966666666668</v>
+        <v>133.5950000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5916,7 +5944,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5944,10 +5972,10 @@
         <v>134.1</v>
       </c>
       <c r="F153" t="n">
-        <v>163.0429</v>
+        <v>288.4603</v>
       </c>
       <c r="G153" t="n">
-        <v>133.4300000000001</v>
+        <v>133.4966666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5957,7 +5985,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5985,10 +6013,10 @@
         <v>134.1</v>
       </c>
       <c r="F154" t="n">
-        <v>1292.4635</v>
+        <v>163.0429</v>
       </c>
       <c r="G154" t="n">
-        <v>133.3783333333335</v>
+        <v>133.4300000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5998,7 +6026,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6026,10 +6054,10 @@
         <v>134.1</v>
       </c>
       <c r="F155" t="n">
-        <v>751.3911000000001</v>
+        <v>1292.4635</v>
       </c>
       <c r="G155" t="n">
-        <v>133.3466666666668</v>
+        <v>133.3783333333335</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6039,7 +6067,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6067,10 +6095,10 @@
         <v>134.1</v>
       </c>
       <c r="F156" t="n">
-        <v>620.8609</v>
+        <v>751.3911000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>133.2983333333335</v>
+        <v>133.3466666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6080,7 +6108,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6096,22 +6124,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>133.3</v>
+        <v>134.1</v>
       </c>
       <c r="C157" t="n">
-        <v>133.3</v>
+        <v>134.1</v>
       </c>
       <c r="D157" t="n">
-        <v>133.3</v>
+        <v>134.1</v>
       </c>
       <c r="E157" t="n">
-        <v>133.3</v>
+        <v>134.1</v>
       </c>
       <c r="F157" t="n">
-        <v>18.7902</v>
+        <v>620.8609</v>
       </c>
       <c r="G157" t="n">
-        <v>133.2366666666668</v>
+        <v>133.2983333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6121,7 +6149,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6137,22 +6165,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>134.4</v>
+        <v>133.3</v>
       </c>
       <c r="C158" t="n">
-        <v>134.4</v>
+        <v>133.3</v>
       </c>
       <c r="D158" t="n">
-        <v>134.4</v>
+        <v>133.3</v>
       </c>
       <c r="E158" t="n">
-        <v>134.4</v>
+        <v>133.3</v>
       </c>
       <c r="F158" t="n">
-        <v>458.928</v>
+        <v>18.7902</v>
       </c>
       <c r="G158" t="n">
-        <v>133.1816666666668</v>
+        <v>133.2366666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6162,7 +6190,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6178,22 +6206,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>133.3</v>
+        <v>134.4</v>
       </c>
       <c r="C159" t="n">
-        <v>133.3</v>
+        <v>134.4</v>
       </c>
       <c r="D159" t="n">
-        <v>133.3</v>
+        <v>134.4</v>
       </c>
       <c r="E159" t="n">
-        <v>133.3</v>
+        <v>134.4</v>
       </c>
       <c r="F159" t="n">
-        <v>84.7443</v>
+        <v>458.928</v>
       </c>
       <c r="G159" t="n">
-        <v>133.1033333333335</v>
+        <v>133.1816666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6203,7 +6231,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6222,19 +6250,19 @@
         <v>133.3</v>
       </c>
       <c r="C160" t="n">
-        <v>134.2</v>
+        <v>133.3</v>
       </c>
       <c r="D160" t="n">
-        <v>134.2</v>
+        <v>133.3</v>
       </c>
       <c r="E160" t="n">
         <v>133.3</v>
       </c>
       <c r="F160" t="n">
-        <v>500</v>
+        <v>84.7443</v>
       </c>
       <c r="G160" t="n">
-        <v>133.0650000000002</v>
+        <v>133.1033333333335</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6244,7 +6272,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6260,22 +6288,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>132.1</v>
+        <v>133.3</v>
       </c>
       <c r="C161" t="n">
-        <v>132.1</v>
+        <v>134.2</v>
       </c>
       <c r="D161" t="n">
-        <v>132.1</v>
+        <v>134.2</v>
       </c>
       <c r="E161" t="n">
-        <v>132.1</v>
+        <v>133.3</v>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G161" t="n">
-        <v>132.9666666666668</v>
+        <v>133.0650000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6285,7 +6313,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6301,22 +6329,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>132.3</v>
+        <v>132.1</v>
       </c>
       <c r="C162" t="n">
-        <v>132.4</v>
+        <v>132.1</v>
       </c>
       <c r="D162" t="n">
-        <v>132.4</v>
+        <v>132.1</v>
       </c>
       <c r="E162" t="n">
-        <v>132.3</v>
+        <v>132.1</v>
       </c>
       <c r="F162" t="n">
-        <v>4094</v>
+        <v>4</v>
       </c>
       <c r="G162" t="n">
-        <v>132.8966666666668</v>
+        <v>132.9666666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6326,7 +6354,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6342,22 +6370,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>133.2</v>
+        <v>132.3</v>
       </c>
       <c r="C163" t="n">
-        <v>133.2</v>
+        <v>132.4</v>
       </c>
       <c r="D163" t="n">
-        <v>133.2</v>
+        <v>132.4</v>
       </c>
       <c r="E163" t="n">
-        <v>133.2</v>
+        <v>132.3</v>
       </c>
       <c r="F163" t="n">
-        <v>1750</v>
+        <v>4094</v>
       </c>
       <c r="G163" t="n">
-        <v>132.8400000000001</v>
+        <v>132.8966666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6367,7 +6395,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6395,10 +6423,10 @@
         <v>133.2</v>
       </c>
       <c r="F164" t="n">
-        <v>1950</v>
+        <v>1750</v>
       </c>
       <c r="G164" t="n">
-        <v>132.7933333333335</v>
+        <v>132.8400000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6408,7 +6436,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6424,22 +6452,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>134.2</v>
+        <v>133.2</v>
       </c>
       <c r="C165" t="n">
-        <v>134.4</v>
+        <v>133.2</v>
       </c>
       <c r="D165" t="n">
-        <v>134.4</v>
+        <v>133.2</v>
       </c>
       <c r="E165" t="n">
-        <v>134.2</v>
+        <v>133.2</v>
       </c>
       <c r="F165" t="n">
-        <v>4980.899</v>
+        <v>1950</v>
       </c>
       <c r="G165" t="n">
-        <v>132.7800000000001</v>
+        <v>132.7933333333335</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6449,7 +6477,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6465,22 +6493,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>133.3</v>
+        <v>134.2</v>
       </c>
       <c r="C166" t="n">
-        <v>133.3</v>
+        <v>134.4</v>
       </c>
       <c r="D166" t="n">
-        <v>133.3</v>
+        <v>134.4</v>
       </c>
       <c r="E166" t="n">
-        <v>133.3</v>
+        <v>134.2</v>
       </c>
       <c r="F166" t="n">
-        <v>2650.5712</v>
+        <v>4980.899</v>
       </c>
       <c r="G166" t="n">
-        <v>132.7650000000002</v>
+        <v>132.7800000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6490,7 +6518,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6506,22 +6534,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="C167" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="D167" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="E167" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="F167" t="n">
-        <v>1710.0866</v>
+        <v>2650.5712</v>
       </c>
       <c r="G167" t="n">
-        <v>132.7550000000001</v>
+        <v>132.7650000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6531,7 +6559,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6547,22 +6575,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="C168" t="n">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="D168" t="n">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="E168" t="n">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="F168" t="n">
-        <v>2628.6758</v>
+        <v>1710.0866</v>
       </c>
       <c r="G168" t="n">
-        <v>132.7433333333335</v>
+        <v>132.7550000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6572,7 +6600,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6588,22 +6616,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="C169" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="D169" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="E169" t="n">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>2628.6758</v>
       </c>
       <c r="G169" t="n">
-        <v>132.7500000000001</v>
+        <v>132.7433333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6613,7 +6641,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6641,10 +6669,10 @@
         <v>133.4</v>
       </c>
       <c r="F170" t="n">
-        <v>164.7105</v>
+        <v>250</v>
       </c>
       <c r="G170" t="n">
-        <v>132.7566666666668</v>
+        <v>132.7500000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6654,7 +6682,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6682,10 +6710,10 @@
         <v>133.4</v>
       </c>
       <c r="F171" t="n">
-        <v>100.83</v>
+        <v>164.7105</v>
       </c>
       <c r="G171" t="n">
-        <v>132.7616666666668</v>
+        <v>132.7566666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6695,7 +6723,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6714,19 +6742,19 @@
         <v>133.4</v>
       </c>
       <c r="C172" t="n">
-        <v>133.5</v>
+        <v>133.4</v>
       </c>
       <c r="D172" t="n">
-        <v>133.5</v>
+        <v>133.4</v>
       </c>
       <c r="E172" t="n">
         <v>133.4</v>
       </c>
       <c r="F172" t="n">
-        <v>1750</v>
+        <v>100.83</v>
       </c>
       <c r="G172" t="n">
-        <v>132.7683333333335</v>
+        <v>132.7616666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6736,7 +6764,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6752,22 +6780,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C173" t="n">
         <v>133.5</v>
       </c>
-      <c r="C173" t="n">
-        <v>133.6</v>
-      </c>
       <c r="D173" t="n">
-        <v>134.4</v>
+        <v>133.5</v>
       </c>
       <c r="E173" t="n">
-        <v>133.5</v>
+        <v>133.4</v>
       </c>
       <c r="F173" t="n">
-        <v>2821.6891</v>
+        <v>1750</v>
       </c>
       <c r="G173" t="n">
-        <v>132.7950000000001</v>
+        <v>132.7683333333335</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6777,7 +6805,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6793,22 +6821,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="C174" t="n">
         <v>133.6</v>
       </c>
-      <c r="C174" t="n">
-        <v>134.3</v>
-      </c>
       <c r="D174" t="n">
-        <v>134.3</v>
+        <v>134.4</v>
       </c>
       <c r="E174" t="n">
-        <v>133.6</v>
+        <v>133.5</v>
       </c>
       <c r="F174" t="n">
-        <v>528</v>
+        <v>2821.6891</v>
       </c>
       <c r="G174" t="n">
-        <v>132.8183333333335</v>
+        <v>132.7950000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6818,7 +6846,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6834,22 +6862,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>133.4</v>
+        <v>133.6</v>
       </c>
       <c r="C175" t="n">
-        <v>133.4</v>
+        <v>134.3</v>
       </c>
       <c r="D175" t="n">
-        <v>133.4</v>
+        <v>134.3</v>
       </c>
       <c r="E175" t="n">
-        <v>133.4</v>
+        <v>133.6</v>
       </c>
       <c r="F175" t="n">
-        <v>120</v>
+        <v>528</v>
       </c>
       <c r="G175" t="n">
-        <v>132.8250000000001</v>
+        <v>132.8183333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6859,7 +6887,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6875,22 +6903,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>134.3</v>
+        <v>133.4</v>
       </c>
       <c r="C176" t="n">
-        <v>134.3</v>
+        <v>133.4</v>
       </c>
       <c r="D176" t="n">
-        <v>134.3</v>
+        <v>133.4</v>
       </c>
       <c r="E176" t="n">
-        <v>134.3</v>
+        <v>133.4</v>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G176" t="n">
-        <v>132.8466666666668</v>
+        <v>132.8250000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6900,7 +6928,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6916,22 +6944,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>134.5</v>
+        <v>134.3</v>
       </c>
       <c r="C177" t="n">
-        <v>134.5</v>
+        <v>134.3</v>
       </c>
       <c r="D177" t="n">
-        <v>134.5</v>
+        <v>134.3</v>
       </c>
       <c r="E177" t="n">
-        <v>134.2</v>
+        <v>134.3</v>
       </c>
       <c r="F177" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G177" t="n">
-        <v>132.8716666666668</v>
+        <v>132.8466666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6941,7 +6969,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6966,13 +6994,13 @@
         <v>134.5</v>
       </c>
       <c r="E178" t="n">
-        <v>134.5</v>
+        <v>134.2</v>
       </c>
       <c r="F178" t="n">
-        <v>37</v>
+        <v>750</v>
       </c>
       <c r="G178" t="n">
-        <v>132.8966666666668</v>
+        <v>132.8716666666668</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6982,7 +7010,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7010,10 +7038,10 @@
         <v>134.5</v>
       </c>
       <c r="F179" t="n">
-        <v>5366.6438</v>
+        <v>37</v>
       </c>
       <c r="G179" t="n">
-        <v>132.8983333333335</v>
+        <v>132.8966666666668</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7023,7 +7051,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7039,22 +7067,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>134.7</v>
+        <v>134.5</v>
       </c>
       <c r="C180" t="n">
-        <v>134.7</v>
+        <v>134.5</v>
       </c>
       <c r="D180" t="n">
-        <v>134.7</v>
+        <v>134.5</v>
       </c>
       <c r="E180" t="n">
-        <v>134.7</v>
+        <v>134.5</v>
       </c>
       <c r="F180" t="n">
-        <v>4</v>
+        <v>5366.6438</v>
       </c>
       <c r="G180" t="n">
-        <v>132.9283333333335</v>
+        <v>132.8983333333335</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7064,7 +7092,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7083,19 +7111,19 @@
         <v>134.7</v>
       </c>
       <c r="C181" t="n">
-        <v>134.8</v>
+        <v>134.7</v>
       </c>
       <c r="D181" t="n">
-        <v>134.8</v>
+        <v>134.7</v>
       </c>
       <c r="E181" t="n">
         <v>134.7</v>
       </c>
       <c r="F181" t="n">
-        <v>3200</v>
+        <v>4</v>
       </c>
       <c r="G181" t="n">
-        <v>133.0000000000001</v>
+        <v>132.9283333333335</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7105,7 +7133,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7121,7 +7149,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>134.8</v>
+        <v>134.7</v>
       </c>
       <c r="C182" t="n">
         <v>134.8</v>
@@ -7130,13 +7158,13 @@
         <v>134.8</v>
       </c>
       <c r="E182" t="n">
-        <v>134.8</v>
+        <v>134.7</v>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>3200</v>
       </c>
       <c r="G182" t="n">
-        <v>133.0683333333335</v>
+        <v>133.0000000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7146,7 +7174,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7174,10 +7202,10 @@
         <v>134.8</v>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G183" t="n">
-        <v>133.1366666666668</v>
+        <v>133.0683333333335</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7187,7 +7215,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7215,10 +7243,10 @@
         <v>134.8</v>
       </c>
       <c r="F184" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="n">
-        <v>133.2050000000002</v>
+        <v>133.1366666666668</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7228,7 +7256,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7247,19 +7275,19 @@
         <v>134.8</v>
       </c>
       <c r="C185" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="D185" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="E185" t="n">
         <v>134.8</v>
       </c>
       <c r="F185" t="n">
-        <v>6500</v>
+        <v>750</v>
       </c>
       <c r="G185" t="n">
-        <v>133.2750000000001</v>
+        <v>133.2050000000002</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7269,7 +7297,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7285,7 +7313,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="C186" t="n">
         <v>134.9</v>
@@ -7294,13 +7322,13 @@
         <v>134.9</v>
       </c>
       <c r="E186" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="F186" t="n">
-        <v>750</v>
+        <v>6500</v>
       </c>
       <c r="G186" t="n">
-        <v>133.3450000000001</v>
+        <v>133.2750000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7310,7 +7338,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7329,19 +7357,19 @@
         <v>134.9</v>
       </c>
       <c r="C187" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="D187" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="E187" t="n">
         <v>134.9</v>
       </c>
       <c r="F187" t="n">
-        <v>13558</v>
+        <v>750</v>
       </c>
       <c r="G187" t="n">
-        <v>133.4166666666668</v>
+        <v>133.3450000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7351,7 +7379,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7367,7 +7395,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="C188" t="n">
         <v>135</v>
@@ -7376,13 +7404,13 @@
         <v>135</v>
       </c>
       <c r="E188" t="n">
-        <v>135</v>
+        <v>134.9</v>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>13558</v>
       </c>
       <c r="G188" t="n">
-        <v>133.4883333333335</v>
+        <v>133.4166666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7392,7 +7420,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7420,10 +7448,10 @@
         <v>135</v>
       </c>
       <c r="F189" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="G189" t="n">
-        <v>133.5600000000001</v>
+        <v>133.4883333333335</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7433,7 +7461,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7452,19 +7480,19 @@
         <v>135</v>
       </c>
       <c r="C190" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="D190" t="n">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="E190" t="n">
         <v>135</v>
       </c>
       <c r="F190" t="n">
-        <v>15065.75</v>
+        <v>280</v>
       </c>
       <c r="G190" t="n">
-        <v>133.6333333333335</v>
+        <v>133.5600000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7474,7 +7502,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7490,22 +7518,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>135.9</v>
+        <v>135</v>
       </c>
       <c r="C191" t="n">
-        <v>136.1</v>
+        <v>135.1</v>
       </c>
       <c r="D191" t="n">
-        <v>136.1</v>
+        <v>135.1</v>
       </c>
       <c r="E191" t="n">
-        <v>135.9</v>
+        <v>135</v>
       </c>
       <c r="F191" t="n">
-        <v>7620</v>
+        <v>15065.75</v>
       </c>
       <c r="G191" t="n">
-        <v>133.7233333333335</v>
+        <v>133.6333333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7515,7 +7543,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7531,7 +7559,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>136.1</v>
+        <v>135.9</v>
       </c>
       <c r="C192" t="n">
         <v>136.1</v>
@@ -7540,13 +7568,13 @@
         <v>136.1</v>
       </c>
       <c r="E192" t="n">
-        <v>136.1</v>
+        <v>135.9</v>
       </c>
       <c r="F192" t="n">
-        <v>750</v>
+        <v>7620</v>
       </c>
       <c r="G192" t="n">
-        <v>133.7800000000002</v>
+        <v>133.7233333333335</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7556,7 +7584,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7575,19 +7603,19 @@
         <v>136.1</v>
       </c>
       <c r="C193" t="n">
-        <v>137</v>
+        <v>136.1</v>
       </c>
       <c r="D193" t="n">
-        <v>137</v>
+        <v>136.1</v>
       </c>
       <c r="E193" t="n">
         <v>136.1</v>
       </c>
       <c r="F193" t="n">
-        <v>4010</v>
+        <v>750</v>
       </c>
       <c r="G193" t="n">
-        <v>133.8516666666669</v>
+        <v>133.7800000000002</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7597,7 +7625,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7613,22 +7641,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>135.3</v>
+        <v>136.1</v>
       </c>
       <c r="C194" t="n">
-        <v>135.3</v>
+        <v>137</v>
       </c>
       <c r="D194" t="n">
-        <v>135.3</v>
+        <v>137</v>
       </c>
       <c r="E194" t="n">
-        <v>135.3</v>
+        <v>136.1</v>
       </c>
       <c r="F194" t="n">
-        <v>307.6939</v>
+        <v>4010</v>
       </c>
       <c r="G194" t="n">
-        <v>133.9383333333335</v>
+        <v>133.8516666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7638,7 +7666,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7654,22 +7682,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>136.7</v>
+        <v>135.3</v>
       </c>
       <c r="C195" t="n">
-        <v>136.7</v>
+        <v>135.3</v>
       </c>
       <c r="D195" t="n">
-        <v>136.7</v>
+        <v>135.3</v>
       </c>
       <c r="E195" t="n">
-        <v>136.7</v>
+        <v>135.3</v>
       </c>
       <c r="F195" t="n">
-        <v>889.2319</v>
+        <v>307.6939</v>
       </c>
       <c r="G195" t="n">
-        <v>134.0166666666669</v>
+        <v>133.9383333333335</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7679,7 +7707,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7695,22 +7723,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>137</v>
+        <v>136.7</v>
       </c>
       <c r="C196" t="n">
-        <v>138</v>
+        <v>136.7</v>
       </c>
       <c r="D196" t="n">
-        <v>138</v>
+        <v>136.7</v>
       </c>
       <c r="E196" t="n">
-        <v>137</v>
+        <v>136.7</v>
       </c>
       <c r="F196" t="n">
-        <v>975.8448</v>
+        <v>889.2319</v>
       </c>
       <c r="G196" t="n">
-        <v>134.1166666666668</v>
+        <v>134.0166666666669</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7720,7 +7748,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7736,7 +7764,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C197" t="n">
         <v>138</v>
@@ -7745,13 +7773,13 @@
         <v>138</v>
       </c>
       <c r="E197" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F197" t="n">
-        <v>400.12</v>
+        <v>975.8448</v>
       </c>
       <c r="G197" t="n">
-        <v>134.2166666666668</v>
+        <v>134.1166666666668</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7761,7 +7789,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7780,19 +7808,19 @@
         <v>138</v>
       </c>
       <c r="C198" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D198" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E198" t="n">
         <v>138</v>
       </c>
       <c r="F198" t="n">
-        <v>11920</v>
+        <v>400.12</v>
       </c>
       <c r="G198" t="n">
-        <v>134.3383333333335</v>
+        <v>134.2166666666668</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7802,7 +7830,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7821,37 +7849,37 @@
         <v>138</v>
       </c>
       <c r="C199" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D199" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E199" t="n">
         <v>138</v>
       </c>
       <c r="F199" t="n">
-        <v>106.86</v>
+        <v>11920</v>
       </c>
       <c r="G199" t="n">
-        <v>134.4266666666668</v>
+        <v>134.3383333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>134.4</v>
+        <v>133</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>1.021785714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7871,10 +7899,10 @@
         <v>138</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1623</v>
+        <v>106.86</v>
       </c>
       <c r="G200" t="n">
-        <v>134.5150000000002</v>
+        <v>134.4266666666668</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7883,10 +7911,16 @@
         <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>133</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M200" t="n">
-        <v>1</v>
+        <v>1.032593984962406</v>
       </c>
     </row>
     <row r="201">
@@ -7894,28 +7928,28 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>137.9</v>
+        <v>138</v>
       </c>
       <c r="C201" t="n">
-        <v>137.9</v>
+        <v>138</v>
       </c>
       <c r="D201" t="n">
-        <v>137.9</v>
+        <v>138</v>
       </c>
       <c r="E201" t="n">
-        <v>137.9</v>
+        <v>138</v>
       </c>
       <c r="F201" t="n">
-        <v>873.7566</v>
+        <v>0.1623</v>
       </c>
       <c r="G201" t="n">
-        <v>134.6016666666668</v>
+        <v>134.5150000000002</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -7941,16 +7975,16 @@
         <v>137.9</v>
       </c>
       <c r="F202" t="n">
-        <v>22.2192</v>
+        <v>873.7566</v>
       </c>
       <c r="G202" t="n">
-        <v>134.6883333333335</v>
+        <v>134.6016666666668</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -7964,22 +7998,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>135.6</v>
+        <v>137.9</v>
       </c>
       <c r="C203" t="n">
-        <v>135.6</v>
+        <v>137.9</v>
       </c>
       <c r="D203" t="n">
-        <v>135.6</v>
+        <v>137.9</v>
       </c>
       <c r="E203" t="n">
-        <v>135.6</v>
+        <v>137.9</v>
       </c>
       <c r="F203" t="n">
-        <v>4749.2274</v>
+        <v>22.2192</v>
       </c>
       <c r="G203" t="n">
-        <v>134.7266666666668</v>
+        <v>134.6883333333335</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7999,22 +8033,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>135.5</v>
+        <v>135.6</v>
       </c>
       <c r="C204" t="n">
-        <v>135.5</v>
+        <v>135.6</v>
       </c>
       <c r="D204" t="n">
-        <v>135.5</v>
+        <v>135.6</v>
       </c>
       <c r="E204" t="n">
-        <v>135.5</v>
+        <v>135.6</v>
       </c>
       <c r="F204" t="n">
-        <v>565</v>
+        <v>4749.2274</v>
       </c>
       <c r="G204" t="n">
-        <v>134.7616666666668</v>
+        <v>134.7266666666668</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8034,22 +8068,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>136.9</v>
+        <v>135.5</v>
       </c>
       <c r="C205" t="n">
-        <v>135.6</v>
+        <v>135.5</v>
       </c>
       <c r="D205" t="n">
-        <v>136.9</v>
+        <v>135.5</v>
       </c>
       <c r="E205" t="n">
-        <v>134.7</v>
+        <v>135.5</v>
       </c>
       <c r="F205" t="n">
-        <v>5120.4032</v>
+        <v>565</v>
       </c>
       <c r="G205" t="n">
-        <v>134.7933333333335</v>
+        <v>134.7616666666668</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8069,22 +8103,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>136</v>
+        <v>136.9</v>
       </c>
       <c r="C206" t="n">
-        <v>135</v>
+        <v>135.6</v>
       </c>
       <c r="D206" t="n">
-        <v>136</v>
+        <v>136.9</v>
       </c>
       <c r="E206" t="n">
-        <v>135</v>
+        <v>134.7</v>
       </c>
       <c r="F206" t="n">
-        <v>5264.3494</v>
+        <v>5120.4032</v>
       </c>
       <c r="G206" t="n">
-        <v>134.8133333333335</v>
+        <v>134.7933333333335</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8104,22 +8138,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>137.7</v>
+        <v>136</v>
       </c>
       <c r="C207" t="n">
-        <v>137.7</v>
+        <v>135</v>
       </c>
       <c r="D207" t="n">
-        <v>137.7</v>
+        <v>136</v>
       </c>
       <c r="E207" t="n">
-        <v>137.7</v>
+        <v>135</v>
       </c>
       <c r="F207" t="n">
-        <v>4</v>
+        <v>5264.3494</v>
       </c>
       <c r="G207" t="n">
-        <v>134.8733333333335</v>
+        <v>134.8133333333335</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8139,22 +8173,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>136</v>
+        <v>137.7</v>
       </c>
       <c r="C208" t="n">
-        <v>136</v>
+        <v>137.7</v>
       </c>
       <c r="D208" t="n">
-        <v>136</v>
+        <v>137.7</v>
       </c>
       <c r="E208" t="n">
-        <v>136</v>
+        <v>137.7</v>
       </c>
       <c r="F208" t="n">
-        <v>247.2531</v>
+        <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>134.9050000000001</v>
+        <v>134.8733333333335</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8174,7 +8208,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C209" t="n">
         <v>136</v>
@@ -8183,13 +8217,13 @@
         <v>136</v>
       </c>
       <c r="E209" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F209" t="n">
-        <v>648.148</v>
+        <v>247.2531</v>
       </c>
       <c r="G209" t="n">
-        <v>134.9366666666668</v>
+        <v>134.9050000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8209,7 +8243,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C210" t="n">
         <v>136</v>
@@ -8218,13 +8252,13 @@
         <v>136</v>
       </c>
       <c r="E210" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F210" t="n">
-        <v>1479.5443</v>
+        <v>648.148</v>
       </c>
       <c r="G210" t="n">
-        <v>134.9683333333334</v>
+        <v>134.9366666666668</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8256,10 +8290,10 @@
         <v>136</v>
       </c>
       <c r="F211" t="n">
-        <v>23.1919</v>
+        <v>1479.5443</v>
       </c>
       <c r="G211" t="n">
-        <v>135.0000000000001</v>
+        <v>134.9683333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8291,10 +8325,10 @@
         <v>136</v>
       </c>
       <c r="F212" t="n">
-        <v>0.802</v>
+        <v>23.1919</v>
       </c>
       <c r="G212" t="n">
-        <v>135.0316666666668</v>
+        <v>135.0000000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8326,10 +8360,10 @@
         <v>136</v>
       </c>
       <c r="F213" t="n">
-        <v>131.4942</v>
+        <v>0.802</v>
       </c>
       <c r="G213" t="n">
-        <v>135.0633333333334</v>
+        <v>135.0316666666668</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8361,10 +8395,10 @@
         <v>136</v>
       </c>
       <c r="F214" t="n">
-        <v>178.4231</v>
+        <v>131.4942</v>
       </c>
       <c r="G214" t="n">
-        <v>135.0950000000001</v>
+        <v>135.0633333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8384,22 +8418,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C215" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D215" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E215" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F215" t="n">
-        <v>8787.366275857143</v>
+        <v>178.4231</v>
       </c>
       <c r="G215" t="n">
-        <v>135.1933333333334</v>
+        <v>135.0950000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8414,6 +8448,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>137</v>
+      </c>
+      <c r="C216" t="n">
+        <v>140</v>
+      </c>
+      <c r="D216" t="n">
+        <v>140</v>
+      </c>
+      <c r="E216" t="n">
+        <v>137</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8787.366275857143</v>
+      </c>
+      <c r="G216" t="n">
+        <v>135.1933333333334</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>824.6251874062968</v>
       </c>
       <c r="G2" t="n">
+        <v>132.62</v>
+      </c>
+      <c r="H2" t="n">
         <v>132.11</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2007.9082</v>
       </c>
       <c r="G3" t="n">
+        <v>132.6466666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>132.135</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1109.317525187406</v>
       </c>
       <c r="G4" t="n">
+        <v>132.6466666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>132.175</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2652.451</v>
       </c>
       <c r="G5" t="n">
+        <v>132.82</v>
+      </c>
+      <c r="H5" t="n">
         <v>132.2033333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>75</v>
       </c>
       <c r="G6" t="n">
+        <v>132.6866666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>132.1933333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,25 @@
         <v>4774.7514</v>
       </c>
       <c r="G7" t="n">
+        <v>132.7066666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>132.22</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +685,27 @@
         <v>75</v>
       </c>
       <c r="G8" t="n">
+        <v>132.6933333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>132.2183333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +729,29 @@
         <v>1430.3411</v>
       </c>
       <c r="G9" t="n">
+        <v>132.7933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>132.2616666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +775,25 @@
         <v>2852.8573</v>
       </c>
       <c r="G10" t="n">
+        <v>132.9066666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>132.305</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +817,27 @@
         <v>75</v>
       </c>
       <c r="G11" t="n">
+        <v>132.9533333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>132.3516666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +861,27 @@
         <v>75</v>
       </c>
       <c r="G12" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="H12" t="n">
         <v>132.3516666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +905,29 @@
         <v>26902.6575</v>
       </c>
       <c r="G13" t="n">
+        <v>132.74</v>
+      </c>
+      <c r="H13" t="n">
         <v>132.335</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>132</v>
+      </c>
+      <c r="L13" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +951,29 @@
         <v>14.627</v>
       </c>
       <c r="G14" t="n">
+        <v>132.5733333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>132.3116666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>131</v>
+      </c>
+      <c r="L14" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +997,29 @@
         <v>444</v>
       </c>
       <c r="G15" t="n">
+        <v>132.68</v>
+      </c>
+      <c r="H15" t="n">
         <v>132.3283333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1043,29 @@
         <v>267.1163</v>
       </c>
       <c r="G16" t="n">
+        <v>132.3933333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>132.2966666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>133</v>
+      </c>
+      <c r="L16" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1089,29 @@
         <v>227</v>
       </c>
       <c r="G17" t="n">
+        <v>132.46</v>
+      </c>
+      <c r="H17" t="n">
         <v>132.3283333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1135,27 @@
         <v>240.3688</v>
       </c>
       <c r="G18" t="n">
+        <v>132.3533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>132.325</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1179,27 @@
         <v>1304.8157</v>
       </c>
       <c r="G19" t="n">
+        <v>132.2533333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>132.3233333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1223,27 @@
         <v>3440.2141</v>
       </c>
       <c r="G20" t="n">
+        <v>132.14</v>
+      </c>
+      <c r="H20" t="n">
         <v>132.3416666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1267,27 @@
         <v>5619.5839</v>
       </c>
       <c r="G21" t="n">
+        <v>132.1733333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>132.34</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1311,29 @@
         <v>54</v>
       </c>
       <c r="G22" t="n">
+        <v>132.0666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>132.34</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1357,29 @@
         <v>45352.7683</v>
       </c>
       <c r="G23" t="n">
+        <v>132.1333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>132.355</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>132</v>
+      </c>
+      <c r="L23" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1403,27 @@
         <v>3405.4974</v>
       </c>
       <c r="G24" t="n">
+        <v>132.0933333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>132.3716666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1447,27 @@
         <v>2330.779</v>
       </c>
       <c r="G25" t="n">
+        <v>132.0533333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>132.3883333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1491,27 @@
         <v>316.0429</v>
       </c>
       <c r="G26" t="n">
+        <v>131.9933333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>132.4033333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1535,27 @@
         <v>8453.2539</v>
       </c>
       <c r="G27" t="n">
+        <v>132.1133333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>132.4333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1579,27 @@
         <v>120.7589</v>
       </c>
       <c r="G28" t="n">
+        <v>132.24</v>
+      </c>
+      <c r="H28" t="n">
         <v>132.4483333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1623,27 @@
         <v>2512.0371</v>
       </c>
       <c r="G29" t="n">
+        <v>132.3933333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>132.4633333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1667,27 @@
         <v>6143.3978</v>
       </c>
       <c r="G30" t="n">
+        <v>132.3200000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>132.4683333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1711,27 @@
         <v>352.145</v>
       </c>
       <c r="G31" t="n">
+        <v>132.5733333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>132.4833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1755,27 @@
         <v>145.7425</v>
       </c>
       <c r="G32" t="n">
+        <v>132.5733333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>132.4983333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1799,27 @@
         <v>23.9122</v>
       </c>
       <c r="G33" t="n">
+        <v>132.6466666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>132.5133333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1843,27 @@
         <v>2424.7726</v>
       </c>
       <c r="G34" t="n">
+        <v>132.7133333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>132.5283333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1887,27 @@
         <v>253</v>
       </c>
       <c r="G35" t="n">
+        <v>132.7866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>132.5399999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1931,27 @@
         <v>1969.263</v>
       </c>
       <c r="G36" t="n">
+        <v>132.9133333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>132.5649999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1975,27 @@
         <v>6633.8786</v>
       </c>
       <c r="G37" t="n">
+        <v>133.04</v>
+      </c>
+      <c r="H37" t="n">
         <v>132.5916666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2019,27 @@
         <v>2137.2254</v>
       </c>
       <c r="G38" t="n">
+        <v>133.1133333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>132.6199999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2063,27 @@
         <v>9362.126099999999</v>
       </c>
       <c r="G39" t="n">
+        <v>133.18</v>
+      </c>
+      <c r="H39" t="n">
         <v>132.6483333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2107,27 @@
         <v>288.447</v>
       </c>
       <c r="G40" t="n">
+        <v>133.2466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>132.6716666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2151,27 @@
         <v>262.8516</v>
       </c>
       <c r="G41" t="n">
+        <v>133.2466666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>132.6766666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2195,27 @@
         <v>4896.4865</v>
       </c>
       <c r="G42" t="n">
+        <v>133.1266666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>132.6749999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2239,27 @@
         <v>4807.4663</v>
       </c>
       <c r="G43" t="n">
+        <v>133.06</v>
+      </c>
+      <c r="H43" t="n">
         <v>132.6716666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2283,27 @@
         <v>3379.5281</v>
       </c>
       <c r="G44" t="n">
+        <v>132.9866666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>132.6649999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2327,27 @@
         <v>337.8233</v>
       </c>
       <c r="G45" t="n">
+        <v>132.98</v>
+      </c>
+      <c r="H45" t="n">
         <v>132.6583333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2371,27 @@
         <v>5</v>
       </c>
       <c r="G46" t="n">
+        <v>132.9133333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>132.6416666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2415,27 @@
         <v>130.428</v>
       </c>
       <c r="G47" t="n">
+        <v>132.8466666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>132.6249999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2459,27 @@
         <v>0.0236</v>
       </c>
       <c r="G48" t="n">
+        <v>132.7800000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>132.6066666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2503,27 @@
         <v>1593.568</v>
       </c>
       <c r="G49" t="n">
+        <v>132.8466666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>132.6149999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2547,27 @@
         <v>15932</v>
       </c>
       <c r="G50" t="n">
+        <v>132.9133333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>132.6649999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2591,27 @@
         <v>711.5496000000001</v>
       </c>
       <c r="G51" t="n">
+        <v>132.7866666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>132.6399999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2635,27 @@
         <v>73</v>
       </c>
       <c r="G52" t="n">
+        <v>132.7800000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>132.6483333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2679,27 @@
         <v>0.8120000000000001</v>
       </c>
       <c r="G53" t="n">
+        <v>132.7666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>132.6766666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2723,27 @@
         <v>3498.313497218045</v>
       </c>
       <c r="G54" t="n">
+        <v>132.7666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>132.7083333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2767,27 @@
         <v>29</v>
       </c>
       <c r="G55" t="n">
+        <v>132.7733333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>132.7449999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2811,27 @@
         <v>250</v>
       </c>
       <c r="G56" t="n">
+        <v>132.86</v>
+      </c>
+      <c r="H56" t="n">
         <v>132.7633333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2855,27 @@
         <v>250</v>
       </c>
       <c r="G57" t="n">
+        <v>133.0133333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>132.7833333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2899,27 @@
         <v>3649.4797</v>
       </c>
       <c r="G58" t="n">
+        <v>133.1733333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>132.8033333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2943,27 @@
         <v>23298.9157</v>
       </c>
       <c r="G59" t="n">
+        <v>133.3733333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>132.8316666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2987,27 @@
         <v>250</v>
       </c>
       <c r="G60" t="n">
+        <v>133.5733333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>132.8883333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3031,27 @@
         <v>2193.4605</v>
       </c>
       <c r="G61" t="n">
+        <v>133.7666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>132.9116666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3075,27 @@
         <v>4594.4055</v>
       </c>
       <c r="G62" t="n">
+        <v>133.9600000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>132.9599999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3119,27 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
+        <v>134.1533333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>132.9833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3163,27 @@
         <v>7750</v>
       </c>
       <c r="G64" t="n">
+        <v>134.2133333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>133.0066666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3207,27 @@
         <v>8449.2009</v>
       </c>
       <c r="G65" t="n">
+        <v>134.2666666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>133.0266666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3251,27 @@
         <v>9110.83</v>
       </c>
       <c r="G66" t="n">
+        <v>134.4666666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>133.0849999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3295,27 @@
         <v>133</v>
       </c>
       <c r="G67" t="n">
+        <v>134.5400000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>133.1066666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3339,27 @@
         <v>4632.3375</v>
       </c>
       <c r="G68" t="n">
+        <v>134.6200000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>133.1583333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3383,27 @@
         <v>1010.5187</v>
       </c>
       <c r="G69" t="n">
+        <v>134.7266666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>133.1916666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3427,27 @@
         <v>9363.3352</v>
       </c>
       <c r="G70" t="n">
+        <v>134.9066666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>133.2449999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3471,27 @@
         <v>7113.309</v>
       </c>
       <c r="G71" t="n">
+        <v>135.0800000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>133.2949999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3515,27 @@
         <v>5510.318</v>
       </c>
       <c r="G72" t="n">
+        <v>135.2466666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>133.3749999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3559,27 @@
         <v>1746.0856</v>
       </c>
       <c r="G73" t="n">
+        <v>135.4133333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>133.4716666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3603,27 @@
         <v>4769.5227</v>
       </c>
       <c r="G74" t="n">
+        <v>135.5466666666668</v>
+      </c>
+      <c r="H74" t="n">
         <v>133.5749999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3647,27 @@
         <v>5118.3471</v>
       </c>
       <c r="G75" t="n">
+        <v>135.6800000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>133.6383333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3691,27 @@
         <v>4440.8996</v>
       </c>
       <c r="G76" t="n">
+        <v>135.8133333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>133.7666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3735,27 @@
         <v>10641.6784</v>
       </c>
       <c r="G77" t="n">
+        <v>135.9600000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>133.8349999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3779,27 @@
         <v>98</v>
       </c>
       <c r="G78" t="n">
+        <v>136.1066666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>133.9216666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3823,27 @@
         <v>3366.4335</v>
       </c>
       <c r="G79" t="n">
+        <v>136.2866666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>134.0149999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3867,27 @@
         <v>294</v>
       </c>
       <c r="G80" t="n">
+        <v>136.4666666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>134.1083333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3911,27 @@
         <v>15565.83333333333</v>
       </c>
       <c r="G81" t="n">
+        <v>136.6733333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>134.21</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3955,27 @@
         <v>368.9385</v>
       </c>
       <c r="G82" t="n">
+        <v>136.8800000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>134.3099999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3999,27 @@
         <v>255.8435</v>
       </c>
       <c r="G83" t="n">
+        <v>137.08</v>
+      </c>
+      <c r="H83" t="n">
         <v>134.395</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4043,27 @@
         <v>399.34</v>
       </c>
       <c r="G84" t="n">
+        <v>137.1266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>134.4499999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4087,27 @@
         <v>4919.3706</v>
       </c>
       <c r="G85" t="n">
+        <v>137.2066666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>134.5333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4131,27 @@
         <v>4930.550166666667</v>
       </c>
       <c r="G86" t="n">
+        <v>137.3266666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>134.6283333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4175,27 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
+        <v>137.4733333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>134.7149999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,19 +4219,28 @@
         <v>662</v>
       </c>
       <c r="G88" t="n">
+        <v>137.6666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>134.8283333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
+      <c r="L88" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1.040658682634731</v>
       </c>
     </row>
     <row r="89">
@@ -3493,18 +4263,21 @@
         <v>309.8143</v>
       </c>
       <c r="G89" t="n">
+        <v>137.8133333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>134.9299999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4301,21 @@
         <v>65.4866</v>
       </c>
       <c r="G90" t="n">
+        <v>137.96</v>
+      </c>
+      <c r="H90" t="n">
         <v>135.0483333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4339,21 @@
         <v>6817.955</v>
       </c>
       <c r="G91" t="n">
+        <v>138.1733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>135.1666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4377,21 @@
         <v>2287.2311</v>
       </c>
       <c r="G92" t="n">
+        <v>138.2466666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>135.2533333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4415,21 @@
         <v>3000</v>
       </c>
       <c r="G93" t="n">
+        <v>138.4466666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>135.3716666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4453,21 @@
         <v>1384.3072</v>
       </c>
       <c r="G94" t="n">
+        <v>138.4866666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>135.4583333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4491,21 @@
         <v>1507.9274</v>
       </c>
       <c r="G95" t="n">
+        <v>138.4666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>135.5283333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4529,21 @@
         <v>804.8927</v>
       </c>
       <c r="G96" t="n">
+        <v>138.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>135.565</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4567,21 @@
         <v>91</v>
       </c>
       <c r="G97" t="n">
+        <v>138.2666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>135.6166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4605,21 @@
         <v>30</v>
       </c>
       <c r="G98" t="n">
+        <v>138.1999999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>135.6666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4643,21 @@
         <v>1385</v>
       </c>
       <c r="G99" t="n">
+        <v>138.2933333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>135.7283333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4681,21 @@
         <v>2302.3914</v>
       </c>
       <c r="G100" t="n">
+        <v>138.2933333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>135.795</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4719,21 @@
         <v>2000</v>
       </c>
       <c r="G101" t="n">
+        <v>138.1533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>135.855</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4757,21 @@
         <v>2001</v>
       </c>
       <c r="G102" t="n">
+        <v>138.0866666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>135.955</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4795,21 @@
         <v>54.0539</v>
       </c>
       <c r="G103" t="n">
+        <v>137.8799999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>136.0333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4833,21 @@
         <v>7.1297</v>
       </c>
       <c r="G104" t="n">
+        <v>137.7199999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>136.1133333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4871,21 @@
         <v>31.7252</v>
       </c>
       <c r="G105" t="n">
+        <v>137.5199999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>136.1833333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4909,21 @@
         <v>6265.581</v>
       </c>
       <c r="G106" t="n">
+        <v>137.1999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>136.2383333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4947,21 @@
         <v>2705.3565</v>
       </c>
       <c r="G107" t="n">
+        <v>136.9399999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>136.2766666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4985,21 @@
         <v>802.8798</v>
       </c>
       <c r="G108" t="n">
+        <v>136.5399999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>136.3116666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +5023,21 @@
         <v>2051.3045</v>
       </c>
       <c r="G109" t="n">
+        <v>136.2666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>136.3133333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +5061,21 @@
         <v>8626.289000000001</v>
       </c>
       <c r="G110" t="n">
+        <v>135.9866666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>136.2966666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +5099,21 @@
         <v>888.2546</v>
       </c>
       <c r="G111" t="n">
+        <v>135.7866666666665</v>
+      </c>
+      <c r="H111" t="n">
         <v>136.3150000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +5137,21 @@
         <v>2041.3983</v>
       </c>
       <c r="G112" t="n">
+        <v>135.5266666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>136.3033333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5175,21 @@
         <v>108.7977</v>
       </c>
       <c r="G113" t="n">
+        <v>135.2666666666665</v>
+      </c>
+      <c r="H113" t="n">
         <v>136.2916666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5213,21 @@
         <v>362.0831</v>
       </c>
       <c r="G114" t="n">
+        <v>134.8866666666665</v>
+      </c>
+      <c r="H114" t="n">
         <v>136.2583333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,22 +5251,21 @@
         <v>11890.2049</v>
       </c>
       <c r="G115" t="n">
+        <v>134.5466666666665</v>
+      </c>
+      <c r="H115" t="n">
         <v>136.2383333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>132</v>
-      </c>
-      <c r="K115" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,26 +5289,21 @@
         <v>7217.5499</v>
       </c>
       <c r="G116" t="n">
+        <v>134.3133333333332</v>
+      </c>
+      <c r="H116" t="n">
         <v>136.2183333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="K116" t="n">
-        <v>132</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,26 +5327,21 @@
         <v>500</v>
       </c>
       <c r="G117" t="n">
+        <v>133.9799999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>136.1966666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>133</v>
-      </c>
-      <c r="K117" t="n">
-        <v>132</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,22 +5365,21 @@
         <v>1750</v>
       </c>
       <c r="G118" t="n">
+        <v>133.7399999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>136.175</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>133</v>
-      </c>
-      <c r="K118" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,26 +5403,21 @@
         <v>8012.0328</v>
       </c>
       <c r="G119" t="n">
+        <v>133.4999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>136.1450000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>133</v>
-      </c>
-      <c r="K119" t="n">
-        <v>133</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,26 +5441,21 @@
         <v>16024</v>
       </c>
       <c r="G120" t="n">
+        <v>133.3933333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>136.1383333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>133</v>
-      </c>
-      <c r="K120" t="n">
-        <v>133</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4653,26 +5479,21 @@
         <v>402.5572</v>
       </c>
       <c r="G121" t="n">
+        <v>133.2399999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>136.1066666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>134.4</v>
-      </c>
-      <c r="K121" t="n">
-        <v>133</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,24 +5517,21 @@
         <v>23925.7234</v>
       </c>
       <c r="G122" t="n">
+        <v>132.9933333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>136.0350000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>133</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,24 +5555,21 @@
         <v>176.8289</v>
       </c>
       <c r="G123" t="n">
+        <v>132.7733333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>135.9666666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>133</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,24 +5593,21 @@
         <v>15903.511</v>
       </c>
       <c r="G124" t="n">
+        <v>132.5533333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>135.8983333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>133</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,24 +5631,21 @@
         <v>9223.1805</v>
       </c>
       <c r="G125" t="n">
+        <v>132.3999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>135.8300000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>133</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,24 +5669,21 @@
         <v>520.2972</v>
       </c>
       <c r="G126" t="n">
+        <v>132.2466666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>135.7600000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>133</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,26 +5707,21 @@
         <v>500</v>
       </c>
       <c r="G127" t="n">
+        <v>132.0866666666665</v>
+      </c>
+      <c r="H127" t="n">
         <v>135.6900000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="K127" t="n">
-        <v>133</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,24 +5745,21 @@
         <v>250</v>
       </c>
       <c r="G128" t="n">
+        <v>131.9266666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>135.6183333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>133</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,26 +5783,21 @@
         <v>87.9726</v>
       </c>
       <c r="G129" t="n">
+        <v>131.8399999999998</v>
+      </c>
+      <c r="H129" t="n">
         <v>135.5366666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="K129" t="n">
-        <v>133</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,26 +5821,21 @@
         <v>30.2486</v>
       </c>
       <c r="G130" t="n">
+        <v>131.6933333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>135.4350000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>133</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,24 +5859,21 @@
         <v>5195.4007</v>
       </c>
       <c r="G131" t="n">
+        <v>131.5399999999998</v>
+      </c>
+      <c r="H131" t="n">
         <v>135.3333333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>133</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,26 +5897,21 @@
         <v>14700.5264</v>
       </c>
       <c r="G132" t="n">
+        <v>131.3866666666665</v>
+      </c>
+      <c r="H132" t="n">
         <v>135.2316666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="K132" t="n">
-        <v>133</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,24 +5935,21 @@
         <v>6014.15</v>
       </c>
       <c r="G133" t="n">
+        <v>131.3666666666664</v>
+      </c>
+      <c r="H133" t="n">
         <v>135.1633333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>133</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,24 +5973,21 @@
         <v>417.7132</v>
       </c>
       <c r="G134" t="n">
+        <v>131.3466666666664</v>
+      </c>
+      <c r="H134" t="n">
         <v>135.0950000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>133</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5237,24 +6011,21 @@
         <v>3937.999</v>
       </c>
       <c r="G135" t="n">
+        <v>131.0599999999998</v>
+      </c>
+      <c r="H135" t="n">
         <v>134.9833333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>133</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,24 +6049,21 @@
         <v>210.0379</v>
       </c>
       <c r="G136" t="n">
+        <v>130.9999999999997</v>
+      </c>
+      <c r="H136" t="n">
         <v>134.9033333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>133</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5319,24 +6087,21 @@
         <v>4.1522</v>
       </c>
       <c r="G137" t="n">
+        <v>131.0999999999998</v>
+      </c>
+      <c r="H137" t="n">
         <v>134.8200000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>133</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,24 +6125,21 @@
         <v>44.463</v>
       </c>
       <c r="G138" t="n">
+        <v>131.1866666666664</v>
+      </c>
+      <c r="H138" t="n">
         <v>134.7366666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>133</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,24 +6163,21 @@
         <v>600</v>
       </c>
       <c r="G139" t="n">
+        <v>131.3199999999998</v>
+      </c>
+      <c r="H139" t="n">
         <v>134.6566666666668</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>133</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,24 +6201,21 @@
         <v>28.6157</v>
       </c>
       <c r="G140" t="n">
+        <v>131.4533333333331</v>
+      </c>
+      <c r="H140" t="n">
         <v>134.5766666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>133</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5483,24 +6239,21 @@
         <v>122.75</v>
       </c>
       <c r="G141" t="n">
+        <v>131.5866666666664</v>
+      </c>
+      <c r="H141" t="n">
         <v>134.4883333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>133</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,24 +6277,21 @@
         <v>46.8934</v>
       </c>
       <c r="G142" t="n">
+        <v>131.7199999999997</v>
+      </c>
+      <c r="H142" t="n">
         <v>134.4000000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>133</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,24 +6315,21 @@
         <v>690.814</v>
       </c>
       <c r="G143" t="n">
+        <v>131.8533333333331</v>
+      </c>
+      <c r="H143" t="n">
         <v>134.3116666666668</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>133</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,24 +6353,21 @@
         <v>948.0115</v>
       </c>
       <c r="G144" t="n">
+        <v>132.0266666666664</v>
+      </c>
+      <c r="H144" t="n">
         <v>134.2616666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>133</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,24 +6391,21 @@
         <v>790.1209</v>
       </c>
       <c r="G145" t="n">
+        <v>132.2066666666664</v>
+      </c>
+      <c r="H145" t="n">
         <v>134.1850000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>133</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,24 +6429,21 @@
         <v>1812.6916</v>
       </c>
       <c r="G146" t="n">
+        <v>132.4066666666664</v>
+      </c>
+      <c r="H146" t="n">
         <v>134.1033333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>133</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,24 +6467,21 @@
         <v>450</v>
       </c>
       <c r="G147" t="n">
+        <v>132.6133333333331</v>
+      </c>
+      <c r="H147" t="n">
         <v>134.0166666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>133</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5770,24 +6505,21 @@
         <v>788</v>
       </c>
       <c r="G148" t="n">
+        <v>132.7066666666664</v>
+      </c>
+      <c r="H148" t="n">
         <v>133.9233333333335</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>133</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5811,24 +6543,21 @@
         <v>1247.6098</v>
       </c>
       <c r="G149" t="n">
+        <v>132.7999999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>133.8416666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>133</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,24 +6581,21 @@
         <v>192.7108</v>
       </c>
       <c r="G150" t="n">
+        <v>133.0666666666664</v>
+      </c>
+      <c r="H150" t="n">
         <v>133.7600000000001</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>133</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,24 +6619,21 @@
         <v>9836.1908</v>
       </c>
       <c r="G151" t="n">
+        <v>133.2066666666664</v>
+      </c>
+      <c r="H151" t="n">
         <v>133.6616666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>133</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5934,24 +6657,21 @@
         <v>176.1611</v>
       </c>
       <c r="G152" t="n">
+        <v>133.3466666666664</v>
+      </c>
+      <c r="H152" t="n">
         <v>133.5950000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>133</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,24 +6695,21 @@
         <v>288.4603</v>
       </c>
       <c r="G153" t="n">
+        <v>133.4866666666664</v>
+      </c>
+      <c r="H153" t="n">
         <v>133.4966666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>133</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,24 +6733,21 @@
         <v>163.0429</v>
       </c>
       <c r="G154" t="n">
+        <v>133.5799999999997</v>
+      </c>
+      <c r="H154" t="n">
         <v>133.4300000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>133</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6057,24 +6771,21 @@
         <v>1292.4635</v>
       </c>
       <c r="G155" t="n">
+        <v>133.6733333333331</v>
+      </c>
+      <c r="H155" t="n">
         <v>133.3783333333335</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>133</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6098,24 +6809,21 @@
         <v>751.3911000000001</v>
       </c>
       <c r="G156" t="n">
+        <v>133.7666666666664</v>
+      </c>
+      <c r="H156" t="n">
         <v>133.3466666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>133</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6139,24 +6847,21 @@
         <v>620.8609</v>
       </c>
       <c r="G157" t="n">
+        <v>133.8599999999998</v>
+      </c>
+      <c r="H157" t="n">
         <v>133.2983333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>133</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6180,24 +6885,21 @@
         <v>18.7902</v>
       </c>
       <c r="G158" t="n">
+        <v>133.8999999999997</v>
+      </c>
+      <c r="H158" t="n">
         <v>133.2366666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>133</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6221,24 +6923,21 @@
         <v>458.928</v>
       </c>
       <c r="G159" t="n">
+        <v>133.9733333333331</v>
+      </c>
+      <c r="H159" t="n">
         <v>133.1816666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>133</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,24 +6961,21 @@
         <v>84.7443</v>
       </c>
       <c r="G160" t="n">
+        <v>133.9666666666664</v>
+      </c>
+      <c r="H160" t="n">
         <v>133.1033333333335</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>133</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6303,24 +6999,21 @@
         <v>500</v>
       </c>
       <c r="G161" t="n">
+        <v>133.9999999999997</v>
+      </c>
+      <c r="H161" t="n">
         <v>133.0650000000002</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>133</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,24 +7037,21 @@
         <v>4</v>
       </c>
       <c r="G162" t="n">
+        <v>133.8866666666664</v>
+      </c>
+      <c r="H162" t="n">
         <v>132.9666666666668</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>133</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6385,24 +7075,21 @@
         <v>4094</v>
       </c>
       <c r="G163" t="n">
+        <v>133.7733333333331</v>
+      </c>
+      <c r="H163" t="n">
         <v>132.8966666666668</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>133</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6426,24 +7113,21 @@
         <v>1750</v>
       </c>
       <c r="G164" t="n">
+        <v>133.7133333333331</v>
+      </c>
+      <c r="H164" t="n">
         <v>132.8400000000001</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>133</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,24 +7151,21 @@
         <v>1950</v>
       </c>
       <c r="G165" t="n">
+        <v>133.6533333333331</v>
+      </c>
+      <c r="H165" t="n">
         <v>132.7933333333335</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>133</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6508,24 +7189,21 @@
         <v>4980.899</v>
       </c>
       <c r="G166" t="n">
+        <v>133.6733333333331</v>
+      </c>
+      <c r="H166" t="n">
         <v>132.7800000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>133</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6549,24 +7227,21 @@
         <v>2650.5712</v>
       </c>
       <c r="G167" t="n">
+        <v>133.6199999999997</v>
+      </c>
+      <c r="H167" t="n">
         <v>132.7650000000002</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>133</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6590,24 +7265,21 @@
         <v>1710.0866</v>
       </c>
       <c r="G168" t="n">
+        <v>133.5733333333331</v>
+      </c>
+      <c r="H168" t="n">
         <v>132.7550000000001</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>133</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6631,24 +7303,21 @@
         <v>2628.6758</v>
       </c>
       <c r="G169" t="n">
+        <v>133.5199999999998</v>
+      </c>
+      <c r="H169" t="n">
         <v>132.7433333333335</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>133</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6672,24 +7341,21 @@
         <v>250</v>
       </c>
       <c r="G170" t="n">
+        <v>133.4733333333331</v>
+      </c>
+      <c r="H170" t="n">
         <v>132.7500000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>133</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,24 +7379,21 @@
         <v>164.7105</v>
       </c>
       <c r="G171" t="n">
+        <v>133.4266666666664</v>
+      </c>
+      <c r="H171" t="n">
         <v>132.7566666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>133</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6754,24 +7417,21 @@
         <v>100.83</v>
       </c>
       <c r="G172" t="n">
+        <v>133.3799999999998</v>
+      </c>
+      <c r="H172" t="n">
         <v>132.7616666666668</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>133</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6795,24 +7455,21 @@
         <v>1750</v>
       </c>
       <c r="G173" t="n">
+        <v>133.3933333333331</v>
+      </c>
+      <c r="H173" t="n">
         <v>132.7683333333335</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>133</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,24 +7493,21 @@
         <v>2821.6891</v>
       </c>
       <c r="G174" t="n">
+        <v>133.3399999999998</v>
+      </c>
+      <c r="H174" t="n">
         <v>132.7950000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>133</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6877,24 +7531,21 @@
         <v>528</v>
       </c>
       <c r="G175" t="n">
+        <v>133.4066666666665</v>
+      </c>
+      <c r="H175" t="n">
         <v>132.8183333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>133</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6918,24 +7569,21 @@
         <v>120</v>
       </c>
       <c r="G176" t="n">
+        <v>133.3533333333332</v>
+      </c>
+      <c r="H176" t="n">
         <v>132.8250000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>133</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,24 +7607,21 @@
         <v>500</v>
       </c>
       <c r="G177" t="n">
+        <v>133.4999999999998</v>
+      </c>
+      <c r="H177" t="n">
         <v>132.8466666666668</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>133</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,24 +7645,21 @@
         <v>750</v>
       </c>
       <c r="G178" t="n">
+        <v>133.6399999999998</v>
+      </c>
+      <c r="H178" t="n">
         <v>132.8716666666668</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>133</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7041,24 +7683,21 @@
         <v>37</v>
       </c>
       <c r="G179" t="n">
+        <v>133.7266666666665</v>
+      </c>
+      <c r="H179" t="n">
         <v>132.8966666666668</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>133</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,24 +7721,21 @@
         <v>5366.6438</v>
       </c>
       <c r="G180" t="n">
+        <v>133.8133333333331</v>
+      </c>
+      <c r="H180" t="n">
         <v>132.8983333333335</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>133</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7123,24 +7759,21 @@
         <v>4</v>
       </c>
       <c r="G181" t="n">
+        <v>133.8333333333331</v>
+      </c>
+      <c r="H181" t="n">
         <v>132.9283333333335</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>133</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7164,24 +7797,21 @@
         <v>3200</v>
       </c>
       <c r="G182" t="n">
+        <v>133.9333333333331</v>
+      </c>
+      <c r="H182" t="n">
         <v>133.0000000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>133</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7205,24 +7835,21 @@
         <v>250</v>
       </c>
       <c r="G183" t="n">
+        <v>134.0266666666665</v>
+      </c>
+      <c r="H183" t="n">
         <v>133.0683333333335</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>133</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7246,24 +7873,21 @@
         <v>1500</v>
       </c>
       <c r="G184" t="n">
+        <v>134.1266666666665</v>
+      </c>
+      <c r="H184" t="n">
         <v>133.1366666666668</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>133</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,24 +7911,21 @@
         <v>750</v>
       </c>
       <c r="G185" t="n">
+        <v>134.2199999999998</v>
+      </c>
+      <c r="H185" t="n">
         <v>133.2050000000002</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>133</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,24 +7949,21 @@
         <v>6500</v>
       </c>
       <c r="G186" t="n">
+        <v>134.3199999999998</v>
+      </c>
+      <c r="H186" t="n">
         <v>133.2750000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>133</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7369,24 +7987,21 @@
         <v>750</v>
       </c>
       <c r="G187" t="n">
+        <v>134.4199999999998</v>
+      </c>
+      <c r="H187" t="n">
         <v>133.3450000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>133</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7410,24 +8025,21 @@
         <v>13558</v>
       </c>
       <c r="G188" t="n">
+        <v>134.5199999999998</v>
+      </c>
+      <c r="H188" t="n">
         <v>133.4166666666668</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>133</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7451,24 +8063,21 @@
         <v>250</v>
       </c>
       <c r="G189" t="n">
+        <v>134.6133333333331</v>
+      </c>
+      <c r="H189" t="n">
         <v>133.4883333333335</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>133</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7492,24 +8101,21 @@
         <v>280</v>
       </c>
       <c r="G190" t="n">
+        <v>134.6599999999998</v>
+      </c>
+      <c r="H190" t="n">
         <v>133.5600000000001</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>133</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,24 +8139,21 @@
         <v>15065.75</v>
       </c>
       <c r="G191" t="n">
+        <v>134.7733333333331</v>
+      </c>
+      <c r="H191" t="n">
         <v>133.6333333333335</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>133</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7574,24 +8177,21 @@
         <v>7620</v>
       </c>
       <c r="G192" t="n">
+        <v>134.8933333333331</v>
+      </c>
+      <c r="H192" t="n">
         <v>133.7233333333335</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>133</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7615,24 +8215,21 @@
         <v>750</v>
       </c>
       <c r="G193" t="n">
+        <v>134.9999999999998</v>
+      </c>
+      <c r="H193" t="n">
         <v>133.7800000000002</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>133</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7656,24 +8253,21 @@
         <v>4010</v>
       </c>
       <c r="G194" t="n">
+        <v>135.1666666666665</v>
+      </c>
+      <c r="H194" t="n">
         <v>133.8516666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>133</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7697,24 +8291,21 @@
         <v>307.6939</v>
       </c>
       <c r="G195" t="n">
+        <v>135.2199999999998</v>
+      </c>
+      <c r="H195" t="n">
         <v>133.9383333333335</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>133</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7738,24 +8329,21 @@
         <v>889.2319</v>
       </c>
       <c r="G196" t="n">
+        <v>135.3533333333332</v>
+      </c>
+      <c r="H196" t="n">
         <v>134.0166666666669</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>133</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,24 +8367,21 @@
         <v>975.8448</v>
       </c>
       <c r="G197" t="n">
+        <v>135.5666666666665</v>
+      </c>
+      <c r="H197" t="n">
         <v>134.1166666666668</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>133</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7820,24 +8405,21 @@
         <v>400.12</v>
       </c>
       <c r="G198" t="n">
+        <v>135.7799999999998</v>
+      </c>
+      <c r="H198" t="n">
         <v>134.2166666666668</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>133</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7861,24 +8443,21 @@
         <v>11920</v>
       </c>
       <c r="G199" t="n">
+        <v>136.1266666666665</v>
+      </c>
+      <c r="H199" t="n">
         <v>134.3383333333335</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>133</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7902,25 +8481,22 @@
         <v>106.86</v>
       </c>
       <c r="G200" t="n">
+        <v>136.3399999999998</v>
+      </c>
+      <c r="H200" t="n">
         <v>134.4266666666668</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>133</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1.032593984962406</v>
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -7943,18 +8519,21 @@
         <v>0.1623</v>
       </c>
       <c r="G201" t="n">
+        <v>136.5466666666665</v>
+      </c>
+      <c r="H201" t="n">
         <v>134.5150000000002</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,18 +8557,21 @@
         <v>873.7566</v>
       </c>
       <c r="G202" t="n">
+        <v>136.7466666666664</v>
+      </c>
+      <c r="H202" t="n">
         <v>134.6016666666668</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8013,18 +8595,21 @@
         <v>22.2192</v>
       </c>
       <c r="G203" t="n">
+        <v>136.9399999999998</v>
+      </c>
+      <c r="H203" t="n">
         <v>134.6883333333335</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8048,18 +8633,21 @@
         <v>4749.2274</v>
       </c>
       <c r="G204" t="n">
+        <v>136.9799999999998</v>
+      </c>
+      <c r="H204" t="n">
         <v>134.7266666666668</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8083,18 +8671,21 @@
         <v>565</v>
       </c>
       <c r="G205" t="n">
+        <v>137.0133333333331</v>
+      </c>
+      <c r="H205" t="n">
         <v>134.7616666666668</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8118,18 +8709,21 @@
         <v>5120.4032</v>
       </c>
       <c r="G206" t="n">
+        <v>137.0466666666665</v>
+      </c>
+      <c r="H206" t="n">
         <v>134.7933333333335</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,18 +8747,21 @@
         <v>5264.3494</v>
       </c>
       <c r="G207" t="n">
+        <v>136.9733333333331</v>
+      </c>
+      <c r="H207" t="n">
         <v>134.8133333333335</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8188,18 +8785,21 @@
         <v>4</v>
       </c>
       <c r="G208" t="n">
+        <v>137.0799999999998</v>
+      </c>
+      <c r="H208" t="n">
         <v>134.8733333333335</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8223,18 +8823,21 @@
         <v>247.2531</v>
       </c>
       <c r="G209" t="n">
+        <v>137.0133333333331</v>
+      </c>
+      <c r="H209" t="n">
         <v>134.9050000000001</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,18 +8861,21 @@
         <v>648.148</v>
       </c>
       <c r="G210" t="n">
+        <v>137.0599999999998</v>
+      </c>
+      <c r="H210" t="n">
         <v>134.9366666666668</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8293,18 +8899,21 @@
         <v>1479.5443</v>
       </c>
       <c r="G211" t="n">
+        <v>137.0133333333331</v>
+      </c>
+      <c r="H211" t="n">
         <v>134.9683333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8328,18 +8937,21 @@
         <v>23.1919</v>
       </c>
       <c r="G212" t="n">
+        <v>136.8799999999998</v>
+      </c>
+      <c r="H212" t="n">
         <v>135.0000000000001</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8363,18 +8975,21 @@
         <v>0.802</v>
       </c>
       <c r="G213" t="n">
+        <v>136.7466666666664</v>
+      </c>
+      <c r="H213" t="n">
         <v>135.0316666666668</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8398,18 +9013,21 @@
         <v>131.4942</v>
       </c>
       <c r="G214" t="n">
+        <v>136.4799999999998</v>
+      </c>
+      <c r="H214" t="n">
         <v>135.0633333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8433,18 +9051,21 @@
         <v>178.4231</v>
       </c>
       <c r="G215" t="n">
+        <v>136.3466666666664</v>
+      </c>
+      <c r="H215" t="n">
         <v>135.0950000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8468,18 +9089,401 @@
         <v>8787.366275857143</v>
       </c>
       <c r="G216" t="n">
+        <v>136.4799999999998</v>
+      </c>
+      <c r="H216" t="n">
         <v>135.1933333333334</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="E217" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>136.5066666666665</v>
+      </c>
+      <c r="H217" t="n">
+        <v>135.2633333333334</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>139</v>
+      </c>
+      <c r="C218" t="n">
+        <v>139</v>
+      </c>
+      <c r="D218" t="n">
+        <v>139</v>
+      </c>
+      <c r="E218" t="n">
+        <v>139</v>
+      </c>
+      <c r="F218" t="n">
+        <v>155.1007194244604</v>
+      </c>
+      <c r="G218" t="n">
+        <v>136.5799999999998</v>
+      </c>
+      <c r="H218" t="n">
+        <v>135.3583333333334</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>139</v>
+      </c>
+      <c r="C219" t="n">
+        <v>139</v>
+      </c>
+      <c r="D219" t="n">
+        <v>139</v>
+      </c>
+      <c r="E219" t="n">
+        <v>139</v>
+      </c>
+      <c r="F219" t="n">
+        <v>155.1079136690647</v>
+      </c>
+      <c r="G219" t="n">
+        <v>136.8066666666664</v>
+      </c>
+      <c r="H219" t="n">
+        <v>135.4350000000001</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>139</v>
+      </c>
+      <c r="C220" t="n">
+        <v>139</v>
+      </c>
+      <c r="D220" t="n">
+        <v>139</v>
+      </c>
+      <c r="E220" t="n">
+        <v>139</v>
+      </c>
+      <c r="F220" t="n">
+        <v>10</v>
+      </c>
+      <c r="G220" t="n">
+        <v>137.0399999999998</v>
+      </c>
+      <c r="H220" t="n">
+        <v>135.5300000000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="C221" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E221" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16796.4871</v>
+      </c>
+      <c r="G221" t="n">
+        <v>137.2533333333331</v>
+      </c>
+      <c r="H221" t="n">
+        <v>135.6066666666667</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>138</v>
+      </c>
+      <c r="C222" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="D222" t="n">
+        <v>138</v>
+      </c>
+      <c r="E222" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="F222" t="n">
+        <v>616.8009</v>
+      </c>
+      <c r="G222" t="n">
+        <v>137.4133333333331</v>
+      </c>
+      <c r="H222" t="n">
+        <v>135.6950000000001</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D223" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E223" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>7776.3725</v>
+      </c>
+      <c r="G223" t="n">
+        <v>137.4266666666665</v>
+      </c>
+      <c r="H223" t="n">
+        <v>135.7866666666667</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G224" t="n">
+        <v>137.5533333333332</v>
+      </c>
+      <c r="H224" t="n">
+        <v>135.8650000000001</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C225" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4523</v>
+      </c>
+      <c r="G225" t="n">
+        <v>137.6799999999998</v>
+      </c>
+      <c r="H225" t="n">
+        <v>135.9433333333334</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E226" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1248.2755</v>
+      </c>
+      <c r="G226" t="n">
+        <v>137.8066666666665</v>
+      </c>
+      <c r="H226" t="n">
+        <v>136.0016666666668</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>131.1</v>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" t="n">
-        <v>133</v>
+        <v>131.1</v>
       </c>
       <c r="E2" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>444</v>
+        <v>2552.732</v>
       </c>
       <c r="G2" t="n">
-        <v>-5681.732627278161</v>
+        <v>10557.88602881206</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>130.6</v>
+        <v>131.9</v>
       </c>
       <c r="C3" t="n">
-        <v>129.1</v>
+        <v>131.9</v>
       </c>
       <c r="D3" t="n">
-        <v>130.6</v>
+        <v>131.9</v>
       </c>
       <c r="E3" t="n">
-        <v>129.1</v>
+        <v>131.9</v>
       </c>
       <c r="F3" t="n">
-        <v>267.1163</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-5948.848927278161</v>
+        <v>10562.88602881206</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>133</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>132.9</v>
+        <v>131.9</v>
       </c>
       <c r="C4" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D4" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E4" t="n">
-        <v>132.9</v>
+        <v>131.9</v>
       </c>
       <c r="F4" t="n">
-        <v>227</v>
+        <v>12570.0116</v>
       </c>
       <c r="G4" t="n">
-        <v>-5721.848927278161</v>
+        <v>23132.89762881206</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>129.1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="C5" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="E5" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="F5" t="n">
-        <v>240.3688</v>
+        <v>2317.6652</v>
       </c>
       <c r="G5" t="n">
-        <v>-5962.217727278161</v>
+        <v>23132.89762881206</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>132.9</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="C6" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="E6" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="F6" t="n">
-        <v>1304.8157</v>
+        <v>6684.1742</v>
       </c>
       <c r="G6" t="n">
-        <v>-4657.402027278161</v>
+        <v>23132.89762881206</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>131.8</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="D7" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="E7" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="F7" t="n">
-        <v>3440.2141</v>
+        <v>405.8667</v>
       </c>
       <c r="G7" t="n">
-        <v>-4657.402027278161</v>
+        <v>22727.03092881206</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>131.9</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>131.9</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="D8" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
-        <v>131.9</v>
+        <v>129</v>
       </c>
       <c r="F8" t="n">
-        <v>5619.5839</v>
+        <v>809.39</v>
       </c>
       <c r="G8" t="n">
-        <v>-4657.402027278161</v>
+        <v>22727.03092881206</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -708,12 +678,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -726,22 +696,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" t="n">
-        <v>54</v>
+        <v>388.8142</v>
       </c>
       <c r="G9" t="n">
-        <v>-4603.402027278161</v>
+        <v>22727.03092881206</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -750,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -768,22 +738,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D10" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" t="n">
-        <v>45352.7683</v>
+        <v>1016</v>
       </c>
       <c r="G10" t="n">
-        <v>40749.36627272184</v>
+        <v>23743.03092881206</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -792,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -810,30 +780,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" t="n">
-        <v>3405.4974</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>44154.86367272184</v>
+        <v>23743.03092881206</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>132</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -850,30 +822,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" t="n">
-        <v>2330.779</v>
+        <v>313.2762</v>
       </c>
       <c r="G12" t="n">
-        <v>44154.86367272184</v>
+        <v>23743.03092881206</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>132</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -890,30 +864,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D13" t="n">
-        <v>133.3</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>132.9</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
-        <v>316.0429</v>
+        <v>5675.2312</v>
       </c>
       <c r="G13" t="n">
-        <v>43838.82077272184</v>
+        <v>23743.03092881206</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>132</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -930,30 +906,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133.3</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
-        <v>133.8</v>
+        <v>131</v>
       </c>
       <c r="D14" t="n">
-        <v>133.8</v>
+        <v>131</v>
       </c>
       <c r="E14" t="n">
-        <v>133.3</v>
+        <v>131</v>
       </c>
       <c r="F14" t="n">
-        <v>8453.2539</v>
+        <v>346</v>
       </c>
       <c r="G14" t="n">
-        <v>52292.07467272184</v>
+        <v>23397.03092881206</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -970,30 +948,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="C15" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="D15" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="E15" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="F15" t="n">
-        <v>120.7589</v>
+        <v>346</v>
       </c>
       <c r="G15" t="n">
-        <v>52171.31577272183</v>
+        <v>23397.03092881206</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>131</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1010,30 +990,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="C16" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D16" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E16" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="F16" t="n">
-        <v>2512.0371</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>52171.31577272183</v>
+        <v>23424.03092881206</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>131</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1050,30 +1032,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>132.9</v>
+        <v>130.7</v>
       </c>
       <c r="C17" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="D17" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E17" t="n">
-        <v>131.9</v>
+        <v>130.7</v>
       </c>
       <c r="F17" t="n">
-        <v>6143.3978</v>
+        <v>6604.9586</v>
       </c>
       <c r="G17" t="n">
-        <v>46027.91797272184</v>
+        <v>23424.03092881206</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>132</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1090,30 +1074,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>132.9</v>
+        <v>130.8</v>
       </c>
       <c r="C18" t="n">
-        <v>132.9</v>
+        <v>130.8</v>
       </c>
       <c r="D18" t="n">
-        <v>132.9</v>
+        <v>130.8</v>
       </c>
       <c r="E18" t="n">
-        <v>132.9</v>
+        <v>130.8</v>
       </c>
       <c r="F18" t="n">
-        <v>352.145</v>
+        <v>29.908</v>
       </c>
       <c r="G18" t="n">
-        <v>46380.06297272183</v>
+        <v>23394.12292881206</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>132</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1130,30 +1116,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="C19" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D19" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E19" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="F19" t="n">
-        <v>145.7425</v>
+        <v>830.085</v>
       </c>
       <c r="G19" t="n">
-        <v>46380.06297272183</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>130.8</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1170,30 +1158,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="C20" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D20" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E20" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="F20" t="n">
-        <v>23.9122</v>
+        <v>5972.8308</v>
       </c>
       <c r="G20" t="n">
-        <v>46380.06297272183</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>132</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1210,30 +1200,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="C21" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="D21" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E21" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="F21" t="n">
-        <v>2424.7726</v>
+        <v>700</v>
       </c>
       <c r="G21" t="n">
-        <v>46380.06297272183</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>132</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1250,30 +1242,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" t="n">
-        <v>253</v>
+        <v>1400</v>
       </c>
       <c r="G22" t="n">
-        <v>46633.06297272183</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>132</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1290,30 +1284,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>133.8</v>
+        <v>132</v>
       </c>
       <c r="C23" t="n">
-        <v>133.8</v>
+        <v>132</v>
       </c>
       <c r="D23" t="n">
-        <v>133.8</v>
+        <v>132</v>
       </c>
       <c r="E23" t="n">
-        <v>133.8</v>
+        <v>132</v>
       </c>
       <c r="F23" t="n">
-        <v>1969.263</v>
+        <v>891.1</v>
       </c>
       <c r="G23" t="n">
-        <v>48602.32597272183</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>132</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1330,30 +1326,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>133.8</v>
+        <v>132</v>
       </c>
       <c r="C24" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="D24" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="E24" t="n">
-        <v>133.8</v>
+        <v>132</v>
       </c>
       <c r="F24" t="n">
-        <v>6633.8786</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>55236.20457272184</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>132</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1370,30 +1368,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="C25" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E25" t="n">
-        <v>133.9</v>
+        <v>132</v>
       </c>
       <c r="F25" t="n">
-        <v>2137.2254</v>
+        <v>2165.0713</v>
       </c>
       <c r="G25" t="n">
-        <v>57373.42997272184</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>132</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1410,30 +1410,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26" t="n">
-        <v>9362.126099999999</v>
+        <v>1299.2084</v>
       </c>
       <c r="G26" t="n">
-        <v>57373.42997272184</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>132</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1450,30 +1452,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" t="n">
-        <v>288.447</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>57373.42997272184</v>
+        <v>24224.20792881206</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>132</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1490,30 +1494,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>132.9</v>
+        <v>131.6</v>
       </c>
       <c r="C28" t="n">
-        <v>132.9</v>
+        <v>131.6</v>
       </c>
       <c r="D28" t="n">
-        <v>132.9</v>
+        <v>131.6</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9</v>
+        <v>131.6</v>
       </c>
       <c r="F28" t="n">
-        <v>262.8516</v>
+        <v>27.6798</v>
       </c>
       <c r="G28" t="n">
-        <v>57110.57837272184</v>
+        <v>24196.52812881206</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>132</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1530,30 +1536,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="C29" t="n">
         <v>132</v>
       </c>
       <c r="D29" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E29" t="n">
         <v>132</v>
       </c>
       <c r="F29" t="n">
-        <v>4896.4865</v>
+        <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>52214.09187272184</v>
+        <v>24696.52812881206</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>131.6</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1573,27 +1581,29 @@
         <v>132</v>
       </c>
       <c r="C30" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="D30" t="n">
         <v>132</v>
       </c>
       <c r="E30" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="F30" t="n">
-        <v>4807.4663</v>
+        <v>25.7124</v>
       </c>
       <c r="G30" t="n">
-        <v>47406.62557272184</v>
+        <v>24696.52812881206</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>132</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1613,27 +1623,29 @@
         <v>132</v>
       </c>
       <c r="C31" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="D31" t="n">
         <v>132</v>
       </c>
       <c r="E31" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="F31" t="n">
-        <v>3379.5281</v>
+        <v>3153.9017</v>
       </c>
       <c r="G31" t="n">
-        <v>44027.09747272183</v>
+        <v>24696.52812881206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>132</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1650,30 +1662,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="C32" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="D32" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="E32" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="F32" t="n">
-        <v>337.8233</v>
+        <v>1161.937647156937</v>
       </c>
       <c r="G32" t="n">
-        <v>44027.09747272183</v>
+        <v>24696.52812881206</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>132</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1690,30 +1704,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>131.9</v>
+        <v>132.1</v>
       </c>
       <c r="C33" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="D33" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="E33" t="n">
-        <v>131.9</v>
+        <v>132.1</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="G33" t="n">
-        <v>44032.09747272183</v>
+        <v>24946.52812881206</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>132</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1730,30 +1746,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="C34" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="D34" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="E34" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="F34" t="n">
-        <v>130.428</v>
+        <v>27</v>
       </c>
       <c r="G34" t="n">
-        <v>44032.09747272183</v>
+        <v>24946.52812881206</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>132.3</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1770,30 +1788,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="C35" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="E35" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0236</v>
+        <v>1250</v>
       </c>
       <c r="G35" t="n">
-        <v>44032.09747272183</v>
+        <v>24946.52812881206</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>132.3</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1810,30 +1830,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>133.9</v>
+        <v>132.3</v>
       </c>
       <c r="C36" t="n">
-        <v>133.9</v>
+        <v>132.3</v>
       </c>
       <c r="D36" t="n">
-        <v>133.9</v>
+        <v>132.3</v>
       </c>
       <c r="E36" t="n">
-        <v>133.9</v>
+        <v>132.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1593.568</v>
+        <v>2566.4484</v>
       </c>
       <c r="G36" t="n">
-        <v>45625.66547272183</v>
+        <v>24946.52812881206</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>132.3</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1850,30 +1872,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>133.9</v>
+        <v>132.3</v>
       </c>
       <c r="C37" t="n">
-        <v>134</v>
+        <v>132.3</v>
       </c>
       <c r="D37" t="n">
-        <v>134</v>
+        <v>132.3</v>
       </c>
       <c r="E37" t="n">
-        <v>133.9</v>
+        <v>132.3</v>
       </c>
       <c r="F37" t="n">
-        <v>15932</v>
+        <v>1528.5426</v>
       </c>
       <c r="G37" t="n">
-        <v>61557.66547272183</v>
+        <v>24946.52812881206</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>132.3</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1890,30 +1914,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>133.8</v>
+        <v>132.3</v>
       </c>
       <c r="C38" t="n">
-        <v>131.9</v>
+        <v>132.6</v>
       </c>
       <c r="D38" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="E38" t="n">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="F38" t="n">
-        <v>711.5496000000001</v>
+        <v>1413.2575</v>
       </c>
       <c r="G38" t="n">
-        <v>60846.11587272184</v>
+        <v>26359.78562881206</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>132.3</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1930,30 +1956,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="C39" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="D39" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="E39" t="n">
-        <v>133.8</v>
+        <v>132.6</v>
       </c>
       <c r="F39" t="n">
-        <v>73</v>
+        <v>1512.2347</v>
       </c>
       <c r="G39" t="n">
-        <v>60919.11587272184</v>
+        <v>26359.78562881206</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>132.6</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1970,30 +1998,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>133.8</v>
+        <v>132.7</v>
       </c>
       <c r="C40" t="n">
-        <v>133.8</v>
+        <v>132.1</v>
       </c>
       <c r="D40" t="n">
-        <v>133.8</v>
+        <v>132.9</v>
       </c>
       <c r="E40" t="n">
-        <v>133.8</v>
+        <v>132.1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8120000000000001</v>
+        <v>15000.7794</v>
       </c>
       <c r="G40" t="n">
-        <v>60919.11587272184</v>
+        <v>11359.00622881206</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>132.6</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2010,30 +2040,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>134</v>
+        <v>132.1</v>
       </c>
       <c r="C41" t="n">
-        <v>134</v>
+        <v>132.1</v>
       </c>
       <c r="D41" t="n">
-        <v>134</v>
+        <v>132.1</v>
       </c>
       <c r="E41" t="n">
-        <v>134</v>
+        <v>132.1</v>
       </c>
       <c r="F41" t="n">
-        <v>3498.313497218045</v>
+        <v>281</v>
       </c>
       <c r="G41" t="n">
-        <v>64417.42936993988</v>
+        <v>11359.00622881206</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2050,30 +2082,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>134.1</v>
+        <v>132.2</v>
       </c>
       <c r="C42" t="n">
-        <v>134.1</v>
+        <v>132.2</v>
       </c>
       <c r="D42" t="n">
-        <v>134.1</v>
+        <v>132.2</v>
       </c>
       <c r="E42" t="n">
-        <v>134.1</v>
+        <v>132.2</v>
       </c>
       <c r="F42" t="n">
-        <v>29</v>
+        <v>831</v>
       </c>
       <c r="G42" t="n">
-        <v>64446.42936993988</v>
+        <v>12190.00622881206</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2090,30 +2124,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>134.1</v>
+        <v>132.2</v>
       </c>
       <c r="C43" t="n">
-        <v>134.2</v>
+        <v>132.2</v>
       </c>
       <c r="D43" t="n">
-        <v>134.2</v>
+        <v>132.2</v>
       </c>
       <c r="E43" t="n">
-        <v>134.1</v>
+        <v>132.2</v>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G43" t="n">
-        <v>64696.42936993988</v>
+        <v>12190.00622881206</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>132.2</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2130,30 +2166,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>134.2</v>
+        <v>132.2</v>
       </c>
       <c r="C44" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="D44" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="E44" t="n">
-        <v>134.2</v>
+        <v>132.2</v>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>4449.2492</v>
       </c>
       <c r="G44" t="n">
-        <v>64946.42936993988</v>
+        <v>16639.25542881206</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>132.2</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2170,22 +2208,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>134.3</v>
+        <v>132</v>
       </c>
       <c r="C45" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="D45" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="E45" t="n">
-        <v>134.3</v>
+        <v>132</v>
       </c>
       <c r="F45" t="n">
-        <v>3649.4797</v>
+        <v>6599.9694</v>
       </c>
       <c r="G45" t="n">
-        <v>64946.42936993988</v>
+        <v>16639.25542881206</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2210,22 +2248,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="C46" t="n">
-        <v>134.8</v>
+        <v>133</v>
       </c>
       <c r="D46" t="n">
-        <v>134.8</v>
+        <v>133</v>
       </c>
       <c r="E46" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="F46" t="n">
-        <v>23298.9157</v>
+        <v>32508.53084390978</v>
       </c>
       <c r="G46" t="n">
-        <v>88245.34506993988</v>
+        <v>49147.78627272184</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2250,22 +2288,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="C47" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="D47" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="E47" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>88245.34506993988</v>
+        <v>49151.78627272184</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2290,22 +2328,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>134.8</v>
+        <v>131</v>
       </c>
       <c r="C48" t="n">
-        <v>134.8</v>
+        <v>131</v>
       </c>
       <c r="D48" t="n">
-        <v>134.8</v>
+        <v>131</v>
       </c>
       <c r="E48" t="n">
-        <v>134.8</v>
+        <v>131</v>
       </c>
       <c r="F48" t="n">
-        <v>2193.4605</v>
+        <v>75</v>
       </c>
       <c r="G48" t="n">
-        <v>88245.34506993988</v>
+        <v>49076.78627272184</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2330,22 +2368,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="C49" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="D49" t="n">
-        <v>134.8</v>
+        <v>133.4</v>
       </c>
       <c r="E49" t="n">
-        <v>134</v>
+        <v>133.4</v>
       </c>
       <c r="F49" t="n">
-        <v>4594.4055</v>
+        <v>3816.8732</v>
       </c>
       <c r="G49" t="n">
-        <v>88245.34506993988</v>
+        <v>52893.65947272184</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2370,22 +2408,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>134.8</v>
+        <v>133.3</v>
       </c>
       <c r="C50" t="n">
-        <v>134.8</v>
+        <v>133.3</v>
       </c>
       <c r="D50" t="n">
-        <v>134.8</v>
+        <v>133.3</v>
       </c>
       <c r="E50" t="n">
-        <v>134.8</v>
+        <v>133.3</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>88245.34506993988</v>
+        <v>52886.65947272184</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2410,22 +2448,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="C51" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="D51" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="E51" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="F51" t="n">
-        <v>7750</v>
+        <v>75</v>
       </c>
       <c r="G51" t="n">
-        <v>88245.34506993988</v>
+        <v>52811.65947272184</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2450,22 +2488,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="C52" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="D52" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="E52" t="n">
-        <v>134.8</v>
+        <v>132.1</v>
       </c>
       <c r="F52" t="n">
-        <v>8449.2009</v>
+        <v>440.895</v>
       </c>
       <c r="G52" t="n">
-        <v>88245.34506993988</v>
+        <v>52811.65947272184</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2490,22 +2528,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="C53" t="n">
-        <v>134.9</v>
+        <v>131.9</v>
       </c>
       <c r="D53" t="n">
-        <v>134.9</v>
+        <v>133.1</v>
       </c>
       <c r="E53" t="n">
-        <v>134.8</v>
+        <v>131.9</v>
       </c>
       <c r="F53" t="n">
-        <v>9110.83</v>
+        <v>1183.345</v>
       </c>
       <c r="G53" t="n">
-        <v>97356.17506993988</v>
+        <v>51628.31447272184</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2530,22 +2568,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>134.9</v>
+        <v>133.1</v>
       </c>
       <c r="C54" t="n">
-        <v>134.9</v>
+        <v>133.1</v>
       </c>
       <c r="D54" t="n">
-        <v>134.9</v>
+        <v>133.1</v>
       </c>
       <c r="E54" t="n">
-        <v>134.9</v>
+        <v>133.1</v>
       </c>
       <c r="F54" t="n">
-        <v>133</v>
+        <v>199.4717</v>
       </c>
       <c r="G54" t="n">
-        <v>97356.17506993988</v>
+        <v>51827.78617272184</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2570,22 +2608,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>134.9</v>
+        <v>131.9</v>
       </c>
       <c r="C55" t="n">
-        <v>135</v>
+        <v>133.1</v>
       </c>
       <c r="D55" t="n">
-        <v>135</v>
+        <v>133.1</v>
       </c>
       <c r="E55" t="n">
-        <v>134.9</v>
+        <v>131.4</v>
       </c>
       <c r="F55" t="n">
-        <v>4632.3375</v>
+        <v>6852.0963</v>
       </c>
       <c r="G55" t="n">
-        <v>101988.5125699399</v>
+        <v>51827.78617272184</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2610,22 +2648,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>135</v>
+        <v>133.1</v>
       </c>
       <c r="C56" t="n">
-        <v>135.6</v>
+        <v>133.1</v>
       </c>
       <c r="D56" t="n">
-        <v>135.6</v>
+        <v>133.1</v>
       </c>
       <c r="E56" t="n">
-        <v>135</v>
+        <v>133.1</v>
       </c>
       <c r="F56" t="n">
-        <v>1010.5187</v>
+        <v>400.262</v>
       </c>
       <c r="G56" t="n">
-        <v>102999.0312699399</v>
+        <v>51827.78617272184</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2650,22 +2688,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>135.6</v>
+        <v>131.7</v>
       </c>
       <c r="C57" t="n">
-        <v>136.8</v>
+        <v>133.1</v>
       </c>
       <c r="D57" t="n">
-        <v>136.8</v>
+        <v>133.1</v>
       </c>
       <c r="E57" t="n">
-        <v>135.6</v>
+        <v>131.7</v>
       </c>
       <c r="F57" t="n">
-        <v>9363.3352</v>
+        <v>1974.6431</v>
       </c>
       <c r="G57" t="n">
-        <v>112362.3664699399</v>
+        <v>51827.78617272184</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2690,22 +2728,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>136.8</v>
+        <v>131.6</v>
       </c>
       <c r="C58" t="n">
-        <v>136.8</v>
+        <v>131.4</v>
       </c>
       <c r="D58" t="n">
-        <v>136.8</v>
+        <v>131.6</v>
       </c>
       <c r="E58" t="n">
-        <v>136.8</v>
+        <v>131.4</v>
       </c>
       <c r="F58" t="n">
-        <v>7113.309</v>
+        <v>42426.686</v>
       </c>
       <c r="G58" t="n">
-        <v>112362.3664699399</v>
+        <v>9401.100172721839</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2730,22 +2768,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>136.8</v>
+        <v>133.1</v>
       </c>
       <c r="C59" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="D59" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="E59" t="n">
-        <v>136.8</v>
+        <v>133.1</v>
       </c>
       <c r="F59" t="n">
-        <v>5510.318</v>
+        <v>1499.625187406297</v>
       </c>
       <c r="G59" t="n">
-        <v>112362.3664699399</v>
+        <v>10900.72536012814</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2770,22 +2808,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="C60" t="n">
-        <v>136.8</v>
+        <v>131.9</v>
       </c>
       <c r="D60" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="E60" t="n">
-        <v>136.8</v>
+        <v>131.9</v>
       </c>
       <c r="F60" t="n">
-        <v>1746.0856</v>
+        <v>824.6251874062968</v>
       </c>
       <c r="G60" t="n">
-        <v>112362.3664699399</v>
+        <v>10076.10017272184</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2810,22 +2848,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="C61" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="D61" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="E61" t="n">
-        <v>134.9</v>
+        <v>133.4</v>
       </c>
       <c r="F61" t="n">
-        <v>4769.5227</v>
+        <v>2007.9082</v>
       </c>
       <c r="G61" t="n">
-        <v>112362.3664699399</v>
+        <v>12084.00837272184</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2850,22 +2888,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="C62" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="D62" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="E62" t="n">
-        <v>136.8</v>
+        <v>133.4</v>
       </c>
       <c r="F62" t="n">
-        <v>5118.3471</v>
+        <v>1109.317525187406</v>
       </c>
       <c r="G62" t="n">
-        <v>112362.3664699399</v>
+        <v>12084.00837272184</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2890,22 +2928,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>136.8</v>
+        <v>133.6</v>
       </c>
       <c r="C63" t="n">
-        <v>136.8</v>
+        <v>133.6</v>
       </c>
       <c r="D63" t="n">
-        <v>136.8</v>
+        <v>133.6</v>
       </c>
       <c r="E63" t="n">
-        <v>136.8</v>
+        <v>133.6</v>
       </c>
       <c r="F63" t="n">
-        <v>4440.8996</v>
+        <v>2652.451</v>
       </c>
       <c r="G63" t="n">
-        <v>112362.3664699399</v>
+        <v>14736.45937272184</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2930,22 +2968,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>136.8</v>
+        <v>131.4</v>
       </c>
       <c r="C64" t="n">
-        <v>137</v>
+        <v>131.4</v>
       </c>
       <c r="D64" t="n">
-        <v>137</v>
+        <v>131.4</v>
       </c>
       <c r="E64" t="n">
-        <v>136.8</v>
+        <v>131.4</v>
       </c>
       <c r="F64" t="n">
-        <v>10641.6784</v>
+        <v>75</v>
       </c>
       <c r="G64" t="n">
-        <v>123004.0448699399</v>
+        <v>14661.45937272184</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2970,22 +3008,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>137</v>
+        <v>133.6</v>
       </c>
       <c r="C65" t="n">
-        <v>137</v>
+        <v>133.6</v>
       </c>
       <c r="D65" t="n">
-        <v>137</v>
+        <v>133.6</v>
       </c>
       <c r="E65" t="n">
-        <v>137</v>
+        <v>133.6</v>
       </c>
       <c r="F65" t="n">
-        <v>98</v>
+        <v>4774.7514</v>
       </c>
       <c r="G65" t="n">
-        <v>123004.0448699399</v>
+        <v>19436.21077272184</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3010,22 +3048,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>137</v>
+        <v>131.9</v>
       </c>
       <c r="C66" t="n">
-        <v>137.5</v>
+        <v>131.9</v>
       </c>
       <c r="D66" t="n">
-        <v>137.5</v>
+        <v>131.9</v>
       </c>
       <c r="E66" t="n">
-        <v>137</v>
+        <v>131.9</v>
       </c>
       <c r="F66" t="n">
-        <v>3366.4335</v>
+        <v>75</v>
       </c>
       <c r="G66" t="n">
-        <v>126370.4783699399</v>
+        <v>19361.21077272184</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3050,22 +3088,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>137.5</v>
+        <v>133.6</v>
       </c>
       <c r="C67" t="n">
-        <v>137.5</v>
+        <v>133.6</v>
       </c>
       <c r="D67" t="n">
-        <v>137.5</v>
+        <v>133.6</v>
       </c>
       <c r="E67" t="n">
-        <v>137.5</v>
+        <v>133.6</v>
       </c>
       <c r="F67" t="n">
-        <v>294</v>
+        <v>1430.3411</v>
       </c>
       <c r="G67" t="n">
-        <v>126370.4783699399</v>
+        <v>20791.55187272184</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3090,22 +3128,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>137.5</v>
+        <v>133.6</v>
       </c>
       <c r="C68" t="n">
-        <v>138</v>
+        <v>133.6</v>
       </c>
       <c r="D68" t="n">
-        <v>138</v>
+        <v>133.6</v>
       </c>
       <c r="E68" t="n">
-        <v>137.5</v>
+        <v>133.6</v>
       </c>
       <c r="F68" t="n">
-        <v>15565.83333333333</v>
+        <v>2852.8573</v>
       </c>
       <c r="G68" t="n">
-        <v>141936.3117032732</v>
+        <v>20791.55187272184</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3130,22 +3168,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>138</v>
+        <v>133.8</v>
       </c>
       <c r="C69" t="n">
-        <v>138</v>
+        <v>133.8</v>
       </c>
       <c r="D69" t="n">
-        <v>138</v>
+        <v>133.8</v>
       </c>
       <c r="E69" t="n">
-        <v>138</v>
+        <v>133.8</v>
       </c>
       <c r="F69" t="n">
-        <v>368.9385</v>
+        <v>75</v>
       </c>
       <c r="G69" t="n">
-        <v>141936.3117032732</v>
+        <v>20866.55187272184</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3170,22 +3208,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C70" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D70" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E70" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F70" t="n">
-        <v>255.8435</v>
+        <v>75</v>
       </c>
       <c r="G70" t="n">
-        <v>141936.3117032732</v>
+        <v>20791.55187272184</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3210,22 +3248,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>136.3</v>
+        <v>132</v>
       </c>
       <c r="C71" t="n">
-        <v>136.3</v>
+        <v>131</v>
       </c>
       <c r="D71" t="n">
-        <v>136.3</v>
+        <v>132</v>
       </c>
       <c r="E71" t="n">
-        <v>136.3</v>
+        <v>131</v>
       </c>
       <c r="F71" t="n">
-        <v>399.34</v>
+        <v>26902.6575</v>
       </c>
       <c r="G71" t="n">
-        <v>141536.9717032732</v>
+        <v>-6111.105627278161</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3250,22 +3288,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>138</v>
+        <v>130.6</v>
       </c>
       <c r="C72" t="n">
-        <v>138</v>
+        <v>130.6</v>
       </c>
       <c r="D72" t="n">
-        <v>138</v>
+        <v>130.6</v>
       </c>
       <c r="E72" t="n">
-        <v>138</v>
+        <v>130.6</v>
       </c>
       <c r="F72" t="n">
-        <v>4919.3706</v>
+        <v>14.627</v>
       </c>
       <c r="G72" t="n">
-        <v>146456.3423032732</v>
+        <v>-6125.732627278161</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3290,22 +3328,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C73" t="n">
-        <v>138.6</v>
+        <v>133</v>
       </c>
       <c r="D73" t="n">
-        <v>138.6</v>
+        <v>133</v>
       </c>
       <c r="E73" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F73" t="n">
-        <v>4930.550166666667</v>
+        <v>444</v>
       </c>
       <c r="G73" t="n">
-        <v>151386.8924699399</v>
+        <v>-5681.732627278161</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3330,22 +3368,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>139</v>
+        <v>130.6</v>
       </c>
       <c r="C74" t="n">
-        <v>139</v>
+        <v>129.1</v>
       </c>
       <c r="D74" t="n">
-        <v>139</v>
+        <v>130.6</v>
       </c>
       <c r="E74" t="n">
-        <v>139</v>
+        <v>129.1</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>267.1163</v>
       </c>
       <c r="G74" t="n">
-        <v>151396.8924699399</v>
+        <v>-5948.848927278161</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3370,22 +3408,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>139</v>
+        <v>132.9</v>
       </c>
       <c r="C75" t="n">
-        <v>139.7</v>
+        <v>132.9</v>
       </c>
       <c r="D75" t="n">
-        <v>139.7</v>
+        <v>132.9</v>
       </c>
       <c r="E75" t="n">
-        <v>139</v>
+        <v>132.9</v>
       </c>
       <c r="F75" t="n">
-        <v>662</v>
+        <v>227</v>
       </c>
       <c r="G75" t="n">
-        <v>152058.8924699399</v>
+        <v>-5721.848927278161</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3410,22 +3448,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>139</v>
+        <v>131.8</v>
       </c>
       <c r="C76" t="n">
-        <v>139</v>
+        <v>131.8</v>
       </c>
       <c r="D76" t="n">
-        <v>139</v>
+        <v>131.8</v>
       </c>
       <c r="E76" t="n">
-        <v>139</v>
+        <v>131.8</v>
       </c>
       <c r="F76" t="n">
-        <v>309.8143</v>
+        <v>240.3688</v>
       </c>
       <c r="G76" t="n">
-        <v>151749.0781699399</v>
+        <v>-5962.217727278161</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3450,22 +3488,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>139</v>
+        <v>131.9</v>
       </c>
       <c r="C77" t="n">
-        <v>139</v>
+        <v>131.9</v>
       </c>
       <c r="D77" t="n">
-        <v>139</v>
+        <v>131.9</v>
       </c>
       <c r="E77" t="n">
-        <v>139</v>
+        <v>131.9</v>
       </c>
       <c r="F77" t="n">
-        <v>65.4866</v>
+        <v>1304.8157</v>
       </c>
       <c r="G77" t="n">
-        <v>151749.0781699399</v>
+        <v>-4657.402027278161</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3490,22 +3528,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>137.5</v>
+        <v>131.9</v>
       </c>
       <c r="C78" t="n">
-        <v>140</v>
+        <v>131.9</v>
       </c>
       <c r="D78" t="n">
-        <v>140</v>
+        <v>131.9</v>
       </c>
       <c r="E78" t="n">
-        <v>137.5</v>
+        <v>131.9</v>
       </c>
       <c r="F78" t="n">
-        <v>6817.955</v>
+        <v>3440.2141</v>
       </c>
       <c r="G78" t="n">
-        <v>158567.0331699399</v>
+        <v>-4657.402027278161</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3530,22 +3568,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>138.1</v>
+        <v>131.9</v>
       </c>
       <c r="C79" t="n">
-        <v>138.1</v>
+        <v>131.9</v>
       </c>
       <c r="D79" t="n">
-        <v>138.1</v>
+        <v>131.9</v>
       </c>
       <c r="E79" t="n">
-        <v>138.1</v>
+        <v>131.9</v>
       </c>
       <c r="F79" t="n">
-        <v>2287.2311</v>
+        <v>5619.5839</v>
       </c>
       <c r="G79" t="n">
-        <v>156279.8020699398</v>
+        <v>-4657.402027278161</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3570,22 +3608,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>138.1</v>
+        <v>132</v>
       </c>
       <c r="C80" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D80" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E80" t="n">
-        <v>138.1</v>
+        <v>132</v>
       </c>
       <c r="F80" t="n">
-        <v>3000</v>
+        <v>54</v>
       </c>
       <c r="G80" t="n">
-        <v>159279.8020699398</v>
+        <v>-4603.402027278161</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3610,22 +3648,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>138.1</v>
+        <v>132</v>
       </c>
       <c r="C81" t="n">
-        <v>138.1</v>
+        <v>132.9</v>
       </c>
       <c r="D81" t="n">
-        <v>138.1</v>
+        <v>132.9</v>
       </c>
       <c r="E81" t="n">
-        <v>138.1</v>
+        <v>132</v>
       </c>
       <c r="F81" t="n">
-        <v>1384.3072</v>
+        <v>45352.7683</v>
       </c>
       <c r="G81" t="n">
-        <v>157895.4948699398</v>
+        <v>40749.36627272184</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3650,22 +3688,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C82" t="n">
-        <v>137.2</v>
+        <v>133</v>
       </c>
       <c r="D82" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E82" t="n">
-        <v>137.2</v>
+        <v>133</v>
       </c>
       <c r="F82" t="n">
-        <v>1507.9274</v>
+        <v>3405.4974</v>
       </c>
       <c r="G82" t="n">
-        <v>156387.5674699399</v>
+        <v>44154.86367272184</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3690,22 +3728,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>136.8</v>
+        <v>133</v>
       </c>
       <c r="C83" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D83" t="n">
-        <v>136.8</v>
+        <v>133</v>
       </c>
       <c r="E83" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F83" t="n">
-        <v>804.8927</v>
+        <v>2330.779</v>
       </c>
       <c r="G83" t="n">
-        <v>155582.6747699399</v>
+        <v>44154.86367272184</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3730,22 +3768,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C84" t="n">
-        <v>137</v>
+        <v>132.9</v>
       </c>
       <c r="D84" t="n">
-        <v>137</v>
+        <v>133.3</v>
       </c>
       <c r="E84" t="n">
-        <v>137</v>
+        <v>132.9</v>
       </c>
       <c r="F84" t="n">
-        <v>91</v>
+        <v>316.0429</v>
       </c>
       <c r="G84" t="n">
-        <v>155673.6747699399</v>
+        <v>43838.82077272184</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3770,22 +3808,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>137</v>
+        <v>133.3</v>
       </c>
       <c r="C85" t="n">
-        <v>137</v>
+        <v>133.8</v>
       </c>
       <c r="D85" t="n">
-        <v>137</v>
+        <v>133.8</v>
       </c>
       <c r="E85" t="n">
-        <v>137</v>
+        <v>133.3</v>
       </c>
       <c r="F85" t="n">
-        <v>30</v>
+        <v>8453.2539</v>
       </c>
       <c r="G85" t="n">
-        <v>155673.6747699399</v>
+        <v>52292.07467272184</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3810,22 +3848,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>137</v>
+        <v>132.9</v>
       </c>
       <c r="C86" t="n">
-        <v>137.7</v>
+        <v>132.9</v>
       </c>
       <c r="D86" t="n">
-        <v>137.7</v>
+        <v>132.9</v>
       </c>
       <c r="E86" t="n">
-        <v>137</v>
+        <v>132.9</v>
       </c>
       <c r="F86" t="n">
-        <v>1385</v>
+        <v>120.7589</v>
       </c>
       <c r="G86" t="n">
-        <v>157058.6747699399</v>
+        <v>52171.31577272183</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3850,22 +3888,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>137.7</v>
+        <v>132.9</v>
       </c>
       <c r="C87" t="n">
-        <v>138</v>
+        <v>132.9</v>
       </c>
       <c r="D87" t="n">
-        <v>138</v>
+        <v>132.9</v>
       </c>
       <c r="E87" t="n">
-        <v>137.7</v>
+        <v>132.9</v>
       </c>
       <c r="F87" t="n">
-        <v>2302.3914</v>
+        <v>2512.0371</v>
       </c>
       <c r="G87" t="n">
-        <v>159361.0661699398</v>
+        <v>52171.31577272183</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3890,22 +3928,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>136.5</v>
+        <v>132.9</v>
       </c>
       <c r="C88" t="n">
-        <v>136.5</v>
+        <v>131.9</v>
       </c>
       <c r="D88" t="n">
-        <v>136.5</v>
+        <v>132.9</v>
       </c>
       <c r="E88" t="n">
-        <v>136.5</v>
+        <v>131.9</v>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>6143.3978</v>
       </c>
       <c r="G88" t="n">
-        <v>157361.0661699398</v>
+        <v>46027.91797272184</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3930,22 +3968,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>137.9</v>
+        <v>132.9</v>
       </c>
       <c r="C89" t="n">
-        <v>138</v>
+        <v>132.9</v>
       </c>
       <c r="D89" t="n">
-        <v>138</v>
+        <v>132.9</v>
       </c>
       <c r="E89" t="n">
-        <v>137.9</v>
+        <v>132.9</v>
       </c>
       <c r="F89" t="n">
-        <v>2001</v>
+        <v>352.145</v>
       </c>
       <c r="G89" t="n">
-        <v>159362.0661699398</v>
+        <v>46380.06297272183</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3970,22 +4008,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="C90" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="D90" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="E90" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="F90" t="n">
-        <v>54.0539</v>
+        <v>145.7425</v>
       </c>
       <c r="G90" t="n">
-        <v>159308.0122699398</v>
+        <v>46380.06297272183</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4010,22 +4048,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="C91" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="D91" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="E91" t="n">
-        <v>136.6</v>
+        <v>132.9</v>
       </c>
       <c r="F91" t="n">
-        <v>7.1297</v>
+        <v>23.9122</v>
       </c>
       <c r="G91" t="n">
-        <v>159308.0122699398</v>
+        <v>46380.06297272183</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4050,22 +4088,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>136</v>
+        <v>132.9</v>
       </c>
       <c r="C92" t="n">
-        <v>136</v>
+        <v>132.9</v>
       </c>
       <c r="D92" t="n">
-        <v>136</v>
+        <v>132.9</v>
       </c>
       <c r="E92" t="n">
-        <v>136</v>
+        <v>132.9</v>
       </c>
       <c r="F92" t="n">
-        <v>31.7252</v>
+        <v>2424.7726</v>
       </c>
       <c r="G92" t="n">
-        <v>159276.2870699399</v>
+        <v>46380.06297272183</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4090,22 +4128,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>135.2</v>
+        <v>133</v>
       </c>
       <c r="C93" t="n">
-        <v>135.2</v>
+        <v>133</v>
       </c>
       <c r="D93" t="n">
-        <v>135.4</v>
+        <v>133</v>
       </c>
       <c r="E93" t="n">
-        <v>135.2</v>
+        <v>133</v>
       </c>
       <c r="F93" t="n">
-        <v>6265.581</v>
+        <v>253</v>
       </c>
       <c r="G93" t="n">
-        <v>153010.7060699399</v>
+        <v>46633.06297272183</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4130,22 +4168,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>135</v>
+        <v>133.8</v>
       </c>
       <c r="C94" t="n">
-        <v>134.2</v>
+        <v>133.8</v>
       </c>
       <c r="D94" t="n">
-        <v>135</v>
+        <v>133.8</v>
       </c>
       <c r="E94" t="n">
-        <v>134.2</v>
+        <v>133.8</v>
       </c>
       <c r="F94" t="n">
-        <v>2705.3565</v>
+        <v>1969.263</v>
       </c>
       <c r="G94" t="n">
-        <v>150305.3495699399</v>
+        <v>48602.32597272183</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4170,22 +4208,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="C95" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="D95" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="E95" t="n">
-        <v>134</v>
+        <v>133.8</v>
       </c>
       <c r="F95" t="n">
-        <v>802.8798</v>
+        <v>6633.8786</v>
       </c>
       <c r="G95" t="n">
-        <v>149502.4697699399</v>
+        <v>55236.20457272184</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4210,22 +4248,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="C96" t="n">
         <v>134</v>
       </c>
       <c r="D96" t="n">
-        <v>134.7</v>
+        <v>134</v>
       </c>
       <c r="E96" t="n">
-        <v>133.8</v>
+        <v>133.9</v>
       </c>
       <c r="F96" t="n">
-        <v>2051.3045</v>
+        <v>2137.2254</v>
       </c>
       <c r="G96" t="n">
-        <v>149502.4697699399</v>
+        <v>57373.42997272184</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4253,19 +4291,19 @@
         <v>134</v>
       </c>
       <c r="C97" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D97" t="n">
         <v>134</v>
       </c>
       <c r="E97" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F97" t="n">
-        <v>8626.289000000001</v>
+        <v>9362.126099999999</v>
       </c>
       <c r="G97" t="n">
-        <v>140876.1807699399</v>
+        <v>57373.42997272184</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4290,22 +4328,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D98" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E98" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F98" t="n">
-        <v>888.2546</v>
+        <v>288.447</v>
       </c>
       <c r="G98" t="n">
-        <v>140876.1807699399</v>
+        <v>57373.42997272184</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4330,22 +4368,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="C99" t="n">
-        <v>133.1</v>
+        <v>132.9</v>
       </c>
       <c r="D99" t="n">
-        <v>134.3</v>
+        <v>132.9</v>
       </c>
       <c r="E99" t="n">
-        <v>133.1</v>
+        <v>132.9</v>
       </c>
       <c r="F99" t="n">
-        <v>2041.3983</v>
+        <v>262.8516</v>
       </c>
       <c r="G99" t="n">
-        <v>142917.5790699399</v>
+        <v>57110.57837272184</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4370,22 +4408,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>133.1</v>
+        <v>132.9</v>
       </c>
       <c r="C100" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="D100" t="n">
-        <v>133.1</v>
+        <v>132.9</v>
       </c>
       <c r="E100" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="F100" t="n">
-        <v>108.7977</v>
+        <v>4896.4865</v>
       </c>
       <c r="G100" t="n">
-        <v>142917.5790699399</v>
+        <v>52214.09187272184</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4410,22 +4448,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="C101" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="D101" t="n">
-        <v>133.1</v>
+        <v>132</v>
       </c>
       <c r="E101" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
       <c r="F101" t="n">
-        <v>362.0831</v>
+        <v>4807.4663</v>
       </c>
       <c r="G101" t="n">
-        <v>142555.4959699399</v>
+        <v>47406.62557272184</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4450,22 +4488,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="C102" t="n">
-        <v>132.9</v>
+        <v>131.8</v>
       </c>
       <c r="D102" t="n">
-        <v>132.9</v>
+        <v>132</v>
       </c>
       <c r="E102" t="n">
-        <v>132.9</v>
+        <v>131.8</v>
       </c>
       <c r="F102" t="n">
-        <v>11890.2049</v>
+        <v>3379.5281</v>
       </c>
       <c r="G102" t="n">
-        <v>154445.7008699399</v>
+        <v>44027.09747272183</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4490,22 +4528,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>133</v>
+        <v>131.8</v>
       </c>
       <c r="C103" t="n">
-        <v>133</v>
+        <v>131.8</v>
       </c>
       <c r="D103" t="n">
-        <v>133</v>
+        <v>131.8</v>
       </c>
       <c r="E103" t="n">
-        <v>133</v>
+        <v>131.8</v>
       </c>
       <c r="F103" t="n">
-        <v>7217.5499</v>
+        <v>337.8233</v>
       </c>
       <c r="G103" t="n">
-        <v>161663.2507699399</v>
+        <v>44027.09747272183</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4530,22 +4568,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="C104" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="D104" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="E104" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
-        <v>161663.2507699399</v>
+        <v>44032.09747272183</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4570,22 +4608,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="C105" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="D105" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="E105" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>130.428</v>
       </c>
       <c r="G105" t="n">
-        <v>161663.2507699399</v>
+        <v>44032.09747272183</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4610,22 +4648,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="C106" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="D106" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="E106" t="n">
-        <v>133</v>
+        <v>131.9</v>
       </c>
       <c r="F106" t="n">
-        <v>8012.0328</v>
+        <v>0.0236</v>
       </c>
       <c r="G106" t="n">
-        <v>161663.2507699399</v>
+        <v>44032.09747272183</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4650,22 +4688,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>133</v>
+        <v>133.9</v>
       </c>
       <c r="C107" t="n">
-        <v>134.4</v>
+        <v>133.9</v>
       </c>
       <c r="D107" t="n">
-        <v>134.4</v>
+        <v>133.9</v>
       </c>
       <c r="E107" t="n">
-        <v>133</v>
+        <v>133.9</v>
       </c>
       <c r="F107" t="n">
-        <v>16024</v>
+        <v>1593.568</v>
       </c>
       <c r="G107" t="n">
-        <v>177687.2507699399</v>
+        <v>45625.66547272183</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4690,22 +4728,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>132.9</v>
+        <v>133.9</v>
       </c>
       <c r="C108" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="D108" t="n">
-        <v>132.9</v>
+        <v>134</v>
       </c>
       <c r="E108" t="n">
-        <v>132.9</v>
+        <v>133.9</v>
       </c>
       <c r="F108" t="n">
-        <v>402.5572</v>
+        <v>15932</v>
       </c>
       <c r="G108" t="n">
-        <v>177284.6935699399</v>
+        <v>61557.66547272183</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4730,22 +4768,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>132.9</v>
+        <v>133.8</v>
       </c>
       <c r="C109" t="n">
-        <v>130.5</v>
+        <v>131.9</v>
       </c>
       <c r="D109" t="n">
-        <v>132.9</v>
+        <v>133.8</v>
       </c>
       <c r="E109" t="n">
-        <v>130.5</v>
+        <v>131.9</v>
       </c>
       <c r="F109" t="n">
-        <v>23925.7234</v>
+        <v>711.5496000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>153358.9701699399</v>
+        <v>60846.11587272184</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4770,22 +4808,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>131</v>
+        <v>133.8</v>
       </c>
       <c r="C110" t="n">
-        <v>130.7</v>
+        <v>133.8</v>
       </c>
       <c r="D110" t="n">
-        <v>131</v>
+        <v>133.8</v>
       </c>
       <c r="E110" t="n">
-        <v>130.7</v>
+        <v>133.8</v>
       </c>
       <c r="F110" t="n">
-        <v>176.8289</v>
+        <v>73</v>
       </c>
       <c r="G110" t="n">
-        <v>153535.7990699399</v>
+        <v>60919.11587272184</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4810,22 +4848,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>130.1</v>
+        <v>133.8</v>
       </c>
       <c r="C111" t="n">
-        <v>130.7</v>
+        <v>133.8</v>
       </c>
       <c r="D111" t="n">
-        <v>130.7</v>
+        <v>133.8</v>
       </c>
       <c r="E111" t="n">
-        <v>130.1</v>
+        <v>133.8</v>
       </c>
       <c r="F111" t="n">
-        <v>15903.511</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>153535.7990699399</v>
+        <v>60919.11587272184</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4850,22 +4888,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="C112" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="D112" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="E112" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="F112" t="n">
-        <v>9223.1805</v>
+        <v>3498.313497218045</v>
       </c>
       <c r="G112" t="n">
-        <v>153535.7990699399</v>
+        <v>64417.42936993988</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4890,22 +4928,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>130.7</v>
+        <v>134.1</v>
       </c>
       <c r="C113" t="n">
-        <v>130.7</v>
+        <v>134.1</v>
       </c>
       <c r="D113" t="n">
-        <v>130.7</v>
+        <v>134.1</v>
       </c>
       <c r="E113" t="n">
-        <v>130.7</v>
+        <v>134.1</v>
       </c>
       <c r="F113" t="n">
-        <v>520.2972</v>
+        <v>29</v>
       </c>
       <c r="G113" t="n">
-        <v>153535.7990699399</v>
+        <v>64446.42936993988</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4930,22 +4968,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>130.7</v>
+        <v>134.1</v>
       </c>
       <c r="C114" t="n">
-        <v>130.7</v>
+        <v>134.2</v>
       </c>
       <c r="D114" t="n">
-        <v>130.7</v>
+        <v>134.2</v>
       </c>
       <c r="E114" t="n">
-        <v>130.7</v>
+        <v>134.1</v>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G114" t="n">
-        <v>153535.7990699399</v>
+        <v>64696.42936993988</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4970,22 +5008,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>130.7</v>
+        <v>134.2</v>
       </c>
       <c r="C115" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="D115" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="E115" t="n">
-        <v>130.7</v>
+        <v>134.2</v>
       </c>
       <c r="F115" t="n">
         <v>250</v>
       </c>
       <c r="G115" t="n">
-        <v>153535.7990699399</v>
+        <v>64946.42936993988</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5010,22 +5048,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="C116" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="D116" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="E116" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="F116" t="n">
-        <v>87.9726</v>
+        <v>3649.4797</v>
       </c>
       <c r="G116" t="n">
-        <v>153535.7990699399</v>
+        <v>64946.42936993988</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5050,22 +5088,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="C117" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="D117" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="E117" t="n">
-        <v>130.7</v>
+        <v>134.3</v>
       </c>
       <c r="F117" t="n">
-        <v>30.2486</v>
+        <v>23298.9157</v>
       </c>
       <c r="G117" t="n">
-        <v>153535.7990699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5090,22 +5128,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="C118" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="D118" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="E118" t="n">
-        <v>130.5</v>
+        <v>134.8</v>
       </c>
       <c r="F118" t="n">
-        <v>5195.4007</v>
+        <v>250</v>
       </c>
       <c r="G118" t="n">
-        <v>153535.7990699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5130,22 +5168,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="C119" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="D119" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="E119" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="F119" t="n">
-        <v>14700.5264</v>
+        <v>2193.4605</v>
       </c>
       <c r="G119" t="n">
-        <v>153535.7990699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5170,22 +5208,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>130.7</v>
+        <v>134.8</v>
       </c>
       <c r="C120" t="n">
-        <v>132.7</v>
+        <v>134.8</v>
       </c>
       <c r="D120" t="n">
-        <v>132.7</v>
+        <v>134.8</v>
       </c>
       <c r="E120" t="n">
-        <v>130.7</v>
+        <v>134</v>
       </c>
       <c r="F120" t="n">
-        <v>6014.15</v>
+        <v>4594.4055</v>
       </c>
       <c r="G120" t="n">
-        <v>159549.9490699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5210,22 +5248,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>132.5</v>
+        <v>134.8</v>
       </c>
       <c r="C121" t="n">
-        <v>132.7</v>
+        <v>134.8</v>
       </c>
       <c r="D121" t="n">
-        <v>132.7</v>
+        <v>134.8</v>
       </c>
       <c r="E121" t="n">
-        <v>132.5</v>
+        <v>134.8</v>
       </c>
       <c r="F121" t="n">
-        <v>417.7132</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>159549.9490699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5250,22 +5288,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>131.2</v>
+        <v>134.8</v>
       </c>
       <c r="C122" t="n">
-        <v>130.1</v>
+        <v>134.8</v>
       </c>
       <c r="D122" t="n">
-        <v>131.2</v>
+        <v>134.8</v>
       </c>
       <c r="E122" t="n">
-        <v>130.1</v>
+        <v>134.8</v>
       </c>
       <c r="F122" t="n">
-        <v>3937.999</v>
+        <v>7750</v>
       </c>
       <c r="G122" t="n">
-        <v>155611.9500699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5290,22 +5328,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="C123" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="D123" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="E123" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="F123" t="n">
-        <v>210.0379</v>
+        <v>8449.2009</v>
       </c>
       <c r="G123" t="n">
-        <v>155821.9879699399</v>
+        <v>88245.34506993988</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5330,22 +5368,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="C124" t="n">
-        <v>132</v>
+        <v>134.9</v>
       </c>
       <c r="D124" t="n">
-        <v>132</v>
+        <v>134.9</v>
       </c>
       <c r="E124" t="n">
-        <v>132</v>
+        <v>134.8</v>
       </c>
       <c r="F124" t="n">
-        <v>4.1522</v>
+        <v>9110.83</v>
       </c>
       <c r="G124" t="n">
-        <v>155821.9879699399</v>
+        <v>97356.17506993988</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5370,22 +5408,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>132.7</v>
+        <v>134.9</v>
       </c>
       <c r="C125" t="n">
-        <v>132</v>
+        <v>134.9</v>
       </c>
       <c r="D125" t="n">
-        <v>132.7</v>
+        <v>134.9</v>
       </c>
       <c r="E125" t="n">
-        <v>132</v>
+        <v>134.9</v>
       </c>
       <c r="F125" t="n">
-        <v>44.463</v>
+        <v>133</v>
       </c>
       <c r="G125" t="n">
-        <v>155821.9879699399</v>
+        <v>97356.17506993988</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5410,22 +5448,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>132.7</v>
+        <v>134.9</v>
       </c>
       <c r="C126" t="n">
-        <v>132.7</v>
+        <v>135</v>
       </c>
       <c r="D126" t="n">
-        <v>132.7</v>
+        <v>135</v>
       </c>
       <c r="E126" t="n">
-        <v>132.7</v>
+        <v>134.9</v>
       </c>
       <c r="F126" t="n">
-        <v>600</v>
+        <v>4632.3375</v>
       </c>
       <c r="G126" t="n">
-        <v>156421.9879699399</v>
+        <v>101988.5125699399</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5450,22 +5488,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>132.7</v>
+        <v>135</v>
       </c>
       <c r="C127" t="n">
-        <v>132.7</v>
+        <v>135.6</v>
       </c>
       <c r="D127" t="n">
-        <v>132.7</v>
+        <v>135.6</v>
       </c>
       <c r="E127" t="n">
-        <v>132.7</v>
+        <v>135</v>
       </c>
       <c r="F127" t="n">
-        <v>28.6157</v>
+        <v>1010.5187</v>
       </c>
       <c r="G127" t="n">
-        <v>156421.9879699399</v>
+        <v>102999.0312699399</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5490,22 +5528,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>132.7</v>
+        <v>135.6</v>
       </c>
       <c r="C128" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="D128" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="E128" t="n">
-        <v>132.7</v>
+        <v>135.6</v>
       </c>
       <c r="F128" t="n">
-        <v>122.75</v>
+        <v>9363.3352</v>
       </c>
       <c r="G128" t="n">
-        <v>156421.9879699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5530,22 +5568,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="C129" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="D129" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="E129" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="F129" t="n">
-        <v>46.8934</v>
+        <v>7113.309</v>
       </c>
       <c r="G129" t="n">
-        <v>156421.9879699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5570,22 +5608,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="C130" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="D130" t="n">
-        <v>132.7</v>
+        <v>136.8</v>
       </c>
       <c r="E130" t="n">
-        <v>132.5</v>
+        <v>136.8</v>
       </c>
       <c r="F130" t="n">
-        <v>690.814</v>
+        <v>5510.318</v>
       </c>
       <c r="G130" t="n">
-        <v>156421.9879699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5610,22 +5648,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>133.3</v>
+        <v>136.8</v>
       </c>
       <c r="C131" t="n">
-        <v>133.3</v>
+        <v>136.8</v>
       </c>
       <c r="D131" t="n">
-        <v>133.3</v>
+        <v>136.8</v>
       </c>
       <c r="E131" t="n">
-        <v>133.3</v>
+        <v>136.8</v>
       </c>
       <c r="F131" t="n">
-        <v>948.0115</v>
+        <v>1746.0856</v>
       </c>
       <c r="G131" t="n">
-        <v>157369.9994699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5650,22 +5688,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>133.4</v>
+        <v>136.8</v>
       </c>
       <c r="C132" t="n">
-        <v>133.4</v>
+        <v>136.8</v>
       </c>
       <c r="D132" t="n">
-        <v>133.4</v>
+        <v>136.8</v>
       </c>
       <c r="E132" t="n">
-        <v>133.4</v>
+        <v>134.9</v>
       </c>
       <c r="F132" t="n">
-        <v>790.1209</v>
+        <v>4769.5227</v>
       </c>
       <c r="G132" t="n">
-        <v>158160.1203699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5690,22 +5728,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>132.9</v>
+        <v>136.8</v>
       </c>
       <c r="C133" t="n">
-        <v>133.7</v>
+        <v>136.8</v>
       </c>
       <c r="D133" t="n">
-        <v>133.7</v>
+        <v>136.8</v>
       </c>
       <c r="E133" t="n">
-        <v>130.8</v>
+        <v>136.8</v>
       </c>
       <c r="F133" t="n">
-        <v>1812.6916</v>
+        <v>5118.3471</v>
       </c>
       <c r="G133" t="n">
-        <v>159972.8119699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5730,22 +5768,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>133.8</v>
+        <v>136.8</v>
       </c>
       <c r="C134" t="n">
-        <v>133.8</v>
+        <v>136.8</v>
       </c>
       <c r="D134" t="n">
-        <v>133.8</v>
+        <v>136.8</v>
       </c>
       <c r="E134" t="n">
-        <v>133.8</v>
+        <v>136.8</v>
       </c>
       <c r="F134" t="n">
-        <v>450</v>
+        <v>4440.8996</v>
       </c>
       <c r="G134" t="n">
-        <v>160422.8119699399</v>
+        <v>112362.3664699399</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5770,22 +5808,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>134.1</v>
+        <v>136.8</v>
       </c>
       <c r="C135" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="D135" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="E135" t="n">
-        <v>134.1</v>
+        <v>136.8</v>
       </c>
       <c r="F135" t="n">
-        <v>788</v>
+        <v>10641.6784</v>
       </c>
       <c r="G135" t="n">
-        <v>161210.8119699399</v>
+        <v>123004.0448699399</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5810,22 +5848,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="C136" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="D136" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="E136" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="F136" t="n">
-        <v>1247.6098</v>
+        <v>98</v>
       </c>
       <c r="G136" t="n">
-        <v>161210.8119699399</v>
+        <v>123004.0448699399</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5850,22 +5888,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="C137" t="n">
-        <v>134.1</v>
+        <v>137.5</v>
       </c>
       <c r="D137" t="n">
-        <v>134.1</v>
+        <v>137.5</v>
       </c>
       <c r="E137" t="n">
-        <v>134.1</v>
+        <v>137</v>
       </c>
       <c r="F137" t="n">
-        <v>192.7108</v>
+        <v>3366.4335</v>
       </c>
       <c r="G137" t="n">
-        <v>161210.8119699399</v>
+        <v>126370.4783699399</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5890,22 +5928,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>134</v>
+        <v>137.5</v>
       </c>
       <c r="C138" t="n">
-        <v>134.1</v>
+        <v>137.5</v>
       </c>
       <c r="D138" t="n">
-        <v>134.1</v>
+        <v>137.5</v>
       </c>
       <c r="E138" t="n">
-        <v>134</v>
+        <v>137.5</v>
       </c>
       <c r="F138" t="n">
-        <v>9836.1908</v>
+        <v>294</v>
       </c>
       <c r="G138" t="n">
-        <v>161210.8119699399</v>
+        <v>126370.4783699399</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5930,22 +5968,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>134.1</v>
+        <v>137.5</v>
       </c>
       <c r="C139" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="D139" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="E139" t="n">
-        <v>134.1</v>
+        <v>137.5</v>
       </c>
       <c r="F139" t="n">
-        <v>176.1611</v>
+        <v>15565.83333333333</v>
       </c>
       <c r="G139" t="n">
-        <v>161210.8119699399</v>
+        <v>141936.3117032732</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5970,22 +6008,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="D140" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="E140" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="F140" t="n">
-        <v>288.4603</v>
+        <v>368.9385</v>
       </c>
       <c r="G140" t="n">
-        <v>161210.8119699399</v>
+        <v>141936.3117032732</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6010,22 +6048,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="C141" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="D141" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="E141" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="F141" t="n">
-        <v>163.0429</v>
+        <v>255.8435</v>
       </c>
       <c r="G141" t="n">
-        <v>161210.8119699399</v>
+        <v>141936.3117032732</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6050,22 +6088,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>134.1</v>
+        <v>136.3</v>
       </c>
       <c r="C142" t="n">
-        <v>134.1</v>
+        <v>136.3</v>
       </c>
       <c r="D142" t="n">
-        <v>134.1</v>
+        <v>136.3</v>
       </c>
       <c r="E142" t="n">
-        <v>134.1</v>
+        <v>136.3</v>
       </c>
       <c r="F142" t="n">
-        <v>1292.4635</v>
+        <v>399.34</v>
       </c>
       <c r="G142" t="n">
-        <v>161210.8119699399</v>
+        <v>141536.9717032732</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6090,22 +6128,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="C143" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="D143" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="E143" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="F143" t="n">
-        <v>751.3911000000001</v>
+        <v>4919.3706</v>
       </c>
       <c r="G143" t="n">
-        <v>161210.8119699399</v>
+        <v>146456.3423032732</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6130,22 +6168,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="C144" t="n">
-        <v>134.1</v>
+        <v>138.6</v>
       </c>
       <c r="D144" t="n">
-        <v>134.1</v>
+        <v>138.6</v>
       </c>
       <c r="E144" t="n">
-        <v>134.1</v>
+        <v>138</v>
       </c>
       <c r="F144" t="n">
-        <v>620.8609</v>
+        <v>4930.550166666667</v>
       </c>
       <c r="G144" t="n">
-        <v>161210.8119699399</v>
+        <v>151386.8924699399</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6170,22 +6208,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="C145" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="D145" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="E145" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="F145" t="n">
-        <v>18.7902</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>161192.0217699399</v>
+        <v>151396.8924699399</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6210,22 +6248,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>134.4</v>
+        <v>139</v>
       </c>
       <c r="C146" t="n">
-        <v>134.4</v>
+        <v>139.7</v>
       </c>
       <c r="D146" t="n">
-        <v>134.4</v>
+        <v>139.7</v>
       </c>
       <c r="E146" t="n">
-        <v>134.4</v>
+        <v>139</v>
       </c>
       <c r="F146" t="n">
-        <v>458.928</v>
+        <v>662</v>
       </c>
       <c r="G146" t="n">
-        <v>161650.9497699399</v>
+        <v>152058.8924699399</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6250,22 +6288,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="C147" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="D147" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="E147" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="F147" t="n">
-        <v>84.7443</v>
+        <v>309.8143</v>
       </c>
       <c r="G147" t="n">
-        <v>161566.2054699399</v>
+        <v>151749.0781699399</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6290,22 +6328,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="C148" t="n">
-        <v>134.2</v>
+        <v>139</v>
       </c>
       <c r="D148" t="n">
-        <v>134.2</v>
+        <v>139</v>
       </c>
       <c r="E148" t="n">
-        <v>133.3</v>
+        <v>139</v>
       </c>
       <c r="F148" t="n">
-        <v>500</v>
+        <v>65.4866</v>
       </c>
       <c r="G148" t="n">
-        <v>162066.2054699399</v>
+        <v>151749.0781699399</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6330,22 +6368,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>132.1</v>
+        <v>137.5</v>
       </c>
       <c r="C149" t="n">
-        <v>132.1</v>
+        <v>140</v>
       </c>
       <c r="D149" t="n">
-        <v>132.1</v>
+        <v>140</v>
       </c>
       <c r="E149" t="n">
-        <v>132.1</v>
+        <v>137.5</v>
       </c>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>6817.955</v>
       </c>
       <c r="G149" t="n">
-        <v>162062.2054699399</v>
+        <v>158567.0331699399</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6370,22 +6408,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>132.3</v>
+        <v>138.1</v>
       </c>
       <c r="C150" t="n">
-        <v>132.4</v>
+        <v>138.1</v>
       </c>
       <c r="D150" t="n">
-        <v>132.4</v>
+        <v>138.1</v>
       </c>
       <c r="E150" t="n">
-        <v>132.3</v>
+        <v>138.1</v>
       </c>
       <c r="F150" t="n">
-        <v>4094</v>
+        <v>2287.2311</v>
       </c>
       <c r="G150" t="n">
-        <v>166156.2054699399</v>
+        <v>156279.8020699398</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6410,22 +6448,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>133.2</v>
+        <v>138.1</v>
       </c>
       <c r="C151" t="n">
-        <v>133.2</v>
+        <v>140</v>
       </c>
       <c r="D151" t="n">
-        <v>133.2</v>
+        <v>140</v>
       </c>
       <c r="E151" t="n">
-        <v>133.2</v>
+        <v>138.1</v>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>3000</v>
       </c>
       <c r="G151" t="n">
-        <v>167906.2054699399</v>
+        <v>159279.8020699398</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6450,22 +6488,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>133.2</v>
+        <v>138.1</v>
       </c>
       <c r="C152" t="n">
-        <v>133.2</v>
+        <v>138.1</v>
       </c>
       <c r="D152" t="n">
-        <v>133.2</v>
+        <v>138.1</v>
       </c>
       <c r="E152" t="n">
-        <v>133.2</v>
+        <v>138.1</v>
       </c>
       <c r="F152" t="n">
-        <v>1950</v>
+        <v>1384.3072</v>
       </c>
       <c r="G152" t="n">
-        <v>167906.2054699399</v>
+        <v>157895.4948699398</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6490,22 +6528,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>134.2</v>
+        <v>138</v>
       </c>
       <c r="C153" t="n">
-        <v>134.4</v>
+        <v>137.2</v>
       </c>
       <c r="D153" t="n">
-        <v>134.4</v>
+        <v>138</v>
       </c>
       <c r="E153" t="n">
-        <v>134.2</v>
+        <v>137.2</v>
       </c>
       <c r="F153" t="n">
-        <v>4980.899</v>
+        <v>1507.9274</v>
       </c>
       <c r="G153" t="n">
-        <v>172887.1044699399</v>
+        <v>156387.5674699399</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6530,22 +6568,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>133.3</v>
+        <v>136.8</v>
       </c>
       <c r="C154" t="n">
-        <v>133.3</v>
+        <v>136</v>
       </c>
       <c r="D154" t="n">
-        <v>133.3</v>
+        <v>136.8</v>
       </c>
       <c r="E154" t="n">
-        <v>133.3</v>
+        <v>136</v>
       </c>
       <c r="F154" t="n">
-        <v>2650.5712</v>
+        <v>804.8927</v>
       </c>
       <c r="G154" t="n">
-        <v>170236.5332699399</v>
+        <v>155582.6747699399</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6570,22 +6608,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="C155" t="n">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="D155" t="n">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="E155" t="n">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="F155" t="n">
-        <v>1710.0866</v>
+        <v>91</v>
       </c>
       <c r="G155" t="n">
-        <v>171946.6198699399</v>
+        <v>155673.6747699399</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6610,22 +6648,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>133.3</v>
+        <v>137</v>
       </c>
       <c r="C156" t="n">
-        <v>133.3</v>
+        <v>137</v>
       </c>
       <c r="D156" t="n">
-        <v>133.3</v>
+        <v>137</v>
       </c>
       <c r="E156" t="n">
-        <v>133.3</v>
+        <v>137</v>
       </c>
       <c r="F156" t="n">
-        <v>2628.6758</v>
+        <v>30</v>
       </c>
       <c r="G156" t="n">
-        <v>169317.9440699399</v>
+        <v>155673.6747699399</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6650,22 +6688,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="C157" t="n">
-        <v>133.4</v>
+        <v>137.7</v>
       </c>
       <c r="D157" t="n">
-        <v>133.4</v>
+        <v>137.7</v>
       </c>
       <c r="E157" t="n">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>1385</v>
       </c>
       <c r="G157" t="n">
-        <v>169567.9440699399</v>
+        <v>157058.6747699399</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6690,22 +6728,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>133.4</v>
+        <v>137.7</v>
       </c>
       <c r="C158" t="n">
-        <v>133.4</v>
+        <v>138</v>
       </c>
       <c r="D158" t="n">
-        <v>133.4</v>
+        <v>138</v>
       </c>
       <c r="E158" t="n">
-        <v>133.4</v>
+        <v>137.7</v>
       </c>
       <c r="F158" t="n">
-        <v>164.7105</v>
+        <v>2302.3914</v>
       </c>
       <c r="G158" t="n">
-        <v>169567.9440699399</v>
+        <v>159361.0661699398</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6730,22 +6768,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>133.4</v>
+        <v>136.5</v>
       </c>
       <c r="C159" t="n">
-        <v>133.4</v>
+        <v>136.5</v>
       </c>
       <c r="D159" t="n">
-        <v>133.4</v>
+        <v>136.5</v>
       </c>
       <c r="E159" t="n">
-        <v>133.4</v>
+        <v>136.5</v>
       </c>
       <c r="F159" t="n">
-        <v>100.83</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="n">
-        <v>169567.9440699399</v>
+        <v>157361.0661699398</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6770,22 +6808,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>133.4</v>
+        <v>137.9</v>
       </c>
       <c r="C160" t="n">
-        <v>133.5</v>
+        <v>138</v>
       </c>
       <c r="D160" t="n">
-        <v>133.5</v>
+        <v>138</v>
       </c>
       <c r="E160" t="n">
-        <v>133.4</v>
+        <v>137.9</v>
       </c>
       <c r="F160" t="n">
-        <v>1750</v>
+        <v>2001</v>
       </c>
       <c r="G160" t="n">
-        <v>171317.9440699399</v>
+        <v>159362.0661699398</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6810,22 +6848,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>133.5</v>
+        <v>136.6</v>
       </c>
       <c r="C161" t="n">
-        <v>133.6</v>
+        <v>136.6</v>
       </c>
       <c r="D161" t="n">
-        <v>134.4</v>
+        <v>136.6</v>
       </c>
       <c r="E161" t="n">
-        <v>133.5</v>
+        <v>136.6</v>
       </c>
       <c r="F161" t="n">
-        <v>2821.6891</v>
+        <v>54.0539</v>
       </c>
       <c r="G161" t="n">
-        <v>174139.6331699399</v>
+        <v>159308.0122699398</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6850,22 +6888,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>133.6</v>
+        <v>136.6</v>
       </c>
       <c r="C162" t="n">
-        <v>134.3</v>
+        <v>136.6</v>
       </c>
       <c r="D162" t="n">
-        <v>134.3</v>
+        <v>136.6</v>
       </c>
       <c r="E162" t="n">
-        <v>133.6</v>
+        <v>136.6</v>
       </c>
       <c r="F162" t="n">
-        <v>528</v>
+        <v>7.1297</v>
       </c>
       <c r="G162" t="n">
-        <v>174667.6331699399</v>
+        <v>159308.0122699398</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6890,22 +6928,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>133.4</v>
+        <v>136</v>
       </c>
       <c r="C163" t="n">
-        <v>133.4</v>
+        <v>136</v>
       </c>
       <c r="D163" t="n">
-        <v>133.4</v>
+        <v>136</v>
       </c>
       <c r="E163" t="n">
-        <v>133.4</v>
+        <v>136</v>
       </c>
       <c r="F163" t="n">
-        <v>120</v>
+        <v>31.7252</v>
       </c>
       <c r="G163" t="n">
-        <v>174547.6331699399</v>
+        <v>159276.2870699399</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6930,22 +6968,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>134.3</v>
+        <v>135.2</v>
       </c>
       <c r="C164" t="n">
-        <v>134.3</v>
+        <v>135.2</v>
       </c>
       <c r="D164" t="n">
-        <v>134.3</v>
+        <v>135.4</v>
       </c>
       <c r="E164" t="n">
-        <v>134.3</v>
+        <v>135.2</v>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>6265.581</v>
       </c>
       <c r="G164" t="n">
-        <v>175047.6331699399</v>
+        <v>153010.7060699399</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6970,22 +7008,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="C165" t="n">
-        <v>134.5</v>
+        <v>134.2</v>
       </c>
       <c r="D165" t="n">
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="E165" t="n">
         <v>134.2</v>
       </c>
       <c r="F165" t="n">
-        <v>750</v>
+        <v>2705.3565</v>
       </c>
       <c r="G165" t="n">
-        <v>175797.6331699399</v>
+        <v>150305.3495699399</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7010,22 +7048,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="C166" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="D166" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="E166" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="F166" t="n">
-        <v>37</v>
+        <v>802.8798</v>
       </c>
       <c r="G166" t="n">
-        <v>175797.6331699399</v>
+        <v>149502.4697699399</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7050,22 +7088,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="C167" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="D167" t="n">
-        <v>134.5</v>
+        <v>134.7</v>
       </c>
       <c r="E167" t="n">
-        <v>134.5</v>
+        <v>133.8</v>
       </c>
       <c r="F167" t="n">
-        <v>5366.6438</v>
+        <v>2051.3045</v>
       </c>
       <c r="G167" t="n">
-        <v>175797.6331699399</v>
+        <v>149502.4697699399</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7090,22 +7128,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>134.7</v>
+        <v>134</v>
       </c>
       <c r="C168" t="n">
-        <v>134.7</v>
+        <v>133</v>
       </c>
       <c r="D168" t="n">
-        <v>134.7</v>
+        <v>134</v>
       </c>
       <c r="E168" t="n">
-        <v>134.7</v>
+        <v>133</v>
       </c>
       <c r="F168" t="n">
-        <v>4</v>
+        <v>8626.289000000001</v>
       </c>
       <c r="G168" t="n">
-        <v>175801.6331699399</v>
+        <v>140876.1807699399</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7130,22 +7168,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>134.7</v>
+        <v>133</v>
       </c>
       <c r="C169" t="n">
-        <v>134.8</v>
+        <v>133</v>
       </c>
       <c r="D169" t="n">
-        <v>134.8</v>
+        <v>133</v>
       </c>
       <c r="E169" t="n">
-        <v>134.7</v>
+        <v>133</v>
       </c>
       <c r="F169" t="n">
-        <v>3200</v>
+        <v>888.2546</v>
       </c>
       <c r="G169" t="n">
-        <v>179001.6331699399</v>
+        <v>140876.1807699399</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7170,22 +7208,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>134.8</v>
+        <v>134.3</v>
       </c>
       <c r="C170" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="D170" t="n">
-        <v>134.8</v>
+        <v>134.3</v>
       </c>
       <c r="E170" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>2041.3983</v>
       </c>
       <c r="G170" t="n">
-        <v>179001.6331699399</v>
+        <v>142917.5790699399</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7210,22 +7248,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="C171" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="D171" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="E171" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="F171" t="n">
-        <v>1500</v>
+        <v>108.7977</v>
       </c>
       <c r="G171" t="n">
-        <v>179001.6331699399</v>
+        <v>142917.5790699399</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7250,22 +7288,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="C172" t="n">
-        <v>134.8</v>
+        <v>132</v>
       </c>
       <c r="D172" t="n">
-        <v>134.8</v>
+        <v>133.1</v>
       </c>
       <c r="E172" t="n">
-        <v>134.8</v>
+        <v>132</v>
       </c>
       <c r="F172" t="n">
-        <v>750</v>
+        <v>362.0831</v>
       </c>
       <c r="G172" t="n">
-        <v>179001.6331699399</v>
+        <v>142555.4959699399</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7290,22 +7328,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>134.8</v>
+        <v>132.9</v>
       </c>
       <c r="C173" t="n">
-        <v>134.9</v>
+        <v>132.9</v>
       </c>
       <c r="D173" t="n">
-        <v>134.9</v>
+        <v>132.9</v>
       </c>
       <c r="E173" t="n">
-        <v>134.8</v>
+        <v>132.9</v>
       </c>
       <c r="F173" t="n">
-        <v>6500</v>
+        <v>11890.2049</v>
       </c>
       <c r="G173" t="n">
-        <v>185501.6331699399</v>
+        <v>154445.7008699399</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7330,22 +7368,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="C174" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="D174" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="E174" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="F174" t="n">
-        <v>750</v>
+        <v>7217.5499</v>
       </c>
       <c r="G174" t="n">
-        <v>185501.6331699399</v>
+        <v>161663.2507699399</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7370,22 +7408,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="C175" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D175" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E175" t="n">
-        <v>134.9</v>
+        <v>133</v>
       </c>
       <c r="F175" t="n">
-        <v>13558</v>
+        <v>500</v>
       </c>
       <c r="G175" t="n">
-        <v>199059.6331699399</v>
+        <v>161663.2507699399</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7410,22 +7448,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C176" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D176" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E176" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="n">
-        <v>199059.6331699399</v>
+        <v>161663.2507699399</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7450,22 +7488,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C177" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D177" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E177" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F177" t="n">
-        <v>280</v>
+        <v>8012.0328</v>
       </c>
       <c r="G177" t="n">
-        <v>199059.6331699399</v>
+        <v>161663.2507699399</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7490,22 +7528,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C178" t="n">
-        <v>135.1</v>
+        <v>134.4</v>
       </c>
       <c r="D178" t="n">
-        <v>135.1</v>
+        <v>134.4</v>
       </c>
       <c r="E178" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F178" t="n">
-        <v>15065.75</v>
+        <v>16024</v>
       </c>
       <c r="G178" t="n">
-        <v>214125.3831699399</v>
+        <v>177687.2507699399</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7530,22 +7568,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>135.9</v>
+        <v>132.9</v>
       </c>
       <c r="C179" t="n">
-        <v>136.1</v>
+        <v>132.9</v>
       </c>
       <c r="D179" t="n">
-        <v>136.1</v>
+        <v>132.9</v>
       </c>
       <c r="E179" t="n">
-        <v>135.9</v>
+        <v>132.9</v>
       </c>
       <c r="F179" t="n">
-        <v>7620</v>
+        <v>402.5572</v>
       </c>
       <c r="G179" t="n">
-        <v>221745.3831699399</v>
+        <v>177284.6935699399</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7570,22 +7608,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>136.1</v>
+        <v>132.9</v>
       </c>
       <c r="C180" t="n">
-        <v>136.1</v>
+        <v>130.5</v>
       </c>
       <c r="D180" t="n">
-        <v>136.1</v>
+        <v>132.9</v>
       </c>
       <c r="E180" t="n">
-        <v>136.1</v>
+        <v>130.5</v>
       </c>
       <c r="F180" t="n">
-        <v>750</v>
+        <v>23925.7234</v>
       </c>
       <c r="G180" t="n">
-        <v>221745.3831699399</v>
+        <v>153358.9701699399</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7610,22 +7648,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>136.1</v>
+        <v>131</v>
       </c>
       <c r="C181" t="n">
-        <v>137</v>
+        <v>130.7</v>
       </c>
       <c r="D181" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E181" t="n">
-        <v>136.1</v>
+        <v>130.7</v>
       </c>
       <c r="F181" t="n">
-        <v>4010</v>
+        <v>176.8289</v>
       </c>
       <c r="G181" t="n">
-        <v>225755.3831699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7650,22 +7688,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>135.3</v>
+        <v>130.1</v>
       </c>
       <c r="C182" t="n">
-        <v>135.3</v>
+        <v>130.7</v>
       </c>
       <c r="D182" t="n">
-        <v>135.3</v>
+        <v>130.7</v>
       </c>
       <c r="E182" t="n">
-        <v>135.3</v>
+        <v>130.1</v>
       </c>
       <c r="F182" t="n">
-        <v>307.6939</v>
+        <v>15903.511</v>
       </c>
       <c r="G182" t="n">
-        <v>225447.6892699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7690,22 +7728,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>136.7</v>
+        <v>130.7</v>
       </c>
       <c r="C183" t="n">
-        <v>136.7</v>
+        <v>130.7</v>
       </c>
       <c r="D183" t="n">
-        <v>136.7</v>
+        <v>130.7</v>
       </c>
       <c r="E183" t="n">
-        <v>136.7</v>
+        <v>130.7</v>
       </c>
       <c r="F183" t="n">
-        <v>889.2319</v>
+        <v>9223.1805</v>
       </c>
       <c r="G183" t="n">
-        <v>226336.9211699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7730,22 +7768,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>137</v>
+        <v>130.7</v>
       </c>
       <c r="C184" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="D184" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="E184" t="n">
-        <v>137</v>
+        <v>130.7</v>
       </c>
       <c r="F184" t="n">
-        <v>975.8448</v>
+        <v>520.2972</v>
       </c>
       <c r="G184" t="n">
-        <v>227312.7659699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7770,22 +7808,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="C185" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="D185" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="E185" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="F185" t="n">
-        <v>400.12</v>
+        <v>500</v>
       </c>
       <c r="G185" t="n">
-        <v>227312.7659699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7810,22 +7848,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="C186" t="n">
-        <v>140</v>
+        <v>130.7</v>
       </c>
       <c r="D186" t="n">
-        <v>140</v>
+        <v>130.7</v>
       </c>
       <c r="E186" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="F186" t="n">
-        <v>11920</v>
+        <v>250</v>
       </c>
       <c r="G186" t="n">
-        <v>239232.7659699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7850,37 +7888,39 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="C187" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="D187" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="E187" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="F187" t="n">
-        <v>106.86</v>
+        <v>87.9726</v>
       </c>
       <c r="G187" t="n">
-        <v>239125.9059699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
       <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -7888,32 +7928,36 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="C188" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="D188" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="E188" t="n">
-        <v>138</v>
+        <v>130.7</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1623</v>
+        <v>30.2486</v>
       </c>
       <c r="G188" t="n">
-        <v>239125.9059699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7924,32 +7968,36 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="C189" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="D189" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="E189" t="n">
-        <v>137.9</v>
+        <v>130.5</v>
       </c>
       <c r="F189" t="n">
-        <v>873.7566</v>
+        <v>5195.4007</v>
       </c>
       <c r="G189" t="n">
-        <v>238252.1493699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7960,32 +8008,36 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="C190" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="D190" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="E190" t="n">
-        <v>137.9</v>
+        <v>130.7</v>
       </c>
       <c r="F190" t="n">
-        <v>22.2192</v>
+        <v>14700.5264</v>
       </c>
       <c r="G190" t="n">
-        <v>238252.1493699399</v>
+        <v>153535.7990699399</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7996,32 +8048,36 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>135.6</v>
+        <v>130.7</v>
       </c>
       <c r="C191" t="n">
-        <v>135.6</v>
+        <v>132.7</v>
       </c>
       <c r="D191" t="n">
-        <v>135.6</v>
+        <v>132.7</v>
       </c>
       <c r="E191" t="n">
-        <v>135.6</v>
+        <v>130.7</v>
       </c>
       <c r="F191" t="n">
-        <v>4749.2274</v>
+        <v>6014.15</v>
       </c>
       <c r="G191" t="n">
-        <v>233502.9219699399</v>
+        <v>159549.9490699399</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8032,32 +8088,36 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>135.5</v>
+        <v>132.5</v>
       </c>
       <c r="C192" t="n">
-        <v>135.5</v>
+        <v>132.7</v>
       </c>
       <c r="D192" t="n">
-        <v>135.5</v>
+        <v>132.7</v>
       </c>
       <c r="E192" t="n">
-        <v>135.5</v>
+        <v>132.5</v>
       </c>
       <c r="F192" t="n">
-        <v>565</v>
+        <v>417.7132</v>
       </c>
       <c r="G192" t="n">
-        <v>232937.9219699399</v>
+        <v>159549.9490699399</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8068,32 +8128,36 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>136.9</v>
+        <v>131.2</v>
       </c>
       <c r="C193" t="n">
-        <v>135.6</v>
+        <v>130.1</v>
       </c>
       <c r="D193" t="n">
-        <v>136.9</v>
+        <v>131.2</v>
       </c>
       <c r="E193" t="n">
-        <v>134.7</v>
+        <v>130.1</v>
       </c>
       <c r="F193" t="n">
-        <v>5120.4032</v>
+        <v>3937.999</v>
       </c>
       <c r="G193" t="n">
-        <v>238058.3251699399</v>
+        <v>155611.9500699399</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8104,22 +8168,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C194" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D194" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E194" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F194" t="n">
-        <v>5264.3494</v>
+        <v>210.0379</v>
       </c>
       <c r="G194" t="n">
-        <v>232793.9757699399</v>
+        <v>155821.9879699399</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8129,7 +8193,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8140,32 +8208,36 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>137.7</v>
+        <v>132</v>
       </c>
       <c r="C195" t="n">
-        <v>137.7</v>
+        <v>132</v>
       </c>
       <c r="D195" t="n">
-        <v>137.7</v>
+        <v>132</v>
       </c>
       <c r="E195" t="n">
-        <v>137.7</v>
+        <v>132</v>
       </c>
       <c r="F195" t="n">
-        <v>4</v>
+        <v>4.1522</v>
       </c>
       <c r="G195" t="n">
-        <v>232797.9757699399</v>
+        <v>155821.9879699399</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8176,22 +8248,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="C196" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D196" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="E196" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F196" t="n">
-        <v>247.2531</v>
+        <v>44.463</v>
       </c>
       <c r="G196" t="n">
-        <v>232550.7226699399</v>
+        <v>155821.9879699399</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8201,7 +8273,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8212,32 +8288,36 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>135</v>
+        <v>132.7</v>
       </c>
       <c r="C197" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="D197" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="E197" t="n">
-        <v>135</v>
+        <v>132.7</v>
       </c>
       <c r="F197" t="n">
-        <v>648.148</v>
+        <v>600</v>
       </c>
       <c r="G197" t="n">
-        <v>232550.7226699399</v>
+        <v>156421.9879699399</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8248,22 +8328,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="C198" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="D198" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="E198" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="F198" t="n">
-        <v>1479.5443</v>
+        <v>28.6157</v>
       </c>
       <c r="G198" t="n">
-        <v>232550.7226699399</v>
+        <v>156421.9879699399</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8273,7 +8353,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8284,22 +8368,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="C199" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="D199" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="E199" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="F199" t="n">
-        <v>23.1919</v>
+        <v>122.75</v>
       </c>
       <c r="G199" t="n">
-        <v>232550.7226699399</v>
+        <v>156421.9879699399</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8309,7 +8393,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8320,22 +8408,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="C200" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="D200" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="E200" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="F200" t="n">
-        <v>0.802</v>
+        <v>46.8934</v>
       </c>
       <c r="G200" t="n">
-        <v>232550.7226699399</v>
+        <v>156421.9879699399</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8345,7 +8433,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8356,22 +8448,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="C201" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="D201" t="n">
-        <v>136</v>
+        <v>132.7</v>
       </c>
       <c r="E201" t="n">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="F201" t="n">
-        <v>131.4942</v>
+        <v>690.814</v>
       </c>
       <c r="G201" t="n">
-        <v>232550.7226699399</v>
+        <v>156421.9879699399</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8381,7 +8473,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8392,22 +8488,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>136</v>
+        <v>133.3</v>
       </c>
       <c r="C202" t="n">
-        <v>136</v>
+        <v>133.3</v>
       </c>
       <c r="D202" t="n">
-        <v>136</v>
+        <v>133.3</v>
       </c>
       <c r="E202" t="n">
-        <v>136</v>
+        <v>133.3</v>
       </c>
       <c r="F202" t="n">
-        <v>178.4231</v>
+        <v>948.0115</v>
       </c>
       <c r="G202" t="n">
-        <v>232550.7226699399</v>
+        <v>157369.9994699399</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8417,7 +8513,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8428,22 +8528,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>137</v>
+        <v>133.4</v>
       </c>
       <c r="C203" t="n">
-        <v>140</v>
+        <v>133.4</v>
       </c>
       <c r="D203" t="n">
-        <v>140</v>
+        <v>133.4</v>
       </c>
       <c r="E203" t="n">
-        <v>137</v>
+        <v>133.4</v>
       </c>
       <c r="F203" t="n">
-        <v>8787.366275857143</v>
+        <v>790.1209</v>
       </c>
       <c r="G203" t="n">
-        <v>241338.0889457971</v>
+        <v>158160.1203699399</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8453,7 +8553,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8464,22 +8568,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>138.2</v>
+        <v>132.9</v>
       </c>
       <c r="C204" t="n">
-        <v>138.3</v>
+        <v>133.7</v>
       </c>
       <c r="D204" t="n">
-        <v>138.3</v>
+        <v>133.7</v>
       </c>
       <c r="E204" t="n">
-        <v>138.2</v>
+        <v>130.8</v>
       </c>
       <c r="F204" t="n">
-        <v>3000</v>
+        <v>1812.6916</v>
       </c>
       <c r="G204" t="n">
-        <v>238338.0889457971</v>
+        <v>159972.8119699399</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8489,7 +8593,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8500,32 +8608,36 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>139</v>
+        <v>133.8</v>
       </c>
       <c r="C205" t="n">
-        <v>139</v>
+        <v>133.8</v>
       </c>
       <c r="D205" t="n">
-        <v>139</v>
+        <v>133.8</v>
       </c>
       <c r="E205" t="n">
-        <v>139</v>
+        <v>133.8</v>
       </c>
       <c r="F205" t="n">
-        <v>155.1007194244604</v>
+        <v>450</v>
       </c>
       <c r="G205" t="n">
-        <v>238493.1896652215</v>
+        <v>160422.8119699399</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8536,32 +8648,36 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="C206" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="D206" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="E206" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="F206" t="n">
-        <v>155.1079136690647</v>
+        <v>788</v>
       </c>
       <c r="G206" t="n">
-        <v>238493.1896652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8572,32 +8688,36 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="C207" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="D207" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="E207" t="n">
-        <v>139</v>
+        <v>134.1</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>1247.6098</v>
       </c>
       <c r="G207" t="n">
-        <v>238493.1896652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8608,32 +8728,36 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>138.8</v>
+        <v>134.1</v>
       </c>
       <c r="C208" t="n">
-        <v>138.8</v>
+        <v>134.1</v>
       </c>
       <c r="D208" t="n">
-        <v>138.8</v>
+        <v>134.1</v>
       </c>
       <c r="E208" t="n">
-        <v>138.8</v>
+        <v>134.1</v>
       </c>
       <c r="F208" t="n">
-        <v>16796.4871</v>
+        <v>192.7108</v>
       </c>
       <c r="G208" t="n">
-        <v>221696.7025652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8644,32 +8768,36 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C209" t="n">
-        <v>137.4</v>
+        <v>134.1</v>
       </c>
       <c r="D209" t="n">
-        <v>138</v>
+        <v>134.1</v>
       </c>
       <c r="E209" t="n">
-        <v>137.4</v>
+        <v>134</v>
       </c>
       <c r="F209" t="n">
-        <v>616.8009</v>
+        <v>9836.1908</v>
       </c>
       <c r="G209" t="n">
-        <v>221079.9016652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8680,32 +8808,36 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>137.5</v>
+        <v>134.1</v>
       </c>
       <c r="C210" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="D210" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="E210" t="n">
-        <v>137.5</v>
+        <v>134.1</v>
       </c>
       <c r="F210" t="n">
-        <v>7776.3725</v>
+        <v>176.1611</v>
       </c>
       <c r="G210" t="n">
-        <v>228856.2741652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8716,32 +8848,36 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="C211" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="D211" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="E211" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="F211" t="n">
-        <v>1400</v>
+        <v>288.4603</v>
       </c>
       <c r="G211" t="n">
-        <v>228856.2741652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8752,32 +8888,36 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="C212" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="D212" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="E212" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="F212" t="n">
-        <v>4523</v>
+        <v>163.0429</v>
       </c>
       <c r="G212" t="n">
-        <v>228856.2741652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8788,36 +8928,2750 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="C213" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="D213" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="E213" t="n">
-        <v>137.9</v>
+        <v>134.1</v>
       </c>
       <c r="F213" t="n">
-        <v>1248.2755</v>
+        <v>1292.4635</v>
       </c>
       <c r="G213" t="n">
-        <v>228856.2741652215</v>
+        <v>161210.8119699399</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
       <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>751.3911000000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>161210.8119699399</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>620.8609</v>
+      </c>
+      <c r="G215" t="n">
+        <v>161210.8119699399</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>18.7902</v>
+      </c>
+      <c r="G216" t="n">
+        <v>161192.0217699399</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="D217" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="E217" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>458.928</v>
+      </c>
+      <c r="G217" t="n">
+        <v>161650.9497699399</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>84.7443</v>
+      </c>
+      <c r="G218" t="n">
+        <v>161566.2054699399</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="E219" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>500</v>
+      </c>
+      <c r="G219" t="n">
+        <v>162066.2054699399</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4</v>
+      </c>
+      <c r="G220" t="n">
+        <v>162062.2054699399</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="C221" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4094</v>
+      </c>
+      <c r="G221" t="n">
+        <v>166156.2054699399</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G222" t="n">
+        <v>167906.2054699399</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G223" t="n">
+        <v>167906.2054699399</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="E224" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4980.899</v>
+      </c>
+      <c r="G224" t="n">
+        <v>172887.1044699399</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E225" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2650.5712</v>
+      </c>
+      <c r="G225" t="n">
+        <v>170236.5332699399</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="E226" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1710.0866</v>
+      </c>
+      <c r="G226" t="n">
+        <v>171946.6198699399</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2628.6758</v>
+      </c>
+      <c r="G227" t="n">
+        <v>169317.9440699399</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C228" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="D228" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="E228" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F228" t="n">
+        <v>250</v>
+      </c>
+      <c r="G228" t="n">
+        <v>169567.9440699399</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C229" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="E229" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F229" t="n">
+        <v>164.7105</v>
+      </c>
+      <c r="G229" t="n">
+        <v>169567.9440699399</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F230" t="n">
+        <v>100.83</v>
+      </c>
+      <c r="G230" t="n">
+        <v>169567.9440699399</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C231" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G231" t="n">
+        <v>171317.9440699399</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="C232" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="E232" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2821.6891</v>
+      </c>
+      <c r="G232" t="n">
+        <v>174139.6331699399</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C233" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="E233" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="F233" t="n">
+        <v>528</v>
+      </c>
+      <c r="G233" t="n">
+        <v>174667.6331699399</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="E234" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F234" t="n">
+        <v>120</v>
+      </c>
+      <c r="G234" t="n">
+        <v>174547.6331699399</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="C235" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>500</v>
+      </c>
+      <c r="G235" t="n">
+        <v>175047.6331699399</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C236" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E236" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>750</v>
+      </c>
+      <c r="G236" t="n">
+        <v>175797.6331699399</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C237" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E237" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>37</v>
+      </c>
+      <c r="G237" t="n">
+        <v>175797.6331699399</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>5366.6438</v>
+      </c>
+      <c r="G238" t="n">
+        <v>175797.6331699399</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C239" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="F239" t="n">
+        <v>4</v>
+      </c>
+      <c r="G239" t="n">
+        <v>175801.6331699399</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G240" t="n">
+        <v>179001.6331699399</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>250</v>
+      </c>
+      <c r="G241" t="n">
+        <v>179001.6331699399</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G242" t="n">
+        <v>179001.6331699399</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="C243" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="E243" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F243" t="n">
+        <v>750</v>
+      </c>
+      <c r="G243" t="n">
+        <v>179001.6331699399</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="C244" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D244" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E244" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G244" t="n">
+        <v>185501.6331699399</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F245" t="n">
+        <v>750</v>
+      </c>
+      <c r="G245" t="n">
+        <v>185501.6331699399</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>135</v>
+      </c>
+      <c r="D246" t="n">
+        <v>135</v>
+      </c>
+      <c r="E246" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13558</v>
+      </c>
+      <c r="G246" t="n">
+        <v>199059.6331699399</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>135</v>
+      </c>
+      <c r="C247" t="n">
+        <v>135</v>
+      </c>
+      <c r="D247" t="n">
+        <v>135</v>
+      </c>
+      <c r="E247" t="n">
+        <v>135</v>
+      </c>
+      <c r="F247" t="n">
+        <v>250</v>
+      </c>
+      <c r="G247" t="n">
+        <v>199059.6331699399</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>135</v>
+      </c>
+      <c r="C248" t="n">
+        <v>135</v>
+      </c>
+      <c r="D248" t="n">
+        <v>135</v>
+      </c>
+      <c r="E248" t="n">
+        <v>135</v>
+      </c>
+      <c r="F248" t="n">
+        <v>280</v>
+      </c>
+      <c r="G248" t="n">
+        <v>199059.6331699399</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>135</v>
+      </c>
+      <c r="C249" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="E249" t="n">
+        <v>135</v>
+      </c>
+      <c r="F249" t="n">
+        <v>15065.75</v>
+      </c>
+      <c r="G249" t="n">
+        <v>214125.3831699399</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="C250" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="F250" t="n">
+        <v>7620</v>
+      </c>
+      <c r="G250" t="n">
+        <v>221745.3831699399</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>750</v>
+      </c>
+      <c r="G251" t="n">
+        <v>221745.3831699399</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>137</v>
+      </c>
+      <c r="D252" t="n">
+        <v>137</v>
+      </c>
+      <c r="E252" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G252" t="n">
+        <v>225755.3831699399</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="C253" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="E253" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="F253" t="n">
+        <v>307.6939</v>
+      </c>
+      <c r="G253" t="n">
+        <v>225447.6892699399</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="C254" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="D254" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="E254" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="F254" t="n">
+        <v>889.2319</v>
+      </c>
+      <c r="G254" t="n">
+        <v>226336.9211699399</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>137</v>
+      </c>
+      <c r="C255" t="n">
+        <v>138</v>
+      </c>
+      <c r="D255" t="n">
+        <v>138</v>
+      </c>
+      <c r="E255" t="n">
+        <v>137</v>
+      </c>
+      <c r="F255" t="n">
+        <v>975.8448</v>
+      </c>
+      <c r="G255" t="n">
+        <v>227312.7659699399</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>138</v>
+      </c>
+      <c r="C256" t="n">
+        <v>138</v>
+      </c>
+      <c r="D256" t="n">
+        <v>138</v>
+      </c>
+      <c r="E256" t="n">
+        <v>138</v>
+      </c>
+      <c r="F256" t="n">
+        <v>400.12</v>
+      </c>
+      <c r="G256" t="n">
+        <v>227312.7659699399</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>138</v>
+      </c>
+      <c r="C257" t="n">
+        <v>140</v>
+      </c>
+      <c r="D257" t="n">
+        <v>140</v>
+      </c>
+      <c r="E257" t="n">
+        <v>138</v>
+      </c>
+      <c r="F257" t="n">
+        <v>11920</v>
+      </c>
+      <c r="G257" t="n">
+        <v>239232.7659699399</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>138</v>
+      </c>
+      <c r="C258" t="n">
+        <v>138</v>
+      </c>
+      <c r="D258" t="n">
+        <v>138</v>
+      </c>
+      <c r="E258" t="n">
+        <v>138</v>
+      </c>
+      <c r="F258" t="n">
+        <v>106.86</v>
+      </c>
+      <c r="G258" t="n">
+        <v>239125.9059699399</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>138</v>
+      </c>
+      <c r="C259" t="n">
+        <v>138</v>
+      </c>
+      <c r="D259" t="n">
+        <v>138</v>
+      </c>
+      <c r="E259" t="n">
+        <v>138</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.1623</v>
+      </c>
+      <c r="G259" t="n">
+        <v>239125.9059699399</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C260" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E260" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F260" t="n">
+        <v>873.7566</v>
+      </c>
+      <c r="G260" t="n">
+        <v>238252.1493699399</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C261" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D261" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E261" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F261" t="n">
+        <v>22.2192</v>
+      </c>
+      <c r="G261" t="n">
+        <v>238252.1493699399</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="C262" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="E262" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F262" t="n">
+        <v>4749.2274</v>
+      </c>
+      <c r="G262" t="n">
+        <v>233502.9219699399</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>565</v>
+      </c>
+      <c r="G263" t="n">
+        <v>232937.9219699399</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="C264" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="E264" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="F264" t="n">
+        <v>5120.4032</v>
+      </c>
+      <c r="G264" t="n">
+        <v>238058.3251699399</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>136</v>
+      </c>
+      <c r="C265" t="n">
+        <v>135</v>
+      </c>
+      <c r="D265" t="n">
+        <v>136</v>
+      </c>
+      <c r="E265" t="n">
+        <v>135</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5264.3494</v>
+      </c>
+      <c r="G265" t="n">
+        <v>232793.9757699399</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="C266" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D266" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="E266" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" t="n">
+        <v>232797.9757699399</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>136</v>
+      </c>
+      <c r="C267" t="n">
+        <v>136</v>
+      </c>
+      <c r="D267" t="n">
+        <v>136</v>
+      </c>
+      <c r="E267" t="n">
+        <v>136</v>
+      </c>
+      <c r="F267" t="n">
+        <v>247.2531</v>
+      </c>
+      <c r="G267" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>135</v>
+      </c>
+      <c r="C268" t="n">
+        <v>136</v>
+      </c>
+      <c r="D268" t="n">
+        <v>136</v>
+      </c>
+      <c r="E268" t="n">
+        <v>135</v>
+      </c>
+      <c r="F268" t="n">
+        <v>648.148</v>
+      </c>
+      <c r="G268" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>136</v>
+      </c>
+      <c r="C269" t="n">
+        <v>136</v>
+      </c>
+      <c r="D269" t="n">
+        <v>136</v>
+      </c>
+      <c r="E269" t="n">
+        <v>136</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1479.5443</v>
+      </c>
+      <c r="G269" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>136</v>
+      </c>
+      <c r="C270" t="n">
+        <v>136</v>
+      </c>
+      <c r="D270" t="n">
+        <v>136</v>
+      </c>
+      <c r="E270" t="n">
+        <v>136</v>
+      </c>
+      <c r="F270" t="n">
+        <v>23.1919</v>
+      </c>
+      <c r="G270" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>136</v>
+      </c>
+      <c r="C271" t="n">
+        <v>136</v>
+      </c>
+      <c r="D271" t="n">
+        <v>136</v>
+      </c>
+      <c r="E271" t="n">
+        <v>136</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G271" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>136</v>
+      </c>
+      <c r="C272" t="n">
+        <v>136</v>
+      </c>
+      <c r="D272" t="n">
+        <v>136</v>
+      </c>
+      <c r="E272" t="n">
+        <v>136</v>
+      </c>
+      <c r="F272" t="n">
+        <v>131.4942</v>
+      </c>
+      <c r="G272" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>136</v>
+      </c>
+      <c r="C273" t="n">
+        <v>136</v>
+      </c>
+      <c r="D273" t="n">
+        <v>136</v>
+      </c>
+      <c r="E273" t="n">
+        <v>136</v>
+      </c>
+      <c r="F273" t="n">
+        <v>178.4231</v>
+      </c>
+      <c r="G273" t="n">
+        <v>232550.7226699399</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>137</v>
+      </c>
+      <c r="C274" t="n">
+        <v>140</v>
+      </c>
+      <c r="D274" t="n">
+        <v>140</v>
+      </c>
+      <c r="E274" t="n">
+        <v>137</v>
+      </c>
+      <c r="F274" t="n">
+        <v>8787.366275857143</v>
+      </c>
+      <c r="G274" t="n">
+        <v>241338.0889457971</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C275" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="D275" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="E275" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G275" t="n">
+        <v>238338.0889457971</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>139</v>
+      </c>
+      <c r="C276" t="n">
+        <v>139</v>
+      </c>
+      <c r="D276" t="n">
+        <v>139</v>
+      </c>
+      <c r="E276" t="n">
+        <v>139</v>
+      </c>
+      <c r="F276" t="n">
+        <v>155.1007194244604</v>
+      </c>
+      <c r="G276" t="n">
+        <v>238493.1896652215</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>139</v>
+      </c>
+      <c r="C277" t="n">
+        <v>139</v>
+      </c>
+      <c r="D277" t="n">
+        <v>139</v>
+      </c>
+      <c r="E277" t="n">
+        <v>139</v>
+      </c>
+      <c r="F277" t="n">
+        <v>155.1079136690647</v>
+      </c>
+      <c r="G277" t="n">
+        <v>238493.1896652215</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>139</v>
+      </c>
+      <c r="C278" t="n">
+        <v>139</v>
+      </c>
+      <c r="D278" t="n">
+        <v>139</v>
+      </c>
+      <c r="E278" t="n">
+        <v>139</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10</v>
+      </c>
+      <c r="G278" t="n">
+        <v>238493.1896652215</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="C279" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D279" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E279" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="F279" t="n">
+        <v>16796.4871</v>
+      </c>
+      <c r="G279" t="n">
+        <v>221696.7025652215</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>138</v>
+      </c>
+      <c r="C280" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="D280" t="n">
+        <v>138</v>
+      </c>
+      <c r="E280" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="F280" t="n">
+        <v>616.8009</v>
+      </c>
+      <c r="G280" t="n">
+        <v>221079.9016652215</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C281" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D281" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="F281" t="n">
+        <v>7776.3725</v>
+      </c>
+      <c r="G281" t="n">
+        <v>228856.2741652215</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C282" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D282" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E282" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G282" t="n">
+        <v>228856.2741652215</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C283" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E283" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F283" t="n">
+        <v>4523</v>
+      </c>
+      <c r="G283" t="n">
+        <v>228856.2741652215</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C284" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D284" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="E284" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1248.2755</v>
+      </c>
+      <c r="G284" t="n">
+        <v>228856.2741652215</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N284"/>
+  <dimension ref="A1:M284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,24 +649,15 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -714,24 +682,15 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,24 +715,15 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,24 +748,15 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,24 +781,15 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -882,24 +814,15 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,24 +847,15 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -966,24 +880,15 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,24 +913,15 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1050,24 +946,15 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,24 +979,15 @@
         <v>23394.12292881206</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1134,24 +1012,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>130.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1176,24 +1045,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,24 +1078,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1260,24 +1111,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,24 +1144,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1344,24 +1177,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1386,24 +1210,19 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J25" t="n">
         <v>132</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1428,24 +1247,23 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J26" t="n">
         <v>132</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1470,24 +1288,23 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J27" t="n">
         <v>132</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1512,24 +1329,19 @@
         <v>24196.52812881206</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J28" t="n">
         <v>132</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,24 +1366,23 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>131.6</v>
       </c>
       <c r="J29" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1596,24 +1407,23 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J30" t="n">
         <v>132</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1638,24 +1448,19 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J31" t="n">
         <v>132</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,24 +1485,23 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J32" t="n">
         <v>132</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1722,24 +1526,23 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J33" t="n">
         <v>132</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,24 +1567,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="J34" t="n">
         <v>132.3</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1806,24 +1604,23 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="J35" t="n">
         <v>132.3</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1848,24 +1645,23 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="J36" t="n">
         <v>132.3</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1890,24 +1686,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="J37" t="n">
         <v>132.3</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1932,24 +1723,23 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="J38" t="n">
         <v>132.3</v>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1974,24 +1764,23 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="J39" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>132.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2016,24 +1805,23 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="J40" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>132.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2058,24 +1846,23 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>132.1</v>
       </c>
       <c r="J41" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>132.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2100,24 +1887,23 @@
         <v>12190.00622881206</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>132.1</v>
       </c>
       <c r="J42" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>132.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2142,24 +1928,23 @@
         <v>12190.00622881206</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>132.2</v>
       </c>
       <c r="J43" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>132.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2184,24 +1969,23 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>132.2</v>
       </c>
       <c r="J44" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>132.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2226,22 +2010,23 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>132.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2266,22 +2051,23 @@
         <v>49147.78627272184</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>132.9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2308,20 +2094,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2348,20 +2133,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2388,20 +2172,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2426,22 +2209,23 @@
         <v>52886.65947272184</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>133.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2468,20 +2252,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2508,20 +2291,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2548,20 +2330,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2588,20 +2369,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2628,20 +2408,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2668,20 +2447,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2706,22 +2484,23 @@
         <v>51827.78617272184</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>133.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2748,20 +2527,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2788,20 +2566,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2828,20 +2605,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2868,20 +2644,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2908,20 +2683,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2948,20 +2722,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2988,20 +2761,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3028,20 +2800,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3068,20 +2839,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3108,20 +2878,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3148,20 +2917,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3188,20 +2956,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3228,20 +2995,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3268,20 +3034,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,20 +3073,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3348,20 +3112,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3388,20 +3151,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3428,20 +3190,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3468,20 +3229,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3508,20 +3268,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3548,20 +3307,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3588,20 +3346,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3628,20 +3385,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3668,20 +3424,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3708,20 +3463,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3748,20 +3502,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3788,20 +3541,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3828,20 +3580,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3868,20 +3619,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3908,20 +3658,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3948,20 +3697,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3988,20 +3736,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4028,20 +3775,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4068,20 +3814,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4108,20 +3853,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4148,20 +3892,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4188,20 +3931,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4228,20 +3970,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4268,20 +4009,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4308,20 +4048,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4348,20 +4087,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4388,20 +4126,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4428,20 +4165,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4468,20 +4204,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4508,20 +4243,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4548,20 +4282,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4588,20 +4321,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4628,20 +4360,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4668,20 +4399,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4708,20 +4438,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4748,20 +4477,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4788,20 +4516,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4828,20 +4555,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4868,20 +4594,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4908,20 +4633,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4948,20 +4672,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4988,20 +4711,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5028,20 +4750,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5068,20 +4789,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5108,20 +4828,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5148,20 +4867,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5188,20 +4906,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5228,20 +4945,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5268,20 +4984,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5308,20 +5023,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5348,20 +5062,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5388,20 +5101,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5428,20 +5140,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5468,20 +5179,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5508,20 +5218,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5548,20 +5257,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5588,20 +5296,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5628,20 +5335,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5668,20 +5374,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5708,20 +5413,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5748,20 +5452,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5788,20 +5491,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5828,20 +5530,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5868,20 +5569,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5908,20 +5608,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5948,20 +5647,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5988,20 +5686,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6028,20 +5725,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6068,20 +5764,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6108,20 +5803,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6148,20 +5842,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6188,20 +5881,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6228,20 +5920,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6268,20 +5959,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6308,20 +5998,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6348,20 +6037,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6388,20 +6076,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6428,20 +6115,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6468,20 +6154,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6508,20 +6193,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6548,20 +6232,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6588,20 +6271,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6628,20 +6310,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6668,20 +6349,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6708,20 +6388,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6748,20 +6427,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6788,20 +6466,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6828,20 +6505,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6868,20 +6544,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6908,20 +6583,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6948,20 +6622,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6988,20 +6661,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7028,20 +6700,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7068,20 +6739,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7108,20 +6778,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7148,20 +6817,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7186,22 +6854,21 @@
         <v>140876.1807699399</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7226,22 +6893,21 @@
         <v>142917.5790699399</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7266,22 +6932,21 @@
         <v>142917.5790699399</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7306,22 +6971,21 @@
         <v>142555.4959699399</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7346,22 +7010,21 @@
         <v>154445.7008699399</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7386,22 +7049,21 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7426,22 +7088,21 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7466,22 +7127,21 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7508,20 +7168,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7546,22 +7205,21 @@
         <v>177687.2507699399</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7586,22 +7244,21 @@
         <v>177284.6935699399</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7626,22 +7283,21 @@
         <v>153358.9701699399</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7666,22 +7322,21 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7706,22 +7361,21 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7746,22 +7400,21 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7788,20 +7441,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7828,20 +7480,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7868,20 +7519,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7908,20 +7558,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7948,20 +7597,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7988,20 +7636,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8028,20 +7675,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8068,20 +7714,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8108,20 +7753,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8148,20 +7792,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8188,20 +7831,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8228,20 +7870,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8268,20 +7909,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8308,20 +7948,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8348,20 +7987,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8388,20 +8026,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8428,20 +8065,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8468,20 +8104,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8508,20 +8143,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8548,20 +8182,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8588,20 +8221,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8628,20 +8260,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8668,20 +8299,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8708,20 +8338,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8748,20 +8377,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8788,20 +8416,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8828,20 +8455,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8868,20 +8494,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8908,20 +8533,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8948,20 +8572,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8988,20 +8611,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9028,20 +8650,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9068,20 +8689,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9108,20 +8728,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9148,20 +8767,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9188,20 +8806,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9228,20 +8845,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9268,20 +8884,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9308,20 +8923,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9348,20 +8962,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9388,20 +9001,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9428,20 +9040,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9468,20 +9079,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9508,20 +9118,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9548,20 +9157,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9588,20 +9196,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9628,20 +9235,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9668,20 +9274,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9708,20 +9313,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9748,20 +9352,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9788,20 +9391,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9828,20 +9430,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9868,20 +9469,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9908,20 +9508,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9948,20 +9547,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9988,20 +9586,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10028,20 +9625,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10068,20 +9664,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10108,20 +9703,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10148,20 +9742,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10188,20 +9781,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10228,20 +9820,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10268,20 +9859,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10308,20 +9898,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10348,20 +9937,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10388,20 +9976,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10426,22 +10013,21 @@
         <v>221745.3831699399</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1.023722600151171</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10466,22 +10052,15 @@
         <v>221745.3831699399</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10506,20 +10085,15 @@
         <v>225755.3831699399</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L252" t="n">
+        <v>1</v>
       </c>
       <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10544,18 +10118,15 @@
         <v>225447.6892699399</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10580,18 +10151,15 @@
         <v>226336.9211699399</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10616,18 +10184,15 @@
         <v>227312.7659699399</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10652,18 +10217,15 @@
         <v>227312.7659699399</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10688,18 +10250,15 @@
         <v>239232.7659699399</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10724,18 +10283,15 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10760,18 +10316,15 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10796,18 +10349,15 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10832,18 +10382,15 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10868,18 +10415,15 @@
         <v>233502.9219699399</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10904,18 +10448,15 @@
         <v>232937.9219699399</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10940,18 +10481,15 @@
         <v>238058.3251699399</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10978,16 +10516,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11014,16 +10549,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11050,16 +10582,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11086,16 +10615,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11122,16 +10648,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11158,16 +10681,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11194,16 +10714,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11230,16 +10747,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11266,16 +10780,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11302,16 +10813,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11338,16 +10846,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11374,16 +10879,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11410,16 +10912,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11446,16 +10945,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11482,16 +10978,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11516,18 +11009,15 @@
         <v>221079.9016652215</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11552,18 +11042,15 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11590,16 +11077,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11626,16 +11110,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11662,18 +11143,15 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>10557.88602881206</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>10562.88602881206</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>131</v>
+      </c>
+      <c r="J3" t="n">
+        <v>131</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>131</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>131</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -649,11 +667,17 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>131</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +706,17 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>131</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +745,17 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>131</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +784,17 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,17 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>132</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,17 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>132</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +942,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +975,17 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>131</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1018,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,17 @@
         <v>23394.12292881206</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>132</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1090,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>130.8</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1133,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1166,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>132</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1205,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>132</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1244,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>132</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1283,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>132</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,15 +1322,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>132</v>
       </c>
-      <c r="J25" t="n">
-        <v>132</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,17 +1361,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>132</v>
       </c>
-      <c r="J26" t="n">
-        <v>132</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1288,17 +1400,15 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>132</v>
       </c>
-      <c r="J27" t="n">
-        <v>132</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1329,15 +1439,17 @@
         <v>24196.52812881206</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>132</v>
       </c>
-      <c r="J28" t="n">
-        <v>132</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1366,17 +1478,15 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>131.6</v>
       </c>
-      <c r="J29" t="n">
-        <v>132</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1407,17 +1517,15 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>132</v>
       </c>
-      <c r="J30" t="n">
-        <v>132</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1448,15 +1556,17 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>132</v>
       </c>
-      <c r="J31" t="n">
-        <v>132</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1485,17 +1595,15 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>132</v>
       </c>
-      <c r="J32" t="n">
-        <v>132</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1526,17 +1634,15 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>132</v>
       </c>
-      <c r="J33" t="n">
-        <v>132</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1567,15 +1673,17 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>132.3</v>
       </c>
-      <c r="J34" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1604,17 +1712,15 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>132.3</v>
       </c>
-      <c r="J35" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1645,17 +1751,15 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>132.3</v>
       </c>
-      <c r="J36" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1686,15 +1790,17 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>132.3</v>
       </c>
-      <c r="J37" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1723,17 +1829,15 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>132.3</v>
       </c>
-      <c r="J38" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1764,14 +1868,12 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>132.6</v>
       </c>
-      <c r="J39" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1805,14 +1907,12 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>132.6</v>
       </c>
-      <c r="J40" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,14 +1946,12 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>132.1</v>
       </c>
-      <c r="J41" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,14 +1985,12 @@
         <v>12190.00622881206</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>132.1</v>
       </c>
-      <c r="J42" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,14 +2024,12 @@
         <v>12190.00622881206</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>132.2</v>
       </c>
-      <c r="J43" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1969,14 +2063,12 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>132.2</v>
       </c>
-      <c r="J44" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,14 +2102,10 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>132.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,14 +2139,12 @@
         <v>49147.78627272184</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>132.9</v>
       </c>
-      <c r="J46" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,9 +2181,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2134,9 +2218,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2173,9 +2255,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,14 +2289,10 @@
         <v>52886.65947272184</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>132.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,9 +2329,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,9 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,9 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,9 +2440,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,9 +2477,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,9 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2484,14 +2548,10 @@
         <v>51827.78617272184</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>132.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,9 +2588,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2567,9 +2625,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,9 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,9 +2699,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,9 +2736,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,9 +2773,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,9 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2801,9 +2847,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,12 +2881,12 @@
         <v>19361.21077272184</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>132.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,12 +2920,12 @@
         <v>20791.55187272184</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>132.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,9 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2957,9 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,9 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3035,9 +3073,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,9 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3152,9 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,12 +3218,12 @@
         <v>-5721.848927278161</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>132.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3230,9 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,9 +3297,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,9 +3334,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,9 +3371,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,9 +3408,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,9 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,9 +3482,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,9 +3519,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,9 +3556,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,9 +3593,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,9 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,9 +3704,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,9 +3741,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,9 +3778,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,9 +3815,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3854,9 +3852,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3889,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,9 +3926,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,9 +3963,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,9 +4000,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,9 +4037,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,9 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,9 +4111,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,9 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,9 +4185,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,9 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,9 +4259,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,9 +4296,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4361,9 +4333,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,9 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,9 +4407,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,9 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,9 +4481,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,9 +4518,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,9 +4555,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,9 +4592,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,9 +4629,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,9 +4666,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,9 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,9 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,9 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,9 +4814,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,9 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,9 +4888,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,9 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,9 +4962,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,9 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,9 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,9 +5073,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,9 +5110,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,9 +5147,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,9 +5184,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,9 +5221,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,9 +5258,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,9 +5295,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,9 +5332,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,9 +5369,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,9 +5406,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,9 +5443,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,9 +5480,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,9 +5517,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,9 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,9 +5591,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,9 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,9 +5665,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,9 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,9 +5739,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,9 +5776,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,9 +5813,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,9 +5850,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,9 +5887,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,9 +5924,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,9 +5961,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,9 +5998,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,9 +6035,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,9 +6072,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,20 +6106,16 @@
         <v>156387.5674699399</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>132.3</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -6269,17 +6141,11 @@
         <v>155582.6747699399</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6308,17 +6174,11 @@
         <v>155673.6747699399</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6347,17 +6207,11 @@
         <v>155673.6747699399</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6386,17 +6240,11 @@
         <v>157058.6747699399</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6425,17 +6273,11 @@
         <v>159361.0661699398</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6464,17 +6306,11 @@
         <v>157361.0661699398</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6503,17 +6339,11 @@
         <v>159362.0661699398</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6542,17 +6372,11 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6581,17 +6405,11 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6620,17 +6438,11 @@
         <v>159276.2870699399</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6659,17 +6471,11 @@
         <v>153010.7060699399</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6698,17 +6504,11 @@
         <v>150305.3495699399</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6737,17 +6537,11 @@
         <v>149502.4697699399</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6776,17 +6570,11 @@
         <v>149502.4697699399</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6815,17 +6603,11 @@
         <v>140876.1807699399</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6854,17 +6636,11 @@
         <v>140876.1807699399</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6893,17 +6669,11 @@
         <v>142917.5790699399</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6932,17 +6702,11 @@
         <v>142917.5790699399</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6971,17 +6735,11 @@
         <v>142555.4959699399</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7010,17 +6768,11 @@
         <v>154445.7008699399</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7049,17 +6801,11 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7088,17 +6834,11 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7127,17 +6867,11 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7166,17 +6900,11 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7205,17 +6933,11 @@
         <v>177687.2507699399</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7244,17 +6966,11 @@
         <v>177284.6935699399</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7283,17 +6999,11 @@
         <v>153358.9701699399</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7322,17 +7032,11 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7361,17 +7065,11 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7400,17 +7098,11 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7439,17 +7131,11 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7481,14 +7167,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7520,14 +7200,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7559,14 +7233,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7598,14 +7266,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7637,14 +7299,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7676,14 +7332,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7715,14 +7365,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7754,14 +7398,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7793,14 +7431,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7832,14 +7464,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7871,14 +7497,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7910,14 +7530,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7949,14 +7563,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7988,14 +7596,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8027,14 +7629,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8066,14 +7662,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8105,14 +7695,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8144,14 +7728,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8183,14 +7761,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8222,14 +7794,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8261,14 +7827,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8300,14 +7860,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8339,14 +7893,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8378,14 +7926,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8417,14 +7959,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8456,14 +7992,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8495,14 +8025,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8534,14 +8058,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8573,14 +8091,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +8124,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8651,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8690,14 +8190,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8729,14 +8223,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8768,14 +8256,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8807,14 +8289,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8846,14 +8322,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8885,14 +8355,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8924,14 +8388,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8963,14 +8421,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9002,14 +8454,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9041,14 +8487,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9080,14 +8520,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9119,14 +8553,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9158,14 +8586,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9197,14 +8619,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +8652,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9275,14 +8685,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9314,14 +8718,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9353,14 +8751,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9392,14 +8784,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9431,14 +8817,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9470,14 +8850,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9509,14 +8883,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9548,14 +8916,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9587,14 +8949,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9626,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9665,14 +9015,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9704,14 +9048,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9743,14 +9081,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9782,14 +9114,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9821,14 +9147,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9860,14 +9180,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9899,14 +9213,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9938,14 +9246,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9977,14 +9279,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10013,19 +9309,13 @@
         <v>221745.3831699399</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>1.023722600151171</v>
+        <v>1</v>
       </c>
       <c r="M250" t="inlineStr"/>
     </row>
@@ -10052,7 +9342,7 @@
         <v>221745.3831699399</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10085,7 +9375,7 @@
         <v>225755.3831699399</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10118,7 +9408,7 @@
         <v>225447.6892699399</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10151,7 +9441,7 @@
         <v>226336.9211699399</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10184,7 +9474,7 @@
         <v>227312.7659699399</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10217,7 +9507,7 @@
         <v>227312.7659699399</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10250,7 +9540,7 @@
         <v>239232.7659699399</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10283,7 +9573,7 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10316,7 +9606,7 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10349,7 +9639,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10382,7 +9672,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10415,7 +9705,7 @@
         <v>233502.9219699399</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10448,7 +9738,7 @@
         <v>232937.9219699399</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10481,7 +9771,7 @@
         <v>238058.3251699399</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10514,7 +9804,7 @@
         <v>232793.9757699399</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10547,7 +9837,7 @@
         <v>232797.9757699399</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10580,7 +9870,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10613,7 +9903,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10646,7 +9936,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10679,7 +9969,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10712,7 +10002,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10745,7 +10035,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10778,7 +10068,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10811,7 +10101,7 @@
         <v>241338.0889457971</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10844,7 +10134,7 @@
         <v>238338.0889457971</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10877,7 +10167,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10910,7 +10200,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10943,7 +10233,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10976,7 +10266,7 @@
         <v>221696.7025652215</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11009,7 +10299,7 @@
         <v>221079.9016652215</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11042,7 +10332,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11152,6 +10442,6 @@
       <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>10557.88602881206</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>10562.88602881206</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>131</v>
-      </c>
-      <c r="J3" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>131</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>131</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -667,1450 +649,1276 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>131</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="C9" t="n">
+        <v>131</v>
+      </c>
+      <c r="D9" t="n">
+        <v>131</v>
+      </c>
+      <c r="E9" t="n">
+        <v>131</v>
+      </c>
+      <c r="F9" t="n">
+        <v>388.8142</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22727.03092881206</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>131</v>
+      </c>
+      <c r="C10" t="n">
+        <v>132</v>
+      </c>
+      <c r="D10" t="n">
+        <v>132</v>
+      </c>
+      <c r="E10" t="n">
+        <v>131</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23743.03092881206</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>132</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D11" t="n">
+        <v>132</v>
+      </c>
+      <c r="E11" t="n">
+        <v>132</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23743.03092881206</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>132</v>
+      </c>
+      <c r="C12" t="n">
+        <v>132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>132</v>
+      </c>
+      <c r="E12" t="n">
+        <v>132</v>
+      </c>
+      <c r="F12" t="n">
+        <v>313.2762</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23743.03092881206</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130</v>
+      </c>
+      <c r="C13" t="n">
+        <v>132</v>
+      </c>
+      <c r="D13" t="n">
+        <v>132</v>
+      </c>
+      <c r="E13" t="n">
+        <v>130</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5675.2312</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23743.03092881206</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>131</v>
+      </c>
+      <c r="D14" t="n">
+        <v>131</v>
+      </c>
+      <c r="E14" t="n">
+        <v>131</v>
+      </c>
+      <c r="F14" t="n">
+        <v>346</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23397.03092881206</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>131</v>
+      </c>
+      <c r="C15" t="n">
+        <v>131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>131</v>
+      </c>
+      <c r="E15" t="n">
+        <v>131</v>
+      </c>
+      <c r="F15" t="n">
+        <v>346</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23397.03092881206</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>132</v>
+      </c>
+      <c r="C16" t="n">
+        <v>132</v>
+      </c>
+      <c r="D16" t="n">
+        <v>132</v>
+      </c>
+      <c r="E16" t="n">
+        <v>132</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23424.03092881206</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>132</v>
+      </c>
+      <c r="D17" t="n">
+        <v>132</v>
+      </c>
+      <c r="E17" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6604.9586</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23424.03092881206</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.908</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23394.12292881206</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>132</v>
+      </c>
+      <c r="C19" t="n">
+        <v>132</v>
+      </c>
+      <c r="D19" t="n">
+        <v>132</v>
+      </c>
+      <c r="E19" t="n">
+        <v>132</v>
+      </c>
+      <c r="F19" t="n">
+        <v>830.085</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>132</v>
+      </c>
+      <c r="C20" t="n">
+        <v>132</v>
+      </c>
+      <c r="D20" t="n">
+        <v>132</v>
+      </c>
+      <c r="E20" t="n">
+        <v>132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5972.8308</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>132</v>
+      </c>
+      <c r="C21" t="n">
+        <v>132</v>
+      </c>
+      <c r="D21" t="n">
+        <v>132</v>
+      </c>
+      <c r="E21" t="n">
+        <v>132</v>
+      </c>
+      <c r="F21" t="n">
+        <v>700</v>
+      </c>
+      <c r="G21" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>132</v>
+      </c>
+      <c r="C22" t="n">
+        <v>132</v>
+      </c>
+      <c r="D22" t="n">
+        <v>132</v>
+      </c>
+      <c r="E22" t="n">
+        <v>132</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+      <c r="C23" t="n">
+        <v>132</v>
+      </c>
+      <c r="D23" t="n">
+        <v>132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>132</v>
+      </c>
+      <c r="F23" t="n">
+        <v>891.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>132</v>
+      </c>
+      <c r="C24" t="n">
+        <v>132</v>
+      </c>
+      <c r="D24" t="n">
+        <v>132</v>
+      </c>
+      <c r="E24" t="n">
+        <v>132</v>
+      </c>
+      <c r="F24" t="n">
+        <v>39</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>132</v>
+      </c>
+      <c r="C25" t="n">
+        <v>132</v>
+      </c>
+      <c r="D25" t="n">
+        <v>132</v>
+      </c>
+      <c r="E25" t="n">
+        <v>132</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2165.0713</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>132</v>
+      </c>
+      <c r="C26" t="n">
+        <v>132</v>
+      </c>
+      <c r="D26" t="n">
+        <v>132</v>
+      </c>
+      <c r="E26" t="n">
+        <v>132</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1299.2084</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>132</v>
+      </c>
+      <c r="C27" t="n">
+        <v>132</v>
+      </c>
+      <c r="D27" t="n">
+        <v>132</v>
+      </c>
+      <c r="E27" t="n">
+        <v>132</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24224.20792881206</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27.6798</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24196.52812881206</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>132</v>
+      </c>
+      <c r="C29" t="n">
+        <v>132</v>
+      </c>
+      <c r="D29" t="n">
+        <v>132</v>
+      </c>
+      <c r="E29" t="n">
+        <v>132</v>
+      </c>
+      <c r="F29" t="n">
+        <v>500</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24696.52812881206</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>132</v>
+      </c>
+      <c r="C30" t="n">
+        <v>132</v>
+      </c>
+      <c r="D30" t="n">
+        <v>132</v>
+      </c>
+      <c r="E30" t="n">
+        <v>132</v>
+      </c>
+      <c r="F30" t="n">
+        <v>25.7124</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24696.52812881206</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>132</v>
+      </c>
+      <c r="C31" t="n">
+        <v>132</v>
+      </c>
+      <c r="D31" t="n">
+        <v>132</v>
+      </c>
+      <c r="E31" t="n">
+        <v>132</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3153.9017</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24696.52812881206</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>132</v>
+      </c>
+      <c r="C32" t="n">
+        <v>132</v>
+      </c>
+      <c r="D32" t="n">
+        <v>132</v>
+      </c>
+      <c r="E32" t="n">
+        <v>132</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1161.937647156937</v>
+      </c>
+      <c r="G32" t="n">
+        <v>24696.52812881206</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>250</v>
+      </c>
+      <c r="G33" t="n">
+        <v>24946.52812881206</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>27</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24946.52812881206</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G35" t="n">
+        <v>24946.52812881206</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2566.4484</v>
+      </c>
+      <c r="G36" t="n">
+        <v>24946.52812881206</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1528.5426</v>
+      </c>
+      <c r="G37" t="n">
+        <v>24946.52812881206</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1413.2575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>26359.78562881206</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1512.2347</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26359.78562881206</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15000.7794</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11359.00622881206</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>281</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11359.00622881206</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>831</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12190.00622881206</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>215</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12190.00622881206</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4449.2492</v>
+      </c>
+      <c r="G44" t="n">
+        <v>16639.25542881206</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>132</v>
+      </c>
+      <c r="C45" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>132</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6599.9694</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16639.25542881206</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>131</v>
-      </c>
-      <c r="C9" t="n">
-        <v>131</v>
-      </c>
-      <c r="D9" t="n">
-        <v>131</v>
-      </c>
-      <c r="E9" t="n">
-        <v>131</v>
-      </c>
-      <c r="F9" t="n">
-        <v>388.8142</v>
-      </c>
-      <c r="G9" t="n">
-        <v>22727.03092881206</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>131</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>131</v>
-      </c>
-      <c r="C10" t="n">
-        <v>132</v>
-      </c>
-      <c r="D10" t="n">
-        <v>132</v>
-      </c>
-      <c r="E10" t="n">
-        <v>131</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1016</v>
-      </c>
-      <c r="G10" t="n">
-        <v>23743.03092881206</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>131</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>132</v>
-      </c>
-      <c r="C11" t="n">
-        <v>132</v>
-      </c>
-      <c r="D11" t="n">
-        <v>132</v>
-      </c>
-      <c r="E11" t="n">
-        <v>132</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>23743.03092881206</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>132</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>132</v>
-      </c>
-      <c r="C12" t="n">
-        <v>132</v>
-      </c>
-      <c r="D12" t="n">
-        <v>132</v>
-      </c>
-      <c r="E12" t="n">
-        <v>132</v>
-      </c>
-      <c r="F12" t="n">
-        <v>313.2762</v>
-      </c>
-      <c r="G12" t="n">
-        <v>23743.03092881206</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>132</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>130</v>
-      </c>
-      <c r="C13" t="n">
-        <v>132</v>
-      </c>
-      <c r="D13" t="n">
-        <v>132</v>
-      </c>
-      <c r="E13" t="n">
-        <v>130</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5675.2312</v>
-      </c>
-      <c r="G13" t="n">
-        <v>23743.03092881206</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>132</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>131</v>
-      </c>
-      <c r="C14" t="n">
-        <v>131</v>
-      </c>
-      <c r="D14" t="n">
-        <v>131</v>
-      </c>
-      <c r="E14" t="n">
-        <v>131</v>
-      </c>
-      <c r="F14" t="n">
-        <v>346</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23397.03092881206</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>131</v>
-      </c>
-      <c r="C15" t="n">
-        <v>131</v>
-      </c>
-      <c r="D15" t="n">
-        <v>131</v>
-      </c>
-      <c r="E15" t="n">
-        <v>131</v>
-      </c>
-      <c r="F15" t="n">
-        <v>346</v>
-      </c>
-      <c r="G15" t="n">
-        <v>23397.03092881206</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>132</v>
-      </c>
-      <c r="C16" t="n">
-        <v>132</v>
-      </c>
-      <c r="D16" t="n">
-        <v>132</v>
-      </c>
-      <c r="E16" t="n">
-        <v>132</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23424.03092881206</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>131</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>132</v>
-      </c>
-      <c r="D17" t="n">
-        <v>132</v>
-      </c>
-      <c r="E17" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6604.9586</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23424.03092881206</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>29.908</v>
-      </c>
-      <c r="G18" t="n">
-        <v>23394.12292881206</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>132</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>132</v>
-      </c>
-      <c r="C19" t="n">
-        <v>132</v>
-      </c>
-      <c r="D19" t="n">
-        <v>132</v>
-      </c>
-      <c r="E19" t="n">
-        <v>132</v>
-      </c>
-      <c r="F19" t="n">
-        <v>830.085</v>
-      </c>
-      <c r="G19" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>132</v>
-      </c>
-      <c r="C20" t="n">
-        <v>132</v>
-      </c>
-      <c r="D20" t="n">
-        <v>132</v>
-      </c>
-      <c r="E20" t="n">
-        <v>132</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5972.8308</v>
-      </c>
-      <c r="G20" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>132</v>
-      </c>
-      <c r="C21" t="n">
-        <v>132</v>
-      </c>
-      <c r="D21" t="n">
-        <v>132</v>
-      </c>
-      <c r="E21" t="n">
-        <v>132</v>
-      </c>
-      <c r="F21" t="n">
-        <v>700</v>
-      </c>
-      <c r="G21" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>132</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>132</v>
-      </c>
-      <c r="C22" t="n">
-        <v>132</v>
-      </c>
-      <c r="D22" t="n">
-        <v>132</v>
-      </c>
-      <c r="E22" t="n">
-        <v>132</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G22" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>132</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>132</v>
-      </c>
-      <c r="C23" t="n">
-        <v>132</v>
-      </c>
-      <c r="D23" t="n">
-        <v>132</v>
-      </c>
-      <c r="E23" t="n">
-        <v>132</v>
-      </c>
-      <c r="F23" t="n">
-        <v>891.1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>132</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>132</v>
-      </c>
-      <c r="C24" t="n">
-        <v>132</v>
-      </c>
-      <c r="D24" t="n">
-        <v>132</v>
-      </c>
-      <c r="E24" t="n">
-        <v>132</v>
-      </c>
-      <c r="F24" t="n">
-        <v>39</v>
-      </c>
-      <c r="G24" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>132</v>
-      </c>
-      <c r="C25" t="n">
-        <v>132</v>
-      </c>
-      <c r="D25" t="n">
-        <v>132</v>
-      </c>
-      <c r="E25" t="n">
-        <v>132</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2165.0713</v>
-      </c>
-      <c r="G25" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>132</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>132</v>
-      </c>
-      <c r="C26" t="n">
-        <v>132</v>
-      </c>
-      <c r="D26" t="n">
-        <v>132</v>
-      </c>
-      <c r="E26" t="n">
-        <v>132</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1299.2084</v>
-      </c>
-      <c r="G26" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>132</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>132</v>
-      </c>
-      <c r="C27" t="n">
-        <v>132</v>
-      </c>
-      <c r="D27" t="n">
-        <v>132</v>
-      </c>
-      <c r="E27" t="n">
-        <v>132</v>
-      </c>
-      <c r="F27" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" t="n">
-        <v>24224.20792881206</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>132</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="C28" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="E28" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27.6798</v>
-      </c>
-      <c r="G28" t="n">
-        <v>24196.52812881206</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>132</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>132</v>
-      </c>
-      <c r="C29" t="n">
-        <v>132</v>
-      </c>
-      <c r="D29" t="n">
-        <v>132</v>
-      </c>
-      <c r="E29" t="n">
-        <v>132</v>
-      </c>
-      <c r="F29" t="n">
-        <v>500</v>
-      </c>
-      <c r="G29" t="n">
-        <v>24696.52812881206</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>132</v>
-      </c>
-      <c r="C30" t="n">
-        <v>132</v>
-      </c>
-      <c r="D30" t="n">
-        <v>132</v>
-      </c>
-      <c r="E30" t="n">
-        <v>132</v>
-      </c>
-      <c r="F30" t="n">
-        <v>25.7124</v>
-      </c>
-      <c r="G30" t="n">
-        <v>24696.52812881206</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>132</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>132</v>
-      </c>
-      <c r="C31" t="n">
-        <v>132</v>
-      </c>
-      <c r="D31" t="n">
-        <v>132</v>
-      </c>
-      <c r="E31" t="n">
-        <v>132</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3153.9017</v>
-      </c>
-      <c r="G31" t="n">
-        <v>24696.52812881206</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>132</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>132</v>
-      </c>
-      <c r="C32" t="n">
-        <v>132</v>
-      </c>
-      <c r="D32" t="n">
-        <v>132</v>
-      </c>
-      <c r="E32" t="n">
-        <v>132</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1161.937647156937</v>
-      </c>
-      <c r="G32" t="n">
-        <v>24696.52812881206</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>132</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>250</v>
-      </c>
-      <c r="G33" t="n">
-        <v>24946.52812881206</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>132</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>27</v>
-      </c>
-      <c r="G34" t="n">
-        <v>24946.52812881206</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G35" t="n">
-        <v>24946.52812881206</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2566.4484</v>
-      </c>
-      <c r="G36" t="n">
-        <v>24946.52812881206</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1528.5426</v>
-      </c>
-      <c r="G37" t="n">
-        <v>24946.52812881206</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="D38" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1413.2575</v>
-      </c>
-      <c r="G38" t="n">
-        <v>26359.78562881206</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1512.2347</v>
-      </c>
-      <c r="G39" t="n">
-        <v>26359.78562881206</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>132.7</v>
-      </c>
-      <c r="C40" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>15000.7794</v>
-      </c>
-      <c r="G40" t="n">
-        <v>11359.00622881206</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>281</v>
-      </c>
-      <c r="G41" t="n">
-        <v>11359.00622881206</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>831</v>
-      </c>
-      <c r="G42" t="n">
-        <v>12190.00622881206</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>215</v>
-      </c>
-      <c r="G43" t="n">
-        <v>12190.00622881206</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="D44" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="E44" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4449.2492</v>
-      </c>
-      <c r="G44" t="n">
-        <v>16639.25542881206</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>132</v>
-      </c>
-      <c r="C45" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>132</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6599.9694</v>
-      </c>
-      <c r="G45" t="n">
-        <v>16639.25542881206</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2144,7 +1952,9 @@
       <c r="I46" t="n">
         <v>132.9</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,7 +1991,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2218,7 +2030,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,10 +2066,14 @@
         <v>52893.65947272184</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>131</v>
+      </c>
+      <c r="J49" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,7 +2110,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,7 +2149,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2366,7 +2188,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2403,7 +2227,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,7 +2266,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2477,7 +2305,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,7 +2344,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2551,7 +2383,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2588,7 +2422,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2625,7 +2461,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,7 +2500,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,7 +2539,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,7 +2578,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,7 +2617,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,7 +2656,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,7 +2695,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,12 +2731,12 @@
         <v>19361.21077272184</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,12 +2770,12 @@
         <v>20791.55187272184</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,7 +2812,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2999,7 +2851,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,7 +2890,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,7 +2929,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,7 +2968,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,7 +3007,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,7 +3046,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3218,12 +3082,12 @@
         <v>-5721.848927278161</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,7 +3124,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,7 +3163,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,7 +3202,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,7 +3241,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,7 +3280,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,7 +3319,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,7 +3358,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,7 +3397,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,7 +3436,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3593,7 +3475,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,7 +3514,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3553,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,7 +3592,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,7 +3631,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,7 +3670,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,7 +3709,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,7 +3748,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,7 +3787,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,7 +3826,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,7 +3865,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,7 +3904,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,7 +3943,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,7 +3982,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,7 +4021,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,7 +4060,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,7 +4099,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,7 +4138,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,7 +4177,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,7 +4216,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,7 +4255,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,7 +4294,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,7 +4333,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,7 +4372,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,7 +4411,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,7 +4450,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,7 +4489,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,17 +4525,19 @@
         <v>64417.42936993988</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>132.1</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>1.00938304314913</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4626,15 +4564,11 @@
         <v>64446.42936993988</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4663,15 +4597,11 @@
         <v>64696.42936993988</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4704,11 +4634,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4667,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4700,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4815,11 +4733,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4852,11 +4766,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +4799,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4922,15 +4828,11 @@
         <v>88245.34506993988</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +4865,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +4898,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +4931,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +4964,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5111,11 +4997,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5148,11 +5030,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5185,11 +5063,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +5096,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5259,11 +5129,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5296,11 +5162,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5333,11 +5195,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5370,11 +5228,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +5261,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5444,11 +5294,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5481,11 +5327,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5518,11 +5360,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5555,11 +5393,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5592,11 +5426,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5629,11 +5459,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5666,11 +5492,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5703,11 +5525,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +5558,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5777,11 +5591,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5814,11 +5624,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5851,11 +5657,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +5690,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5925,11 +5723,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5756,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5999,11 +5789,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6036,11 +5822,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6073,11 +5855,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6106,16 +5884,14 @@
         <v>156387.5674699399</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -6141,7 +5917,7 @@
         <v>155582.6747699399</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6174,7 +5950,7 @@
         <v>155673.6747699399</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6207,7 +5983,7 @@
         <v>155673.6747699399</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6240,7 +6016,7 @@
         <v>157058.6747699399</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6273,7 +6049,7 @@
         <v>159361.0661699398</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6306,7 +6082,7 @@
         <v>157361.0661699398</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6339,7 +6115,7 @@
         <v>159362.0661699398</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6372,7 +6148,7 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6405,7 +6181,7 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6438,7 +6214,7 @@
         <v>159276.2870699399</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6471,7 +6247,7 @@
         <v>153010.7060699399</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6504,7 +6280,7 @@
         <v>150305.3495699399</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6537,7 +6313,7 @@
         <v>149502.4697699399</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6570,7 +6346,7 @@
         <v>149502.4697699399</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6603,7 +6379,7 @@
         <v>140876.1807699399</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6636,7 +6412,7 @@
         <v>140876.1807699399</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6669,7 +6445,7 @@
         <v>142917.5790699399</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6702,7 +6478,7 @@
         <v>142917.5790699399</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6735,7 +6511,7 @@
         <v>142555.4959699399</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6768,7 +6544,7 @@
         <v>154445.7008699399</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6801,7 +6577,7 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6834,7 +6610,7 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6867,7 +6643,7 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6900,7 +6676,7 @@
         <v>161663.2507699399</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6933,7 +6709,7 @@
         <v>177687.2507699399</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6966,7 +6742,7 @@
         <v>177284.6935699399</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6999,7 +6775,7 @@
         <v>153358.9701699399</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7032,7 +6808,7 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7065,7 +6841,7 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7098,7 +6874,7 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7131,7 +6907,7 @@
         <v>153535.7990699399</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8715,7 +8491,7 @@
         <v>174139.6331699399</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8748,7 +8524,7 @@
         <v>174667.6331699399</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8781,7 +8557,7 @@
         <v>174547.6331699399</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8814,7 +8590,7 @@
         <v>175047.6331699399</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8847,7 +8623,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8913,7 +8689,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8946,7 +8722,7 @@
         <v>175801.6331699399</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8979,7 +8755,7 @@
         <v>179001.6331699399</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9738,7 +9514,7 @@
         <v>232937.9219699399</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9771,7 +9547,7 @@
         <v>238058.3251699399</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9804,7 +9580,7 @@
         <v>232793.9757699399</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9837,7 +9613,7 @@
         <v>232797.9757699399</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9870,7 +9646,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9903,7 +9679,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9936,7 +9712,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9969,7 +9745,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10002,7 +9778,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10035,7 +9811,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10068,7 +9844,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10101,7 +9877,7 @@
         <v>241338.0889457971</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10134,7 +9910,7 @@
         <v>238338.0889457971</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10167,7 +9943,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10200,7 +9976,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10233,7 +10009,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10266,7 +10042,7 @@
         <v>221696.7025652215</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10299,7 +10075,7 @@
         <v>221079.9016652215</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10332,7 +10108,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10442,6 +10218,6 @@
       <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ITC.xlsx
+++ b/BackTest/2020-01-16 BackTest ITC.xlsx
@@ -451,7 +451,7 @@
         <v>10557.88602881206</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>10562.88602881206</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>131</v>
+      </c>
+      <c r="J3" t="n">
+        <v>131</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>131</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>131</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>23132.89762881206</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>132</v>
+      </c>
+      <c r="J6" t="n">
+        <v>132</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>132</v>
+      </c>
+      <c r="J7" t="n">
+        <v>132</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>131</v>
+      </c>
+      <c r="J8" t="n">
+        <v>132</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>22727.03092881206</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>131</v>
+      </c>
+      <c r="J9" t="n">
+        <v>132</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>131</v>
+      </c>
+      <c r="J10" t="n">
+        <v>132</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>132</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>132</v>
+      </c>
+      <c r="J12" t="n">
+        <v>132</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>23743.03092881206</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>132</v>
+      </c>
+      <c r="J13" t="n">
+        <v>132</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>132</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>23397.03092881206</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>131</v>
+      </c>
+      <c r="J15" t="n">
+        <v>132</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,19 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>131</v>
+      </c>
+      <c r="J16" t="n">
+        <v>132</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1050,19 @@
         <v>23424.03092881206</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>132</v>
+      </c>
+      <c r="J17" t="n">
+        <v>132</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1091,19 @@
         <v>23394.12292881206</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>132</v>
+      </c>
+      <c r="J18" t="n">
+        <v>132</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1018,9 +1138,13 @@
         <v>130.8</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,15 +1173,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>132</v>
+      </c>
       <c r="J20" t="n">
-        <v>130.8</v>
+        <v>132</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1088,15 +1214,17 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>132</v>
+      </c>
       <c r="J21" t="n">
-        <v>130.8</v>
+        <v>132</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1127,11 +1255,19 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>132</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1163,8 +1299,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>132</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1335,19 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>132</v>
+      </c>
+      <c r="J24" t="n">
+        <v>132</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1376,19 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>132</v>
+      </c>
+      <c r="J25" t="n">
+        <v>132</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,11 +1417,19 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>132</v>
+      </c>
+      <c r="J26" t="n">
+        <v>132</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1458,19 @@
         <v>24224.20792881206</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>132</v>
+      </c>
+      <c r="J27" t="n">
+        <v>132</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1499,19 @@
         <v>24196.52812881206</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>132</v>
+      </c>
+      <c r="J28" t="n">
+        <v>132</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1358,11 +1540,19 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>132</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1581,19 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>132</v>
+      </c>
+      <c r="J30" t="n">
+        <v>132</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1622,19 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>132</v>
+      </c>
+      <c r="J31" t="n">
+        <v>132</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1663,19 @@
         <v>24696.52812881206</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>132</v>
+      </c>
+      <c r="J32" t="n">
+        <v>132</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1490,11 +1704,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>132</v>
+      </c>
+      <c r="J33" t="n">
+        <v>132</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1745,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>132</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1786,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>132</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1589,11 +1827,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>132</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1868,19 @@
         <v>24946.52812881206</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>132</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1909,19 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>132</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1950,19 @@
         <v>26359.78562881206</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>132</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1991,19 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>132</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +2032,17 @@
         <v>11359.00622881206</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>132</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1793,9 +2077,13 @@
         <v>132.1</v>
       </c>
       <c r="J42" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,17 +2112,15 @@
         <v>12190.00622881206</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1865,17 +2151,15 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>132.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1906,17 +2190,15 @@
         <v>16639.25542881206</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>132.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1947,13 +2229,11 @@
         <v>49147.78627272184</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>132.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -1992,7 +2272,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2031,7 +2311,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2066,13 +2346,11 @@
         <v>52893.65947272184</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2111,7 +2389,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2150,7 +2428,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2189,7 +2467,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2228,7 +2506,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2267,7 +2545,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2306,7 +2584,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2345,7 +2623,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2384,7 +2662,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2423,7 +2701,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2462,7 +2740,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2501,7 +2779,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2540,7 +2818,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2579,7 +2857,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2618,7 +2896,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2657,7 +2935,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2696,7 +2974,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2735,7 +3013,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2774,7 +3052,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2813,7 +3091,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2852,7 +3130,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2891,7 +3169,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2930,7 +3208,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2969,7 +3247,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3008,7 +3286,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3047,7 +3325,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3086,7 +3364,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3125,7 +3403,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3164,7 +3442,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3203,7 +3481,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3242,7 +3520,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3281,7 +3559,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3320,7 +3598,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3359,7 +3637,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3398,7 +3676,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3437,7 +3715,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3476,7 +3754,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3515,7 +3793,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3554,7 +3832,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3593,7 +3871,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3632,7 +3910,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3671,7 +3949,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3710,7 +3988,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3749,7 +4027,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3788,7 +4066,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3827,7 +4105,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3866,7 +4144,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3905,7 +4183,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3944,7 +4222,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3983,7 +4261,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4022,7 +4300,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4061,7 +4339,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4100,7 +4378,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4139,7 +4417,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4178,7 +4456,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4217,7 +4495,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4256,7 +4534,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4295,7 +4573,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4334,7 +4612,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4373,7 +4651,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4412,7 +4690,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4451,7 +4729,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4490,7 +4768,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4525,19 +4803,19 @@
         <v>64417.42936993988</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.00938304314913</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4564,11 +4842,17 @@
         <v>64446.42936993988</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>132</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4881,17 @@
         <v>64696.42936993988</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>132</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4633,8 +4923,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>132</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>132</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +5001,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>132</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +5040,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>132</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>132</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +5118,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>132</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +5154,17 @@
         <v>88245.34506993988</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>132</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +5196,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>132</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +5235,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>132</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +5274,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>132</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +5313,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>132</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4996,8 +5352,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>132</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5029,8 +5391,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>132</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5430,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>132</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +5469,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>132</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +5508,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>132</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5161,8 +5547,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>132</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +5586,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>132</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5227,8 +5625,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>132</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5260,8 +5664,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>132</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5293,8 +5703,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>132</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5326,8 +5742,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>132</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5781,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>132</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5820,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>132</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +5859,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>132</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +5898,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>132</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5491,8 +5937,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>132</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5521,13 +5973,19 @@
         <v>141536.9717032732</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>132</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>1.027575757575758</v>
       </c>
       <c r="M142" t="inlineStr"/>
     </row>
@@ -5620,7 +6078,7 @@
         <v>151396.8924699399</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5653,7 +6111,7 @@
         <v>152058.8924699399</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5686,7 +6144,7 @@
         <v>151749.0781699399</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5719,7 +6177,7 @@
         <v>151749.0781699399</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5752,7 +6210,7 @@
         <v>158567.0331699399</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5785,7 +6243,7 @@
         <v>156279.8020699398</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5818,7 +6276,7 @@
         <v>159279.8020699398</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5851,7 +6309,7 @@
         <v>157895.4948699398</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5884,7 +6342,7 @@
         <v>156387.5674699399</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5917,7 +6375,7 @@
         <v>155582.6747699399</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6082,7 +6540,7 @@
         <v>157361.0661699398</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6115,7 +6573,7 @@
         <v>159362.0661699398</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6148,7 +6606,7 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6181,7 +6639,7 @@
         <v>159308.0122699398</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -8491,7 +8949,7 @@
         <v>174139.6331699399</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8524,7 +8982,7 @@
         <v>174667.6331699399</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8557,7 +9015,7 @@
         <v>174547.6331699399</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8590,7 +9048,7 @@
         <v>175047.6331699399</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8623,7 +9081,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8689,7 +9147,7 @@
         <v>175797.6331699399</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8722,7 +9180,7 @@
         <v>175801.6331699399</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8755,7 +9213,7 @@
         <v>179001.6331699399</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9283,7 +9741,7 @@
         <v>227312.7659699399</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9316,7 +9774,7 @@
         <v>239232.7659699399</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9349,7 +9807,7 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9382,7 +9840,7 @@
         <v>239125.9059699399</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9415,7 +9873,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9448,7 +9906,7 @@
         <v>238252.1493699399</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9481,7 +9939,7 @@
         <v>233502.9219699399</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9514,7 +9972,7 @@
         <v>232937.9219699399</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9547,7 +10005,7 @@
         <v>238058.3251699399</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9580,7 +10038,7 @@
         <v>232793.9757699399</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9613,7 +10071,7 @@
         <v>232797.9757699399</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9646,7 +10104,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9679,7 +10137,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9811,7 +10269,7 @@
         <v>232550.7226699399</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9877,7 +10335,7 @@
         <v>241338.0889457971</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9910,7 +10368,7 @@
         <v>238338.0889457971</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9943,7 +10401,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9976,7 +10434,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10009,7 +10467,7 @@
         <v>238493.1896652215</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10042,7 +10500,7 @@
         <v>221696.7025652215</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10075,7 +10533,7 @@
         <v>221079.9016652215</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10108,7 +10566,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10141,7 +10599,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10174,7 +10632,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10207,7 +10665,7 @@
         <v>228856.2741652215</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
